--- a/BackTest/2020-01-24 BackTest BTT.xlsx
+++ b/BackTest/2020-01-24 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4174</v>
+        <v>0.4138</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4174</v>
+        <v>0.4132</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4174</v>
+        <v>0.4138</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4174</v>
+        <v>0.4132</v>
       </c>
       <c r="F2" t="n">
-        <v>1545.1369</v>
+        <v>563574.0989</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4178783333333336</v>
+        <v>0.4179783333333336</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4138</v>
+        <v>0.4174</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4138</v>
+        <v>0.4174</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4138</v>
+        <v>0.4174</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4138</v>
+        <v>0.4174</v>
       </c>
       <c r="F3" t="n">
-        <v>108356</v>
+        <v>1545.1369</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4177183333333335</v>
+        <v>0.4178783333333336</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0.4138</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4136</v>
+        <v>0.4138</v>
       </c>
       <c r="D4" t="n">
         <v>0.4138</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4136</v>
+        <v>0.4138</v>
       </c>
       <c r="F4" t="n">
-        <v>9257017.9661</v>
+        <v>108356</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4175550000000002</v>
+        <v>0.4177183333333335</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4163</v>
+        <v>0.4138</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4163</v>
+        <v>0.4136</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4163</v>
+        <v>0.4138</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4163</v>
+        <v>0.4136</v>
       </c>
       <c r="F5" t="n">
-        <v>1917552.1441</v>
+        <v>9257017.9661</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4174366666666668</v>
+        <v>0.4175550000000002</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4136</v>
+        <v>0.4163</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4136</v>
+        <v>0.4163</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4136</v>
+        <v>0.4163</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4136</v>
+        <v>0.4163</v>
       </c>
       <c r="F6" t="n">
-        <v>594218.7913</v>
+        <v>1917552.1441</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4172750000000001</v>
+        <v>0.4174366666666668</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4163</v>
+        <v>0.4136</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4163</v>
+        <v>0.4136</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4163</v>
+        <v>0.4136</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4163</v>
+        <v>0.4136</v>
       </c>
       <c r="F7" t="n">
-        <v>19639.9535</v>
+        <v>594218.7913</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4171600000000001</v>
+        <v>0.4172750000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0.4163</v>
       </c>
       <c r="F8" t="n">
-        <v>5938.0015</v>
+        <v>19639.9535</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4170466666666667</v>
+        <v>0.4171600000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4136</v>
+        <v>0.4163</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4136</v>
+        <v>0.4163</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4136</v>
+        <v>0.4163</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4136</v>
+        <v>0.4163</v>
       </c>
       <c r="F9" t="n">
-        <v>58498.6141</v>
+        <v>5938.0015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4168883333333334</v>
+        <v>0.4170466666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>58498.6141</v>
       </c>
       <c r="G10" t="n">
-        <v>0.416715</v>
+        <v>0.4168883333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>0.4136</v>
       </c>
       <c r="F11" t="n">
-        <v>98569.16740000001</v>
+        <v>58498.6141</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4165583333333334</v>
+        <v>0.416715</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4137</v>
+        <v>0.4136</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4137</v>
+        <v>0.4136</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4137</v>
+        <v>0.4136</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4137</v>
+        <v>0.4136</v>
       </c>
       <c r="F12" t="n">
-        <v>28121.0409</v>
+        <v>98569.16740000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4164033333333333</v>
+        <v>0.4165583333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4162</v>
+        <v>0.4137</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4162</v>
+        <v>0.4137</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4162</v>
+        <v>0.4137</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4162</v>
+        <v>0.4137</v>
       </c>
       <c r="F13" t="n">
-        <v>60411.681</v>
+        <v>28121.0409</v>
       </c>
       <c r="G13" t="n">
-        <v>0.41629</v>
+        <v>0.4164033333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4137</v>
+        <v>0.4162</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4137</v>
+        <v>0.4162</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4137</v>
+        <v>0.4162</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4137</v>
+        <v>0.4162</v>
       </c>
       <c r="F14" t="n">
-        <v>107428.3138</v>
+        <v>60411.681</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4161466666666667</v>
+        <v>0.41629</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>0.4137</v>
       </c>
       <c r="F15" t="n">
-        <v>4903071.3589</v>
+        <v>107428.3138</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4160033333333333</v>
+        <v>0.4161466666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4136</v>
+        <v>0.4137</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4136</v>
+        <v>0.4137</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4136</v>
+        <v>0.4137</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4136</v>
+        <v>0.4137</v>
       </c>
       <c r="F16" t="n">
-        <v>22456138.6421</v>
+        <v>4903071.3589</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4159133333333333</v>
+        <v>0.4160033333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>0.4136</v>
       </c>
       <c r="F17" t="n">
-        <v>14856414.143</v>
+        <v>22456138.6421</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4158316666666666</v>
+        <v>0.4159133333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4137</v>
+        <v>0.4136</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4137</v>
+        <v>0.4136</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4137</v>
+        <v>0.4136</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4137</v>
+        <v>0.4136</v>
       </c>
       <c r="F18" t="n">
-        <v>2534710.1068</v>
+        <v>14856414.143</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4157266666666665</v>
+        <v>0.4158316666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4138</v>
+        <v>0.4137</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4136</v>
+        <v>0.4137</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4138</v>
+        <v>0.4137</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4136</v>
+        <v>0.4137</v>
       </c>
       <c r="F19" t="n">
-        <v>5557619.3488</v>
+        <v>2534710.1068</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4156199999999998</v>
+        <v>0.4157266666666665</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4136</v>
+        <v>0.4138</v>
       </c>
       <c r="C20" t="n">
         <v>0.4136</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4136</v>
+        <v>0.4138</v>
       </c>
       <c r="E20" t="n">
         <v>0.4136</v>
       </c>
       <c r="F20" t="n">
-        <v>961000</v>
+        <v>5557619.3488</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4155133333333331</v>
+        <v>0.4156199999999998</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0.4136</v>
       </c>
       <c r="C21" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="D21" t="n">
         <v>0.4136</v>
       </c>
       <c r="E21" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="F21" t="n">
-        <v>6282498.6591</v>
+        <v>961000</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4153633333333331</v>
+        <v>0.4155133333333331</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4111</v>
+        <v>0.4136</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4111</v>
+        <v>0.411</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4111</v>
+        <v>0.4136</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4111</v>
+        <v>0.411</v>
       </c>
       <c r="F22" t="n">
-        <v>81674.29399999999</v>
+        <v>6282498.6591</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4152149999999998</v>
+        <v>0.4153633333333331</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0.4111</v>
       </c>
       <c r="F23" t="n">
-        <v>112176.6979</v>
+        <v>81674.29399999999</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4150749999999998</v>
+        <v>0.4152149999999998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0.4111</v>
       </c>
       <c r="F24" t="n">
-        <v>162954.2571</v>
+        <v>112176.6979</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4149649999999998</v>
+        <v>0.4150749999999998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.411</v>
+        <v>0.4111</v>
       </c>
       <c r="C25" t="n">
-        <v>0.41</v>
+        <v>0.4111</v>
       </c>
       <c r="D25" t="n">
-        <v>0.411</v>
+        <v>0.4111</v>
       </c>
       <c r="E25" t="n">
-        <v>0.41</v>
+        <v>0.4111</v>
       </c>
       <c r="F25" t="n">
-        <v>2610940</v>
+        <v>162954.2571</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4148366666666665</v>
+        <v>0.4149649999999998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C26" t="n">
         <v>0.41</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.4129</v>
-      </c>
       <c r="D26" t="n">
-        <v>0.4129</v>
+        <v>0.411</v>
       </c>
       <c r="E26" t="n">
         <v>0.41</v>
       </c>
       <c r="F26" t="n">
-        <v>1770244.231</v>
+        <v>2610940</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4147649999999998</v>
+        <v>0.4148366666666665</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4099</v>
+        <v>0.41</v>
       </c>
       <c r="C27" t="n">
-        <v>0.409</v>
+        <v>0.4129</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4099</v>
+        <v>0.4129</v>
       </c>
       <c r="E27" t="n">
-        <v>0.409</v>
+        <v>0.41</v>
       </c>
       <c r="F27" t="n">
-        <v>3784319.1579</v>
+        <v>1770244.231</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4146233333333331</v>
+        <v>0.4147649999999998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4091</v>
+        <v>0.4099</v>
       </c>
       <c r="C28" t="n">
         <v>0.409</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4091</v>
+        <v>0.4099</v>
       </c>
       <c r="E28" t="n">
         <v>0.409</v>
       </c>
       <c r="F28" t="n">
-        <v>8173464.2983</v>
+        <v>3784319.1579</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4145199999999998</v>
+        <v>0.4146233333333331</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.409</v>
+        <v>0.4091</v>
       </c>
       <c r="C29" t="n">
         <v>0.409</v>
       </c>
       <c r="D29" t="n">
-        <v>0.409</v>
+        <v>0.4091</v>
       </c>
       <c r="E29" t="n">
         <v>0.409</v>
       </c>
       <c r="F29" t="n">
-        <v>2240218.9322</v>
+        <v>8173464.2983</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4144166666666665</v>
+        <v>0.4145199999999998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4084</v>
+        <v>0.409</v>
       </c>
       <c r="C30" t="n">
-        <v>0.407</v>
+        <v>0.409</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4084</v>
+        <v>0.409</v>
       </c>
       <c r="E30" t="n">
-        <v>0.407</v>
+        <v>0.409</v>
       </c>
       <c r="F30" t="n">
-        <v>3464091.8306</v>
+        <v>2240218.9322</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4142433333333331</v>
+        <v>0.4144166666666665</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.412</v>
+        <v>0.4084</v>
       </c>
       <c r="C31" t="n">
-        <v>0.412</v>
+        <v>0.407</v>
       </c>
       <c r="D31" t="n">
-        <v>0.412</v>
+        <v>0.4084</v>
       </c>
       <c r="E31" t="n">
-        <v>0.412</v>
+        <v>0.407</v>
       </c>
       <c r="F31" t="n">
-        <v>1220</v>
+        <v>3464091.8306</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4141899999999998</v>
+        <v>0.4142433333333331</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4078</v>
+        <v>0.412</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4073</v>
+        <v>0.412</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4078</v>
+        <v>0.412</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4073</v>
+        <v>0.412</v>
       </c>
       <c r="F32" t="n">
-        <v>14277810.8499</v>
+        <v>1220</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4140583333333331</v>
+        <v>0.4141899999999998</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4098</v>
+        <v>0.4078</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4098</v>
+        <v>0.4073</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4098</v>
+        <v>0.4078</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4098</v>
+        <v>0.4073</v>
       </c>
       <c r="F33" t="n">
-        <v>2231849.2738</v>
+        <v>14277810.8499</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4139683333333332</v>
+        <v>0.4140583333333331</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4097</v>
+        <v>0.4098</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4097</v>
+        <v>0.4098</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4097</v>
+        <v>0.4098</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4097</v>
+        <v>0.4098</v>
       </c>
       <c r="F34" t="n">
-        <v>24408.1035</v>
+        <v>2231849.2738</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4139116666666665</v>
+        <v>0.4139683333333332</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4085</v>
+        <v>0.4097</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4085</v>
+        <v>0.4097</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4085</v>
+        <v>0.4097</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4085</v>
+        <v>0.4097</v>
       </c>
       <c r="F35" t="n">
-        <v>116662.1034</v>
+        <v>24408.1035</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4137733333333332</v>
+        <v>0.4139116666666665</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4097</v>
+        <v>0.4085</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4097</v>
+        <v>0.4085</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4097</v>
+        <v>0.4085</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4097</v>
+        <v>0.4085</v>
       </c>
       <c r="F36" t="n">
-        <v>199468.5169</v>
+        <v>116662.1034</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4136549999999999</v>
+        <v>0.4137733333333332</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4098</v>
+        <v>0.4097</v>
       </c>
       <c r="C37" t="n">
         <v>0.4097</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4098</v>
+        <v>0.4097</v>
       </c>
       <c r="E37" t="n">
         <v>0.4097</v>
       </c>
       <c r="F37" t="n">
-        <v>8538.352199999999</v>
+        <v>199468.5169</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4135416666666666</v>
+        <v>0.4136549999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>0.4098</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4098</v>
+        <v>0.4097</v>
       </c>
       <c r="D38" t="n">
         <v>0.4098</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4098</v>
+        <v>0.4097</v>
       </c>
       <c r="F38" t="n">
-        <v>676898.0695</v>
+        <v>8538.352199999999</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4134216666666666</v>
+        <v>0.4135416666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4097</v>
+        <v>0.4098</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4097</v>
+        <v>0.4098</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4097</v>
+        <v>0.4098</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4097</v>
+        <v>0.4098</v>
       </c>
       <c r="F39" t="n">
-        <v>104898.6317</v>
+        <v>676898.0695</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4132883333333333</v>
+        <v>0.4134216666666666</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4098</v>
+        <v>0.4097</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4098</v>
+        <v>0.4097</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4098</v>
+        <v>0.4097</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4098</v>
+        <v>0.4097</v>
       </c>
       <c r="F40" t="n">
-        <v>77220.6284</v>
+        <v>104898.6317</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4131616666666666</v>
+        <v>0.4132883333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4102</v>
+        <v>0.4098</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4102</v>
+        <v>0.4098</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4102</v>
+        <v>0.4098</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4102</v>
+        <v>0.4098</v>
       </c>
       <c r="F41" t="n">
-        <v>36243.3817</v>
+        <v>77220.6284</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4131183333333333</v>
+        <v>0.4131616666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,31 +1833,35 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4123</v>
+        <v>0.4102</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4123</v>
+        <v>0.4102</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4123</v>
+        <v>0.4102</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4123</v>
+        <v>0.4102</v>
       </c>
       <c r="F42" t="n">
-        <v>75297.2528</v>
+        <v>36243.3817</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4131099999999999</v>
+        <v>0.4131183333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.4098</v>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
@@ -1868,32 +1872,40 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4125</v>
+        <v>0.4123</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4125</v>
+        <v>0.4123</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4125</v>
+        <v>0.4123</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4125</v>
+        <v>0.4123</v>
       </c>
       <c r="F43" t="n">
-        <v>3700</v>
+        <v>75297.2528</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4131183333333333</v>
+        <v>0.4131099999999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,32 +1915,40 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4102</v>
+        <v>0.4125</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4102</v>
+        <v>0.4125</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4102</v>
+        <v>0.4125</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4102</v>
+        <v>0.4125</v>
       </c>
       <c r="F44" t="n">
-        <v>12606.772</v>
+        <v>3700</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4130749999999999</v>
+        <v>0.4131183333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.4123</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1950,10 +1970,10 @@
         <v>0.4102</v>
       </c>
       <c r="F45" t="n">
-        <v>688782.5035</v>
+        <v>12606.772</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4130449999999999</v>
+        <v>0.4130749999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,35 +1993,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4124</v>
+        <v>0.4102</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4124</v>
+        <v>0.4102</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4124</v>
+        <v>0.4102</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4124</v>
+        <v>0.4102</v>
       </c>
       <c r="F46" t="n">
-        <v>1274.5306</v>
+        <v>688782.5035</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4130383333333333</v>
+        <v>0.4130449999999999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.4102</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
@@ -2012,38 +2028,36 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4125</v>
+        <v>0.4124</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4125</v>
+        <v>0.4124</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4125</v>
+        <v>0.4124</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4125</v>
+        <v>0.4124</v>
       </c>
       <c r="F47" t="n">
-        <v>1218.2743</v>
+        <v>1274.5306</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4130333333333333</v>
+        <v>0.4130383333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.4102</v>
+      </c>
       <c r="K47" t="n">
         <v>0.4102</v>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2053,32 +2067,30 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4102</v>
+        <v>0.4125</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4102</v>
+        <v>0.4125</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4102</v>
+        <v>0.4125</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4102</v>
+        <v>0.4125</v>
       </c>
       <c r="F48" t="n">
-        <v>487643.3135</v>
+        <v>1218.2743</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4129899999999999</v>
+        <v>0.4130333333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0.4125</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
         <v>0.4102</v>
       </c>
@@ -2108,20 +2120,28 @@
         <v>0.4102</v>
       </c>
       <c r="F49" t="n">
-        <v>693621.8227</v>
+        <v>487643.3135</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4129216666666666</v>
+        <v>0.4129899999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2143,10 +2163,10 @@
         <v>0.4102</v>
       </c>
       <c r="F50" t="n">
-        <v>323453.0144</v>
+        <v>693621.8227</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4128466666666666</v>
+        <v>0.4129216666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2166,22 +2186,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4117</v>
+        <v>0.4102</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4117</v>
+        <v>0.4102</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4117</v>
+        <v>0.4102</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4117</v>
+        <v>0.4102</v>
       </c>
       <c r="F51" t="n">
-        <v>1239.2421</v>
+        <v>323453.0144</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4127933333333332</v>
+        <v>0.4128466666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2213,10 +2233,10 @@
         <v>0.4117</v>
       </c>
       <c r="F52" t="n">
-        <v>299955.9867</v>
+        <v>1239.2421</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4127399999999999</v>
+        <v>0.4127933333333332</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2236,22 +2256,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4125</v>
+        <v>0.4117</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4125</v>
+        <v>0.4117</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4125</v>
+        <v>0.4117</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4125</v>
+        <v>0.4117</v>
       </c>
       <c r="F53" t="n">
-        <v>1250.4689</v>
+        <v>299955.9867</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4126416666666666</v>
+        <v>0.4127399999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2283,10 +2303,10 @@
         <v>0.4125</v>
       </c>
       <c r="F54" t="n">
-        <v>1212121.21212121</v>
+        <v>1250.4689</v>
       </c>
       <c r="G54" t="n">
-        <v>0.41265</v>
+        <v>0.4126416666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2306,22 +2326,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4134</v>
+        <v>0.4125</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4134</v>
+        <v>0.4125</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4134</v>
+        <v>0.4125</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4134</v>
+        <v>0.4125</v>
       </c>
       <c r="F55" t="n">
-        <v>3256789.1036</v>
+        <v>1212121.21212121</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4126649999999999</v>
+        <v>0.41265</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2353,10 +2373,10 @@
         <v>0.4134</v>
       </c>
       <c r="F56" t="n">
-        <v>8230597.8303</v>
+        <v>3256789.1036</v>
       </c>
       <c r="G56" t="n">
-        <v>0.412515</v>
+        <v>0.4126649999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2376,22 +2396,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4148</v>
+        <v>0.4134</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4135</v>
+        <v>0.4134</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4158</v>
+        <v>0.4134</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4135</v>
+        <v>0.4134</v>
       </c>
       <c r="F57" t="n">
-        <v>14981135.2666</v>
+        <v>8230597.8303</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4123666666666666</v>
+        <v>0.412515</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2411,22 +2431,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4141</v>
+        <v>0.4148</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4141</v>
+        <v>0.4135</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4141</v>
+        <v>0.4158</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4141</v>
+        <v>0.4135</v>
       </c>
       <c r="F58" t="n">
-        <v>752823</v>
+        <v>14981135.2666</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4122716666666666</v>
+        <v>0.4123666666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2446,22 +2466,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4138</v>
+        <v>0.4141</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4181</v>
+        <v>0.4141</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4181</v>
+        <v>0.4141</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4138</v>
+        <v>0.4141</v>
       </c>
       <c r="F59" t="n">
-        <v>62361.1259</v>
+        <v>752823</v>
       </c>
       <c r="G59" t="n">
-        <v>0.41227</v>
+        <v>0.4122716666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2484,19 +2504,19 @@
         <v>0.4138</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4138</v>
+        <v>0.4181</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4138</v>
+        <v>0.4181</v>
       </c>
       <c r="E60" t="n">
         <v>0.4138</v>
       </c>
       <c r="F60" t="n">
-        <v>402960.9031</v>
+        <v>62361.1259</v>
       </c>
       <c r="G60" t="n">
-        <v>0.4121583333333333</v>
+        <v>0.41227</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2516,22 +2536,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4178</v>
+        <v>0.4138</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4179</v>
+        <v>0.4138</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4179</v>
+        <v>0.4138</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4178</v>
+        <v>0.4138</v>
       </c>
       <c r="F61" t="n">
-        <v>1723746.7428</v>
+        <v>402960.9031</v>
       </c>
       <c r="G61" t="n">
-        <v>0.4122366666666666</v>
+        <v>0.4121583333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2551,22 +2571,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.418</v>
+        <v>0.4178</v>
       </c>
       <c r="C62" t="n">
-        <v>0.418</v>
+        <v>0.4179</v>
       </c>
       <c r="D62" t="n">
-        <v>0.418</v>
+        <v>0.4179</v>
       </c>
       <c r="E62" t="n">
-        <v>0.418</v>
+        <v>0.4178</v>
       </c>
       <c r="F62" t="n">
-        <v>1250.7881</v>
+        <v>1723746.7428</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4122466666666666</v>
+        <v>0.4122366666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2586,22 +2606,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4137</v>
+        <v>0.418</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4137</v>
+        <v>0.418</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4137</v>
+        <v>0.418</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4137</v>
+        <v>0.418</v>
       </c>
       <c r="F63" t="n">
-        <v>99226.8202</v>
+        <v>1250.7881</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4122449999999999</v>
+        <v>0.4122466666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2621,28 +2641,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4139</v>
+        <v>0.4137</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4139</v>
+        <v>0.4137</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4139</v>
+        <v>0.4137</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4139</v>
+        <v>0.4137</v>
       </c>
       <c r="F64" t="n">
-        <v>85477.8989</v>
+        <v>99226.8202</v>
       </c>
       <c r="G64" t="n">
-        <v>0.41225</v>
+        <v>0.4122449999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2656,22 +2676,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4179</v>
+        <v>0.4139</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4179</v>
+        <v>0.4139</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4179</v>
+        <v>0.4139</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4179</v>
+        <v>0.4139</v>
       </c>
       <c r="F65" t="n">
-        <v>1216.7905</v>
+        <v>85477.8989</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4122766666666667</v>
+        <v>0.41225</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2694,19 +2714,19 @@
         <v>0.4179</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4138</v>
+        <v>0.4179</v>
       </c>
       <c r="D66" t="n">
         <v>0.4179</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4138</v>
+        <v>0.4179</v>
       </c>
       <c r="F66" t="n">
-        <v>1975578.6571</v>
+        <v>1216.7905</v>
       </c>
       <c r="G66" t="n">
-        <v>0.41228</v>
+        <v>0.4122766666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2726,22 +2746,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4138</v>
+        <v>0.4179</v>
       </c>
       <c r="C67" t="n">
         <v>0.4138</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4138</v>
+        <v>0.4179</v>
       </c>
       <c r="E67" t="n">
         <v>0.4138</v>
       </c>
       <c r="F67" t="n">
-        <v>6000</v>
+        <v>1975578.6571</v>
       </c>
       <c r="G67" t="n">
-        <v>0.4122383333333333</v>
+        <v>0.41228</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2773,10 +2793,10 @@
         <v>0.4138</v>
       </c>
       <c r="F68" t="n">
-        <v>8541000</v>
+        <v>6000</v>
       </c>
       <c r="G68" t="n">
-        <v>0.4121966666666666</v>
+        <v>0.4122383333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2799,19 +2819,19 @@
         <v>0.4138</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4178</v>
+        <v>0.4138</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4178</v>
+        <v>0.4138</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4134</v>
+        <v>0.4138</v>
       </c>
       <c r="F69" t="n">
-        <v>17813318.2123</v>
+        <v>8541000</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4122666666666666</v>
+        <v>0.4121966666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2831,7 +2851,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4135</v>
+        <v>0.4138</v>
       </c>
       <c r="C70" t="n">
         <v>0.4178</v>
@@ -2840,13 +2860,13 @@
         <v>0.4178</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4135</v>
+        <v>0.4134</v>
       </c>
       <c r="F70" t="n">
-        <v>894226</v>
+        <v>17813318.2123</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4123366666666666</v>
+        <v>0.4122666666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2869,19 +2889,19 @@
         <v>0.4135</v>
       </c>
       <c r="C71" t="n">
+        <v>0.4178</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.4178</v>
+      </c>
+      <c r="E71" t="n">
         <v>0.4135</v>
       </c>
-      <c r="D71" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.4134</v>
-      </c>
       <c r="F71" t="n">
-        <v>1178300.0771</v>
+        <v>894226</v>
       </c>
       <c r="G71" t="n">
-        <v>0.412335</v>
+        <v>0.4123366666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2901,22 +2921,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4134</v>
+        <v>0.4135</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4134</v>
+        <v>0.4135</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4134</v>
+        <v>0.4135</v>
       </c>
       <c r="E72" t="n">
         <v>0.4134</v>
       </c>
       <c r="F72" t="n">
-        <v>81432</v>
+        <v>1178300.0771</v>
       </c>
       <c r="G72" t="n">
-        <v>0.41233</v>
+        <v>0.412335</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2948,10 +2968,10 @@
         <v>0.4134</v>
       </c>
       <c r="F73" t="n">
-        <v>48387</v>
+        <v>81432</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4122833333333333</v>
+        <v>0.41233</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2971,22 +2991,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.412</v>
+        <v>0.4134</v>
       </c>
       <c r="C74" t="n">
-        <v>0.412</v>
+        <v>0.4134</v>
       </c>
       <c r="D74" t="n">
-        <v>0.412</v>
+        <v>0.4134</v>
       </c>
       <c r="E74" t="n">
-        <v>0.412</v>
+        <v>0.4134</v>
       </c>
       <c r="F74" t="n">
-        <v>1457404.7771</v>
+        <v>48387</v>
       </c>
       <c r="G74" t="n">
-        <v>0.412255</v>
+        <v>0.4122833333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3006,22 +3026,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4135</v>
+        <v>0.412</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4135</v>
+        <v>0.412</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4135</v>
+        <v>0.412</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4135</v>
+        <v>0.412</v>
       </c>
       <c r="F75" t="n">
-        <v>2556999.7998</v>
+        <v>1457404.7771</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4122516666666666</v>
+        <v>0.412255</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3041,22 +3061,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.412</v>
+        <v>0.4135</v>
       </c>
       <c r="C76" t="n">
-        <v>0.412</v>
+        <v>0.4135</v>
       </c>
       <c r="D76" t="n">
-        <v>0.412</v>
+        <v>0.4135</v>
       </c>
       <c r="E76" t="n">
-        <v>0.412</v>
+        <v>0.4135</v>
       </c>
       <c r="F76" t="n">
-        <v>111404</v>
+        <v>2556999.7998</v>
       </c>
       <c r="G76" t="n">
-        <v>0.412225</v>
+        <v>0.4122516666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3079,19 +3099,19 @@
         <v>0.412</v>
       </c>
       <c r="C77" t="n">
-        <v>0.41</v>
+        <v>0.412</v>
       </c>
       <c r="D77" t="n">
         <v>0.412</v>
       </c>
       <c r="E77" t="n">
-        <v>0.41</v>
+        <v>0.412</v>
       </c>
       <c r="F77" t="n">
-        <v>1428406.9095</v>
+        <v>111404</v>
       </c>
       <c r="G77" t="n">
-        <v>0.412165</v>
+        <v>0.412225</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3111,22 +3131,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.41</v>
+        <v>0.412</v>
       </c>
       <c r="C78" t="n">
         <v>0.41</v>
       </c>
       <c r="D78" t="n">
-        <v>0.41</v>
+        <v>0.412</v>
       </c>
       <c r="E78" t="n">
         <v>0.41</v>
       </c>
       <c r="F78" t="n">
-        <v>87902.439</v>
+        <v>1428406.9095</v>
       </c>
       <c r="G78" t="n">
-        <v>0.4121033333333334</v>
+        <v>0.412165</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3161,7 +3181,7 @@
         <v>87902.439</v>
       </c>
       <c r="G79" t="n">
-        <v>0.4120433333333334</v>
+        <v>0.4121033333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3181,22 +3201,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="C80" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="D80" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="E80" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="F80" t="n">
-        <v>2015999.8998</v>
+        <v>87902.439</v>
       </c>
       <c r="G80" t="n">
-        <v>0.4120000000000001</v>
+        <v>0.4120433333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3228,7 +3248,7 @@
         <v>0.411</v>
       </c>
       <c r="F81" t="n">
-        <v>578364.1090000001</v>
+        <v>2015999.8998</v>
       </c>
       <c r="G81" t="n">
         <v>0.4120000000000001</v>
@@ -3263,10 +3283,10 @@
         <v>0.411</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0001</v>
+        <v>578364.1090000001</v>
       </c>
       <c r="G82" t="n">
-        <v>0.4119983333333334</v>
+        <v>0.4120000000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3286,22 +3306,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4135</v>
+        <v>0.411</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4135</v>
+        <v>0.411</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4135</v>
+        <v>0.411</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4135</v>
+        <v>0.411</v>
       </c>
       <c r="F83" t="n">
-        <v>5000</v>
+        <v>0.0001</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4120383333333334</v>
+        <v>0.4119983333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3333,10 +3353,10 @@
         <v>0.4135</v>
       </c>
       <c r="F84" t="n">
-        <v>2412348.8135</v>
+        <v>5000</v>
       </c>
       <c r="G84" t="n">
-        <v>0.4120783333333334</v>
+        <v>0.4120383333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3356,22 +3376,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4141</v>
+        <v>0.4135</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4141</v>
+        <v>0.4135</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4141</v>
+        <v>0.4135</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4141</v>
+        <v>0.4135</v>
       </c>
       <c r="F85" t="n">
-        <v>240887.1566</v>
+        <v>2412348.8135</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4121466666666667</v>
+        <v>0.4120783333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3391,22 +3411,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4128</v>
+        <v>0.4141</v>
       </c>
       <c r="C86" t="n">
-        <v>0.411</v>
+        <v>0.4141</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4128</v>
+        <v>0.4141</v>
       </c>
       <c r="E86" t="n">
-        <v>0.411</v>
+        <v>0.4141</v>
       </c>
       <c r="F86" t="n">
-        <v>2303223</v>
+        <v>240887.1566</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4121150000000001</v>
+        <v>0.4121466666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3426,22 +3446,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4161</v>
+        <v>0.4128</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4161</v>
+        <v>0.411</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4161</v>
+        <v>0.4128</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4161</v>
+        <v>0.411</v>
       </c>
       <c r="F87" t="n">
-        <v>1200</v>
+        <v>2303223</v>
       </c>
       <c r="G87" t="n">
-        <v>0.4122333333333334</v>
+        <v>0.4121150000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3461,22 +3481,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.411</v>
+        <v>0.4161</v>
       </c>
       <c r="C88" t="n">
-        <v>0.411</v>
+        <v>0.4161</v>
       </c>
       <c r="D88" t="n">
-        <v>0.411</v>
+        <v>0.4161</v>
       </c>
       <c r="E88" t="n">
-        <v>0.411</v>
+        <v>0.4161</v>
       </c>
       <c r="F88" t="n">
-        <v>90211.1324</v>
+        <v>1200</v>
       </c>
       <c r="G88" t="n">
-        <v>0.4122666666666668</v>
+        <v>0.4122333333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3508,10 +3528,10 @@
         <v>0.411</v>
       </c>
       <c r="F89" t="n">
-        <v>8858.522199999999</v>
+        <v>90211.1324</v>
       </c>
       <c r="G89" t="n">
-        <v>0.4123000000000002</v>
+        <v>0.4122666666666668</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3543,10 +3563,10 @@
         <v>0.411</v>
       </c>
       <c r="F90" t="n">
-        <v>10551.0953</v>
+        <v>8858.522199999999</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4123666666666669</v>
+        <v>0.4123000000000002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3569,19 +3589,19 @@
         <v>0.411</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4103</v>
+        <v>0.411</v>
       </c>
       <c r="D91" t="n">
         <v>0.411</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4103</v>
+        <v>0.411</v>
       </c>
       <c r="F91" t="n">
-        <v>941539.9999000001</v>
+        <v>10551.0953</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4123383333333335</v>
+        <v>0.4123666666666669</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3601,32 +3621,38 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4102</v>
+        <v>0.411</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4102</v>
+        <v>0.4103</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4102</v>
+        <v>0.411</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4102</v>
+        <v>0.4103</v>
       </c>
       <c r="F92" t="n">
-        <v>3051868.786</v>
+        <v>941539.9999000001</v>
       </c>
       <c r="G92" t="n">
-        <v>0.4123866666666668</v>
+        <v>0.4123383333333335</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.411</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3639,19 +3665,19 @@
         <v>0.4102</v>
       </c>
       <c r="C93" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="D93" t="n">
         <v>0.4102</v>
       </c>
       <c r="E93" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="F93" t="n">
-        <v>5780442.6039</v>
+        <v>3051868.786</v>
       </c>
       <c r="G93" t="n">
-        <v>0.4123900000000002</v>
+        <v>0.4123866666666668</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3661,7 +3687,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3671,22 +3701,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="C94" t="n">
         <v>0.41</v>
       </c>
       <c r="D94" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="E94" t="n">
         <v>0.41</v>
       </c>
       <c r="F94" t="n">
-        <v>2998000</v>
+        <v>5780442.6039</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4123950000000002</v>
+        <v>0.4123900000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3696,7 +3726,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3709,19 +3743,19 @@
         <v>0.41</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4097</v>
+        <v>0.41</v>
       </c>
       <c r="D95" t="n">
         <v>0.41</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4097</v>
+        <v>0.41</v>
       </c>
       <c r="F95" t="n">
-        <v>16061825.1877</v>
+        <v>2998000</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4124150000000002</v>
+        <v>0.4123950000000002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3731,7 +3765,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3741,22 +3779,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C96" t="n">
         <v>0.4097</v>
       </c>
-      <c r="C96" t="n">
-        <v>0.4095</v>
-      </c>
       <c r="D96" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E96" t="n">
         <v>0.4097</v>
       </c>
-      <c r="E96" t="n">
-        <v>0.4095</v>
-      </c>
       <c r="F96" t="n">
-        <v>746401.655</v>
+        <v>16061825.1877</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4124116666666669</v>
+        <v>0.4124150000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3766,7 +3804,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3776,22 +3818,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="C97" t="n">
         <v>0.4095</v>
       </c>
-      <c r="C97" t="n">
-        <v>0.4094</v>
-      </c>
       <c r="D97" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="E97" t="n">
         <v>0.4095</v>
       </c>
-      <c r="E97" t="n">
-        <v>0.4094</v>
-      </c>
       <c r="F97" t="n">
-        <v>1058898.6689</v>
+        <v>746401.655</v>
       </c>
       <c r="G97" t="n">
-        <v>0.4124066666666669</v>
+        <v>0.4124116666666669</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3801,7 +3843,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3814,19 +3860,19 @@
         <v>0.4095</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4095</v>
+        <v>0.4094</v>
       </c>
       <c r="D98" t="n">
         <v>0.4095</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4095</v>
+        <v>0.4094</v>
       </c>
       <c r="F98" t="n">
-        <v>202721.4272</v>
+        <v>1058898.6689</v>
       </c>
       <c r="G98" t="n">
-        <v>0.4124016666666669</v>
+        <v>0.4124066666666669</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3836,7 +3882,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3849,19 +3899,19 @@
         <v>0.4095</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4066</v>
+        <v>0.4095</v>
       </c>
       <c r="D99" t="n">
         <v>0.4095</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4066</v>
+        <v>0.4095</v>
       </c>
       <c r="F99" t="n">
-        <v>4265164.4249</v>
+        <v>202721.4272</v>
       </c>
       <c r="G99" t="n">
-        <v>0.4123500000000002</v>
+        <v>0.4124016666666669</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3871,7 +3921,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3881,22 +3935,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4069</v>
+        <v>0.4095</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4069</v>
+        <v>0.4066</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4069</v>
+        <v>0.4095</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4069</v>
+        <v>0.4066</v>
       </c>
       <c r="F100" t="n">
-        <v>1857983.9806</v>
+        <v>4265164.4249</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4123016666666669</v>
+        <v>0.4123500000000002</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3906,7 +3960,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3916,22 +3974,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.407</v>
+        <v>0.4069</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4066</v>
+        <v>0.4069</v>
       </c>
       <c r="D101" t="n">
-        <v>0.407</v>
+        <v>0.4069</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4066</v>
+        <v>0.4069</v>
       </c>
       <c r="F101" t="n">
-        <v>19954459.6043</v>
+        <v>1857983.9806</v>
       </c>
       <c r="G101" t="n">
-        <v>0.4122416666666669</v>
+        <v>0.4123016666666669</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3941,7 +3999,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3951,22 +4013,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4082</v>
+        <v>0.407</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4083</v>
+        <v>0.4066</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4083</v>
+        <v>0.407</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4082</v>
+        <v>0.4066</v>
       </c>
       <c r="F102" t="n">
-        <v>410919.7732</v>
+        <v>19954459.6043</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4121750000000003</v>
+        <v>0.4122416666666669</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3976,7 +4038,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4052,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4083</v>
+        <v>0.4082</v>
       </c>
       <c r="C103" t="n">
         <v>0.4083</v>
@@ -3995,13 +4061,13 @@
         <v>0.4083</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4083</v>
+        <v>0.4082</v>
       </c>
       <c r="F103" t="n">
-        <v>113103.7284</v>
+        <v>410919.7732</v>
       </c>
       <c r="G103" t="n">
-        <v>0.4121050000000003</v>
+        <v>0.4121750000000003</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4011,7 +4077,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4024,19 +4094,19 @@
         <v>0.4083</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4099</v>
+        <v>0.4083</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4099</v>
+        <v>0.4083</v>
       </c>
       <c r="E104" t="n">
         <v>0.4083</v>
       </c>
       <c r="F104" t="n">
-        <v>1244.0855</v>
+        <v>113103.7284</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4121000000000003</v>
+        <v>0.4121050000000003</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4046,7 +4116,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4056,7 +4130,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4099</v>
+        <v>0.4083</v>
       </c>
       <c r="C105" t="n">
         <v>0.4099</v>
@@ -4065,13 +4139,13 @@
         <v>0.4099</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4099</v>
+        <v>0.4083</v>
       </c>
       <c r="F105" t="n">
-        <v>86000</v>
+        <v>1244.0855</v>
       </c>
       <c r="G105" t="n">
-        <v>0.4120950000000003</v>
+        <v>0.4121000000000003</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4081,7 +4155,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4094,19 +4172,19 @@
         <v>0.4099</v>
       </c>
       <c r="C106" t="n">
-        <v>0.41</v>
+        <v>0.4099</v>
       </c>
       <c r="D106" t="n">
-        <v>0.41</v>
+        <v>0.4099</v>
       </c>
       <c r="E106" t="n">
         <v>0.4099</v>
       </c>
       <c r="F106" t="n">
-        <v>400609.3789</v>
+        <v>86000</v>
       </c>
       <c r="G106" t="n">
-        <v>0.4120550000000003</v>
+        <v>0.4120950000000003</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4116,7 +4194,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4138,10 +4220,10 @@
         <v>0.4099</v>
       </c>
       <c r="F107" t="n">
-        <v>1551917.7694</v>
+        <v>400609.3789</v>
       </c>
       <c r="G107" t="n">
-        <v>0.4120133333333336</v>
+        <v>0.4120550000000003</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4151,7 +4233,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4161,22 +4247,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.413</v>
+        <v>0.4099</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4134</v>
+        <v>0.41</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4134</v>
+        <v>0.41</v>
       </c>
       <c r="E108" t="n">
-        <v>0.413</v>
+        <v>0.4099</v>
       </c>
       <c r="F108" t="n">
-        <v>18075936.9781</v>
+        <v>1551917.7694</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4120666666666669</v>
+        <v>0.4120133333333336</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4186,7 +4272,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4196,22 +4286,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4112</v>
+        <v>0.413</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4112</v>
+        <v>0.4134</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4112</v>
+        <v>0.4134</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4112</v>
+        <v>0.413</v>
       </c>
       <c r="F109" t="n">
-        <v>87326.8753</v>
+        <v>18075936.9781</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4120833333333336</v>
+        <v>0.4120666666666669</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4221,7 +4311,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4243,10 +4337,10 @@
         <v>0.4112</v>
       </c>
       <c r="F110" t="n">
-        <v>7125.7673</v>
+        <v>87326.8753</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4121000000000003</v>
+        <v>0.4120833333333336</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4256,7 +4350,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4278,10 +4376,10 @@
         <v>0.4112</v>
       </c>
       <c r="F111" t="n">
-        <v>4313</v>
+        <v>7125.7673</v>
       </c>
       <c r="G111" t="n">
-        <v>0.412091666666667</v>
+        <v>0.4121000000000003</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4291,7 +4389,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4301,22 +4403,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4171</v>
+        <v>0.4112</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4171</v>
+        <v>0.4112</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4171</v>
+        <v>0.4112</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4171</v>
+        <v>0.4112</v>
       </c>
       <c r="F112" t="n">
-        <v>1200</v>
+        <v>4313</v>
       </c>
       <c r="G112" t="n">
-        <v>0.412181666666667</v>
+        <v>0.412091666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4326,7 +4428,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4336,22 +4442,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.411</v>
+        <v>0.4171</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4166</v>
+        <v>0.4171</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4166</v>
+        <v>0.4171</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4104</v>
+        <v>0.4171</v>
       </c>
       <c r="F113" t="n">
-        <v>8768813.601299999</v>
+        <v>1200</v>
       </c>
       <c r="G113" t="n">
-        <v>0.4122500000000003</v>
+        <v>0.412181666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4361,7 +4467,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4371,22 +4481,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.41</v>
+        <v>0.411</v>
       </c>
       <c r="C114" t="n">
-        <v>0.405</v>
+        <v>0.4166</v>
       </c>
       <c r="D114" t="n">
-        <v>0.41</v>
+        <v>0.4166</v>
       </c>
       <c r="E114" t="n">
-        <v>0.405</v>
+        <v>0.4104</v>
       </c>
       <c r="F114" t="n">
-        <v>10626538.6948</v>
+        <v>8768813.601299999</v>
       </c>
       <c r="G114" t="n">
-        <v>0.4121250000000003</v>
+        <v>0.4122500000000003</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4396,7 +4506,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4406,32 +4520,36 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.415</v>
+        <v>0.41</v>
       </c>
       <c r="C115" t="n">
-        <v>0.415</v>
+        <v>0.405</v>
       </c>
       <c r="D115" t="n">
-        <v>0.415</v>
+        <v>0.41</v>
       </c>
       <c r="E115" t="n">
-        <v>0.415</v>
+        <v>0.405</v>
       </c>
       <c r="F115" t="n">
-        <v>1203</v>
+        <v>10626538.6948</v>
       </c>
       <c r="G115" t="n">
-        <v>0.412151666666667</v>
+        <v>0.4121250000000003</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4441,22 +4559,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4096</v>
+        <v>0.415</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4096</v>
+        <v>0.415</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4096</v>
+        <v>0.415</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4096</v>
+        <v>0.415</v>
       </c>
       <c r="F116" t="n">
-        <v>122826.4698</v>
+        <v>1203</v>
       </c>
       <c r="G116" t="n">
-        <v>0.4120883333333337</v>
+        <v>0.412151666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4466,7 +4584,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4476,22 +4598,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4068</v>
+        <v>0.4096</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4074</v>
+        <v>0.4096</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4074</v>
+        <v>0.4096</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4068</v>
+        <v>0.4096</v>
       </c>
       <c r="F117" t="n">
-        <v>2807885.047</v>
+        <v>122826.4698</v>
       </c>
       <c r="G117" t="n">
-        <v>0.411986666666667</v>
+        <v>0.4120883333333337</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4501,8 +4623,45 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.4068</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.4074</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.4074</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.4068</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2807885.047</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.411986666666667</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-24 BackTest BTT.xlsx
+++ b/BackTest/2020-01-24 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>563574.0989</v>
       </c>
       <c r="G2" t="n">
+        <v>0.4162533333333335</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.4179783333333336</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1545.1369</v>
       </c>
       <c r="G3" t="n">
+        <v>0.4165600000000002</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.4178783333333336</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>108356</v>
       </c>
       <c r="G4" t="n">
+        <v>0.4166266666666668</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.4177183333333335</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>9257017.9661</v>
       </c>
       <c r="G5" t="n">
+        <v>0.4165800000000001</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.4175550000000002</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1917552.1441</v>
       </c>
       <c r="G6" t="n">
+        <v>0.4166866666666668</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.4174366666666668</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>594218.7913</v>
       </c>
       <c r="G7" t="n">
+        <v>0.4166000000000001</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.4172750000000001</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>19639.9535</v>
       </c>
       <c r="G8" t="n">
+        <v>0.4166933333333334</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.4171600000000001</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>5938.0015</v>
       </c>
       <c r="G9" t="n">
+        <v>0.4165533333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.4170466666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>58498.6141</v>
       </c>
       <c r="G10" t="n">
+        <v>0.41666</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.4168883333333334</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>58498.6141</v>
       </c>
       <c r="G11" t="n">
+        <v>0.4167333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.416715</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>98569.16740000001</v>
       </c>
       <c r="G12" t="n">
+        <v>0.4161466666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.4165583333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>28121.0409</v>
       </c>
       <c r="G13" t="n">
+        <v>0.4155666666666668</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.4164033333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>60411.681</v>
       </c>
       <c r="G14" t="n">
+        <v>0.4153266666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.41629</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>107428.3138</v>
       </c>
       <c r="G15" t="n">
+        <v>0.4150266666666668</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.4161466666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>4903071.3589</v>
       </c>
       <c r="G16" t="n">
+        <v>0.4145733333333335</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.4160033333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>22456138.6421</v>
       </c>
       <c r="G17" t="n">
+        <v>0.4146000000000001</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.4159133333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>14856414.143</v>
       </c>
       <c r="G18" t="n">
+        <v>0.4143466666666668</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.4158316666666666</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>2534710.1068</v>
       </c>
       <c r="G19" t="n">
+        <v>0.4143400000000002</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.4157266666666665</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>5557619.3488</v>
       </c>
       <c r="G20" t="n">
+        <v>0.4143400000000002</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.4156199999999998</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>961000</v>
       </c>
       <c r="G21" t="n">
+        <v>0.4141600000000001</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.4155133333333331</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>6282498.6591</v>
       </c>
       <c r="G22" t="n">
+        <v>0.4139866666666668</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.4153633333333331</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>81674.29399999999</v>
       </c>
       <c r="G23" t="n">
+        <v>0.4136400000000002</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.4152149999999998</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>112176.6979</v>
       </c>
       <c r="G24" t="n">
+        <v>0.4132933333333336</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.4150749999999998</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>162954.2571</v>
       </c>
       <c r="G25" t="n">
+        <v>0.4131266666666669</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.4149649999999998</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>2610940</v>
       </c>
       <c r="G26" t="n">
+        <v>0.412886666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.4148366666666665</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>1770244.231</v>
       </c>
       <c r="G27" t="n">
+        <v>0.4128400000000003</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.4147649999999998</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>3784319.1579</v>
       </c>
       <c r="G28" t="n">
+        <v>0.4125266666666669</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.4146233333333331</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>8173464.2983</v>
       </c>
       <c r="G29" t="n">
+        <v>0.4120466666666669</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.4145199999999998</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,25 @@
         <v>2240218.9322</v>
       </c>
       <c r="G30" t="n">
+        <v>0.4117333333333335</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.4144166666666665</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1559,27 @@
         <v>3464091.8306</v>
       </c>
       <c r="G31" t="n">
+        <v>0.4112866666666669</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.4142433333333331</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1603,27 @@
         <v>1220</v>
       </c>
       <c r="G32" t="n">
+        <v>0.4111800000000002</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.4141899999999998</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1647,27 @@
         <v>14277810.8499</v>
       </c>
       <c r="G33" t="n">
+        <v>0.4107600000000002</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.4140583333333331</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1691,27 @@
         <v>2231849.2738</v>
       </c>
       <c r="G34" t="n">
+        <v>0.4105000000000001</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.4139683333333332</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1735,27 @@
         <v>24408.1035</v>
       </c>
       <c r="G35" t="n">
+        <v>0.4102400000000002</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.4139116666666665</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1779,27 @@
         <v>116662.1034</v>
       </c>
       <c r="G36" t="n">
+        <v>0.4099000000000002</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.4137733333333332</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1823,27 @@
         <v>199468.5169</v>
       </c>
       <c r="G37" t="n">
+        <v>0.4098133333333335</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.4136549999999999</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1867,27 @@
         <v>8538.352199999999</v>
       </c>
       <c r="G38" t="n">
+        <v>0.4097200000000002</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.4135416666666666</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1911,27 @@
         <v>676898.0695</v>
       </c>
       <c r="G39" t="n">
+        <v>0.4096333333333335</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.4134216666666666</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1955,27 @@
         <v>104898.6317</v>
       </c>
       <c r="G40" t="n">
+        <v>0.4095400000000001</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.4132883333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1999,29 @@
         <v>77220.6284</v>
       </c>
       <c r="G41" t="n">
+        <v>0.4095266666666668</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.4131616666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,22 +2045,29 @@
         <v>36243.3817</v>
       </c>
       <c r="G42" t="n">
+        <v>0.4093466666666668</v>
+      </c>
+      <c r="H42" t="n">
         <v>0.4131183333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0.4098</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0.4098</v>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1887,26 +2091,27 @@
         <v>75297.2528</v>
       </c>
       <c r="G43" t="n">
+        <v>0.4095666666666668</v>
+      </c>
+      <c r="H43" t="n">
         <v>0.4131099999999999</v>
       </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1930,26 +2135,27 @@
         <v>3700</v>
       </c>
       <c r="G44" t="n">
+        <v>0.4098000000000001</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.4131183333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.4123</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1973,18 +2179,27 @@
         <v>12606.772</v>
       </c>
       <c r="G45" t="n">
+        <v>0.4098800000000001</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.4130749999999999</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,18 +2223,27 @@
         <v>688782.5035</v>
       </c>
       <c r="G46" t="n">
+        <v>0.4100933333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>0.4130449999999999</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2043,22 +2267,27 @@
         <v>1274.5306</v>
       </c>
       <c r="G47" t="n">
+        <v>0.4101200000000001</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.4130383333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2082,24 +2311,27 @@
         <v>1218.2743</v>
       </c>
       <c r="G48" t="n">
+        <v>0.4104666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.4130333333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2123,26 +2355,27 @@
         <v>487643.3135</v>
       </c>
       <c r="G49" t="n">
+        <v>0.4104933333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.4129899999999999</v>
       </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.4125</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2166,18 +2399,27 @@
         <v>693621.8227</v>
       </c>
       <c r="G50" t="n">
+        <v>0.4105266666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.4129216666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2201,18 +2443,27 @@
         <v>323453.0144</v>
       </c>
       <c r="G51" t="n">
+        <v>0.41064</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.4128466666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2236,18 +2487,27 @@
         <v>1239.2421</v>
       </c>
       <c r="G52" t="n">
+        <v>0.4107733333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>0.4127933333333332</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2271,18 +2531,27 @@
         <v>299955.9867</v>
       </c>
       <c r="G53" t="n">
+        <v>0.4109066666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>0.4127399999999999</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2306,18 +2575,27 @@
         <v>1250.4689</v>
       </c>
       <c r="G54" t="n">
+        <v>0.4110866666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.4126416666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2341,18 +2619,27 @@
         <v>1212121.21212121</v>
       </c>
       <c r="G55" t="n">
+        <v>0.4112733333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>0.41265</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,18 +2663,27 @@
         <v>3256789.1036</v>
       </c>
       <c r="G56" t="n">
+        <v>0.4115133333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.4126649999999999</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2411,18 +2707,27 @@
         <v>8230597.8303</v>
       </c>
       <c r="G57" t="n">
+        <v>0.4117266666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.412515</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2446,18 +2751,27 @@
         <v>14981135.2666</v>
       </c>
       <c r="G58" t="n">
+        <v>0.4118066666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.4123666666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2481,18 +2795,27 @@
         <v>752823</v>
       </c>
       <c r="G59" t="n">
+        <v>0.4119133333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.4122716666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2516,18 +2839,27 @@
         <v>62361.1259</v>
       </c>
       <c r="G60" t="n">
+        <v>0.4124400000000001</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.41227</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2551,18 +2883,27 @@
         <v>402960.9031</v>
       </c>
       <c r="G61" t="n">
+        <v>0.4126800000000001</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.4121583333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2586,18 +2927,27 @@
         <v>1723746.7428</v>
       </c>
       <c r="G62" t="n">
+        <v>0.4130466666666668</v>
+      </c>
+      <c r="H62" t="n">
         <v>0.4122366666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2621,18 +2971,27 @@
         <v>1250.7881</v>
       </c>
       <c r="G63" t="n">
+        <v>0.4134133333333335</v>
+      </c>
+      <c r="H63" t="n">
         <v>0.4122466666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2656,19 +3015,28 @@
         <v>99226.8202</v>
       </c>
       <c r="G64" t="n">
+        <v>0.4136466666666669</v>
+      </c>
+      <c r="H64" t="n">
         <v>0.4122449999999999</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
+      <c r="L64" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>1.006491442542788</v>
       </c>
     </row>
     <row r="65">
@@ -2691,18 +3059,21 @@
         <v>85477.8989</v>
       </c>
       <c r="G65" t="n">
+        <v>0.4138933333333336</v>
+      </c>
+      <c r="H65" t="n">
         <v>0.41225</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2726,18 +3097,21 @@
         <v>1216.7905</v>
       </c>
       <c r="G66" t="n">
+        <v>0.414406666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>0.4122766666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2761,18 +3135,21 @@
         <v>1975578.6571</v>
       </c>
       <c r="G67" t="n">
+        <v>0.414546666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>0.41228</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2796,18 +3173,21 @@
         <v>6000</v>
       </c>
       <c r="G68" t="n">
+        <v>0.414686666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.4122383333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2831,18 +3211,21 @@
         <v>8541000</v>
       </c>
       <c r="G69" t="n">
+        <v>0.4147733333333337</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.4121966666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2866,18 +3249,21 @@
         <v>17813318.2123</v>
       </c>
       <c r="G70" t="n">
+        <v>0.415126666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.4122666666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2901,18 +3287,21 @@
         <v>894226</v>
       </c>
       <c r="G71" t="n">
+        <v>0.4154200000000003</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.4123366666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2936,18 +3325,21 @@
         <v>1178300.0771</v>
       </c>
       <c r="G72" t="n">
+        <v>0.415426666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>0.412335</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2971,18 +3363,21 @@
         <v>81432</v>
       </c>
       <c r="G73" t="n">
+        <v>0.4154200000000003</v>
+      </c>
+      <c r="H73" t="n">
         <v>0.41233</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3006,18 +3401,21 @@
         <v>48387</v>
       </c>
       <c r="G74" t="n">
+        <v>0.4153733333333337</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.4122833333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3041,18 +3439,21 @@
         <v>1457404.7771</v>
       </c>
       <c r="G75" t="n">
+        <v>0.414966666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>0.412255</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3076,18 +3477,21 @@
         <v>2556999.7998</v>
       </c>
       <c r="G76" t="n">
+        <v>0.414946666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>0.4122516666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3111,18 +3515,21 @@
         <v>111404</v>
       </c>
       <c r="G77" t="n">
+        <v>0.4145533333333337</v>
+      </c>
+      <c r="H77" t="n">
         <v>0.412225</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3146,18 +3553,21 @@
         <v>1428406.9095</v>
       </c>
       <c r="G78" t="n">
+        <v>0.4140200000000003</v>
+      </c>
+      <c r="H78" t="n">
         <v>0.412165</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3181,18 +3591,21 @@
         <v>87902.439</v>
       </c>
       <c r="G79" t="n">
+        <v>0.4137733333333336</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.4121033333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3216,18 +3629,21 @@
         <v>87902.439</v>
       </c>
       <c r="G80" t="n">
+        <v>0.4135133333333336</v>
+      </c>
+      <c r="H80" t="n">
         <v>0.4120433333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3251,18 +3667,21 @@
         <v>2015999.8998</v>
       </c>
       <c r="G81" t="n">
+        <v>0.4130533333333336</v>
+      </c>
+      <c r="H81" t="n">
         <v>0.4120000000000001</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3286,18 +3705,25 @@
         <v>578364.1090000001</v>
       </c>
       <c r="G82" t="n">
+        <v>0.4128666666666669</v>
+      </c>
+      <c r="H82" t="n">
         <v>0.4120000000000001</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3321,18 +3747,29 @@
         <v>0.0001</v>
       </c>
       <c r="G83" t="n">
+        <v>0.4126800000000002</v>
+      </c>
+      <c r="H83" t="n">
         <v>0.4119983333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3356,18 +3793,29 @@
         <v>5000</v>
       </c>
       <c r="G84" t="n">
+        <v>0.4126600000000001</v>
+      </c>
+      <c r="H84" t="n">
         <v>0.4120383333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3391,18 +3839,21 @@
         <v>2412348.8135</v>
       </c>
       <c r="G85" t="n">
+        <v>0.4123733333333335</v>
+      </c>
+      <c r="H85" t="n">
         <v>0.4120783333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3426,18 +3877,21 @@
         <v>240887.1566</v>
       </c>
       <c r="G86" t="n">
+        <v>0.4121266666666669</v>
+      </c>
+      <c r="H86" t="n">
         <v>0.4121466666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3461,18 +3915,21 @@
         <v>2303223</v>
       </c>
       <c r="G87" t="n">
+        <v>0.4119600000000002</v>
+      </c>
+      <c r="H87" t="n">
         <v>0.4121150000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3496,18 +3953,21 @@
         <v>1200</v>
       </c>
       <c r="G88" t="n">
+        <v>0.4121400000000002</v>
+      </c>
+      <c r="H88" t="n">
         <v>0.4122333333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3531,18 +3991,21 @@
         <v>90211.1324</v>
       </c>
       <c r="G89" t="n">
+        <v>0.4119800000000001</v>
+      </c>
+      <c r="H89" t="n">
         <v>0.4122666666666668</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3566,18 +4029,21 @@
         <v>8858.522199999999</v>
       </c>
       <c r="G90" t="n">
+        <v>0.4119133333333335</v>
+      </c>
+      <c r="H90" t="n">
         <v>0.4123000000000002</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3601,18 +4067,21 @@
         <v>10551.0953</v>
       </c>
       <c r="G91" t="n">
+        <v>0.4117466666666668</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.4123666666666669</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3636,24 +4105,21 @@
         <v>941539.9999000001</v>
       </c>
       <c r="G92" t="n">
+        <v>0.4116333333333335</v>
+      </c>
+      <c r="H92" t="n">
         <v>0.4123383333333335</v>
       </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0.411</v>
+        <v>0</v>
       </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3677,22 +4143,21 @@
         <v>3051868.786</v>
       </c>
       <c r="G93" t="n">
+        <v>0.4116466666666668</v>
+      </c>
+      <c r="H93" t="n">
         <v>0.4123866666666668</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3716,22 +4181,21 @@
         <v>5780442.6039</v>
       </c>
       <c r="G94" t="n">
+        <v>0.4116466666666668</v>
+      </c>
+      <c r="H94" t="n">
         <v>0.4123900000000002</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3755,22 +4219,25 @@
         <v>2998000</v>
       </c>
       <c r="G95" t="n">
+        <v>0.4116466666666668</v>
+      </c>
+      <c r="H95" t="n">
         <v>0.4123950000000002</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3794,22 +4261,27 @@
         <v>16061825.1877</v>
       </c>
       <c r="G96" t="n">
+        <v>0.4115600000000001</v>
+      </c>
+      <c r="H96" t="n">
         <v>0.4124150000000002</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3833,22 +4305,27 @@
         <v>746401.655</v>
       </c>
       <c r="G97" t="n">
+        <v>0.4114600000000002</v>
+      </c>
+      <c r="H97" t="n">
         <v>0.4124116666666669</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3872,22 +4349,27 @@
         <v>1058898.6689</v>
       </c>
       <c r="G98" t="n">
+        <v>0.4113533333333335</v>
+      </c>
+      <c r="H98" t="n">
         <v>0.4124066666666669</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3911,22 +4393,27 @@
         <v>202721.4272</v>
       </c>
       <c r="G99" t="n">
+        <v>0.4110866666666668</v>
+      </c>
+      <c r="H99" t="n">
         <v>0.4124016666666669</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3950,22 +4437,27 @@
         <v>4265164.4249</v>
       </c>
       <c r="G100" t="n">
+        <v>0.4106266666666668</v>
+      </c>
+      <c r="H100" t="n">
         <v>0.4123500000000002</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3989,22 +4481,27 @@
         <v>1857983.9806</v>
       </c>
       <c r="G101" t="n">
+        <v>0.4101466666666668</v>
+      </c>
+      <c r="H101" t="n">
         <v>0.4123016666666669</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4028,22 +4525,27 @@
         <v>19954459.6043</v>
       </c>
       <c r="G102" t="n">
+        <v>0.4098533333333335</v>
+      </c>
+      <c r="H102" t="n">
         <v>0.4122416666666669</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4067,22 +4569,27 @@
         <v>410919.7732</v>
       </c>
       <c r="G103" t="n">
+        <v>0.4093333333333335</v>
+      </c>
+      <c r="H103" t="n">
         <v>0.4121750000000003</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,22 +4613,27 @@
         <v>113103.7284</v>
       </c>
       <c r="G104" t="n">
+        <v>0.4091533333333335</v>
+      </c>
+      <c r="H104" t="n">
         <v>0.4121050000000003</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4145,22 +4657,27 @@
         <v>1244.0855</v>
       </c>
       <c r="G105" t="n">
+        <v>0.4090800000000002</v>
+      </c>
+      <c r="H105" t="n">
         <v>0.4121000000000003</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4184,22 +4701,27 @@
         <v>86000</v>
       </c>
       <c r="G106" t="n">
+        <v>0.4090066666666669</v>
+      </c>
+      <c r="H106" t="n">
         <v>0.4120950000000003</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4223,22 +4745,27 @@
         <v>400609.3789</v>
       </c>
       <c r="G107" t="n">
+        <v>0.4089866666666669</v>
+      </c>
+      <c r="H107" t="n">
         <v>0.4120550000000003</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4262,22 +4789,27 @@
         <v>1551917.7694</v>
       </c>
       <c r="G108" t="n">
+        <v>0.4089733333333336</v>
+      </c>
+      <c r="H108" t="n">
         <v>0.4120133333333336</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4301,22 +4833,27 @@
         <v>18075936.9781</v>
       </c>
       <c r="G109" t="n">
+        <v>0.4092000000000003</v>
+      </c>
+      <c r="H109" t="n">
         <v>0.4120666666666669</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4340,22 +4877,27 @@
         <v>87326.8753</v>
       </c>
       <c r="G110" t="n">
+        <v>0.4092800000000003</v>
+      </c>
+      <c r="H110" t="n">
         <v>0.4120833333333336</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4379,22 +4921,27 @@
         <v>7125.7673</v>
       </c>
       <c r="G111" t="n">
+        <v>0.4093800000000003</v>
+      </c>
+      <c r="H111" t="n">
         <v>0.4121000000000003</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4418,22 +4965,27 @@
         <v>4313</v>
       </c>
       <c r="G112" t="n">
+        <v>0.4094933333333336</v>
+      </c>
+      <c r="H112" t="n">
         <v>0.412091666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4457,22 +5009,27 @@
         <v>1200</v>
       </c>
       <c r="G113" t="n">
+        <v>0.4100066666666669</v>
+      </c>
+      <c r="H113" t="n">
         <v>0.412181666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4496,22 +5053,27 @@
         <v>8768813.601299999</v>
       </c>
       <c r="G114" t="n">
+        <v>0.4104800000000002</v>
+      </c>
+      <c r="H114" t="n">
         <v>0.4122500000000003</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4535,22 +5097,27 @@
         <v>10626538.6948</v>
       </c>
       <c r="G115" t="n">
+        <v>0.4103733333333335</v>
+      </c>
+      <c r="H115" t="n">
         <v>0.4121250000000003</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4574,22 +5141,27 @@
         <v>1203</v>
       </c>
       <c r="G116" t="n">
+        <v>0.4109133333333335</v>
+      </c>
+      <c r="H116" t="n">
         <v>0.412151666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,22 +5185,29 @@
         <v>122826.4698</v>
       </c>
       <c r="G117" t="n">
+        <v>0.4111133333333336</v>
+      </c>
+      <c r="H117" t="n">
         <v>0.4120883333333337</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4650,18 +5229,481 @@
         <v>2807885.047</v>
       </c>
       <c r="G118" t="n">
+        <v>0.4110533333333335</v>
+      </c>
+      <c r="H118" t="n">
         <v>0.411986666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.4081</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.4081</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.4081</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.4081</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3604</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.4110400000000002</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.411886666666667</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1220</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.4110466666666669</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.411751666666667</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1777172.6772</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.4109066666666669</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.411651666666667</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1220</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.4109066666666669</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.4115200000000004</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F123" t="n">
+        <v>28572.5028</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.4109066666666669</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.4113866666666671</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1442903.327</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.4106800000000002</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.4113250000000004</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="F125" t="n">
+        <v>193240.8148</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.4105933333333336</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.4112583333333337</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.4075</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.4075</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1845570.0503</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.4103133333333336</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.4110766666666671</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.4072</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.4072</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.4072</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.4072</v>
+      </c>
+      <c r="F127" t="n">
+        <v>29129.1662</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.4100466666666669</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.4109666666666671</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="F128" t="n">
+        <v>259578.0597</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.4093733333333335</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.4108533333333338</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.4072</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-24 BackTest BTT.xlsx
+++ b/BackTest/2020-01-24 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N128"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4138</v>
+        <v>0.4152</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4132</v>
+        <v>0.4152</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4138</v>
+        <v>0.4152</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4132</v>
+        <v>0.4152</v>
       </c>
       <c r="F2" t="n">
-        <v>563574.0989</v>
+        <v>749545.3179</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4162533333333335</v>
+        <v>-71470439.06150001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4179783333333336</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4174</v>
+        <v>0.4152</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4174</v>
+        <v>0.4152</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4174</v>
+        <v>0.4152</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4174</v>
+        <v>0.4152</v>
       </c>
       <c r="F3" t="n">
-        <v>1545.1369</v>
+        <v>1009265.0405</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4165600000000002</v>
+        <v>-71470439.06150001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4178783333333336</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4138</v>
+        <v>0.4131</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4138</v>
+        <v>0.4131</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4138</v>
+        <v>0.4131</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4138</v>
+        <v>0.4131</v>
       </c>
       <c r="F4" t="n">
-        <v>108356</v>
+        <v>1513105.3219</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4166266666666668</v>
+        <v>-72983544.38340001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4177183333333335</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4138</v>
+        <v>0.417</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4136</v>
+        <v>0.4168</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4138</v>
+        <v>0.417</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4136</v>
+        <v>0.4168</v>
       </c>
       <c r="F5" t="n">
-        <v>9257017.9661</v>
+        <v>2565327.5413</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4165800000000001</v>
+        <v>-70418216.84210001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4175550000000002</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4163</v>
+        <v>0.4168</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4163</v>
+        <v>0.4168</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4163</v>
+        <v>0.4168</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4163</v>
+        <v>0.4168</v>
       </c>
       <c r="F6" t="n">
-        <v>1917552.1441</v>
+        <v>250185.4405</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4166866666666668</v>
+        <v>-70418216.84210001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4174366666666668</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4136</v>
+        <v>0.4165</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4136</v>
+        <v>0.4165</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4136</v>
+        <v>0.4165</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4136</v>
+        <v>0.4165</v>
       </c>
       <c r="F7" t="n">
-        <v>594218.7913</v>
+        <v>2110144.7128</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4166000000000001</v>
+        <v>-72528361.55490001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4172750000000001</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4163</v>
+        <v>0.4165</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4163</v>
+        <v>0.417</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4163</v>
+        <v>0.417</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4163</v>
+        <v>0.4165</v>
       </c>
       <c r="F8" t="n">
-        <v>19639.9535</v>
+        <v>1374779.008</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4166933333333334</v>
+        <v>-71153582.5469</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4171600000000001</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4163</v>
+        <v>0.4177</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4163</v>
+        <v>0.4177</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4163</v>
+        <v>0.4177</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4163</v>
+        <v>0.4177</v>
       </c>
       <c r="F9" t="n">
-        <v>5938.0015</v>
+        <v>50000</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4165533333333334</v>
+        <v>-71103582.5469</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4170466666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4136</v>
+        <v>0.4174</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4136</v>
+        <v>0.4174</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4136</v>
+        <v>0.4174</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4136</v>
+        <v>0.4174</v>
       </c>
       <c r="F10" t="n">
-        <v>58498.6141</v>
+        <v>60000</v>
       </c>
       <c r="G10" t="n">
-        <v>0.41666</v>
+        <v>-71163582.5469</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4168883333333334</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4136</v>
+        <v>0.4135</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4136</v>
+        <v>0.4128</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4136</v>
+        <v>0.4135</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4136</v>
+        <v>0.4128</v>
       </c>
       <c r="F11" t="n">
-        <v>58498.6141</v>
+        <v>12112610.4708</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4167333333333333</v>
+        <v>-83276193.0177</v>
       </c>
       <c r="H11" t="n">
-        <v>0.416715</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4136</v>
+        <v>0.4128</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4136</v>
+        <v>0.4128</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4136</v>
+        <v>0.4128</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4136</v>
+        <v>0.4128</v>
       </c>
       <c r="F12" t="n">
-        <v>98569.16740000001</v>
+        <v>652129.5554</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4161466666666667</v>
+        <v>-83276193.0177</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4165583333333334</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4137</v>
+        <v>0.4126</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4137</v>
+        <v>0.412</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4137</v>
+        <v>0.4126</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4137</v>
+        <v>0.412</v>
       </c>
       <c r="F13" t="n">
-        <v>28121.0409</v>
+        <v>3233366.6138</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4155666666666668</v>
+        <v>-86509559.63150001</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4164033333333333</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4162</v>
+        <v>0.4128</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4162</v>
+        <v>0.4128</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4162</v>
+        <v>0.4128</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4162</v>
+        <v>0.4128</v>
       </c>
       <c r="F14" t="n">
-        <v>60411.681</v>
+        <v>311591.6724</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4153266666666667</v>
+        <v>-86197967.95910001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.41629</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4137</v>
+        <v>0.4127</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4137</v>
+        <v>0.412</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4137</v>
+        <v>0.4128</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4137</v>
+        <v>0.412</v>
       </c>
       <c r="F15" t="n">
-        <v>107428.3138</v>
+        <v>2123024.9074</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4150266666666668</v>
+        <v>-88320992.86650001</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4161466666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4137</v>
+        <v>0.4128</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4137</v>
+        <v>0.4128</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4137</v>
+        <v>0.4128</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4137</v>
+        <v>0.4128</v>
       </c>
       <c r="F16" t="n">
-        <v>4903071.3589</v>
+        <v>8000</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4145733333333335</v>
+        <v>-88312992.86650001</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4160033333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4136</v>
+        <v>0.4128</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4136</v>
+        <v>0.4128</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4136</v>
+        <v>0.4128</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4136</v>
+        <v>0.4128</v>
       </c>
       <c r="F17" t="n">
-        <v>22456138.6421</v>
+        <v>121710.5131</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4146000000000001</v>
+        <v>-88312992.86650001</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4159133333333333</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4136</v>
+        <v>0.4128</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4136</v>
+        <v>0.4128</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4136</v>
+        <v>0.4128</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4136</v>
+        <v>0.4128</v>
       </c>
       <c r="F18" t="n">
-        <v>14856414.143</v>
+        <v>1085701.4668</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4143466666666668</v>
+        <v>-88312992.86650001</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4158316666666666</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4137</v>
+        <v>0.4128</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4137</v>
+        <v>0.4143</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4137</v>
+        <v>0.4143</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4137</v>
+        <v>0.4128</v>
       </c>
       <c r="F19" t="n">
-        <v>2534710.1068</v>
+        <v>8796236.2426</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4143400000000002</v>
+        <v>-79516756.62390001</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4157266666666665</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4138</v>
+        <v>0.4147</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4136</v>
+        <v>0.4147</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4138</v>
+        <v>0.4147</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4136</v>
+        <v>0.4147</v>
       </c>
       <c r="F20" t="n">
-        <v>5557619.3488</v>
+        <v>1315.3684</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4143400000000002</v>
+        <v>-79515441.25550002</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4156199999999998</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4136</v>
+        <v>0.4149</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4136</v>
+        <v>0.4149</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4136</v>
+        <v>0.4149</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4136</v>
+        <v>0.4149</v>
       </c>
       <c r="F21" t="n">
-        <v>961000</v>
+        <v>1312.2844</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4141600000000001</v>
+        <v>-79514128.97110002</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4155133333333331</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4136</v>
+        <v>0.4149</v>
       </c>
       <c r="C22" t="n">
-        <v>0.411</v>
+        <v>0.4149</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4136</v>
+        <v>0.4149</v>
       </c>
       <c r="E22" t="n">
-        <v>0.411</v>
+        <v>0.4149</v>
       </c>
       <c r="F22" t="n">
-        <v>6282498.6591</v>
+        <v>9366061.1426</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4139866666666668</v>
+        <v>-79514128.97110002</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4153633333333331</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4111</v>
+        <v>0.4184</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4111</v>
+        <v>0.4184</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4111</v>
+        <v>0.4184</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4111</v>
+        <v>0.4184</v>
       </c>
       <c r="F23" t="n">
-        <v>81674.29399999999</v>
+        <v>1200</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4136400000000002</v>
+        <v>-79512928.97110002</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4152149999999998</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4111</v>
+        <v>0.412</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4111</v>
+        <v>0.412</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4111</v>
+        <v>0.412</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4111</v>
+        <v>0.412</v>
       </c>
       <c r="F24" t="n">
-        <v>112176.6979</v>
+        <v>5000</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4132933333333336</v>
+        <v>-79517928.97110002</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4150749999999998</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4111</v>
+        <v>0.4125</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4111</v>
+        <v>0.4125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4111</v>
+        <v>0.4125</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4111</v>
+        <v>0.4125</v>
       </c>
       <c r="F25" t="n">
-        <v>162954.2571</v>
+        <v>24902.3205</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4131266666666669</v>
+        <v>-79493026.65060002</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4149649999999998</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.411</v>
+        <v>0.4224</v>
       </c>
       <c r="C26" t="n">
-        <v>0.41</v>
+        <v>0.4224</v>
       </c>
       <c r="D26" t="n">
-        <v>0.411</v>
+        <v>0.4224</v>
       </c>
       <c r="E26" t="n">
-        <v>0.41</v>
+        <v>0.4224</v>
       </c>
       <c r="F26" t="n">
-        <v>2610940</v>
+        <v>1185</v>
       </c>
       <c r="G26" t="n">
-        <v>0.412886666666667</v>
+        <v>-79491841.65060002</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4148366666666665</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.41</v>
+        <v>0.4224</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4129</v>
+        <v>0.4224</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4129</v>
+        <v>0.4224</v>
       </c>
       <c r="E27" t="n">
-        <v>0.41</v>
+        <v>0.4224</v>
       </c>
       <c r="F27" t="n">
-        <v>1770244.231</v>
+        <v>7090.43560605</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4128400000000003</v>
+        <v>-79491841.65060002</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4147649999999998</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4099</v>
+        <v>0.4198</v>
       </c>
       <c r="C28" t="n">
-        <v>0.409</v>
+        <v>0.4198</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4099</v>
+        <v>0.4198</v>
       </c>
       <c r="E28" t="n">
-        <v>0.409</v>
+        <v>0.4198</v>
       </c>
       <c r="F28" t="n">
-        <v>3784319.1579</v>
+        <v>6394.0672</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4125266666666669</v>
+        <v>-79498235.71780002</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4146233333333331</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4091</v>
+        <v>0.4182</v>
       </c>
       <c r="C29" t="n">
-        <v>0.409</v>
+        <v>0.4182</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4091</v>
+        <v>0.4182</v>
       </c>
       <c r="E29" t="n">
-        <v>0.409</v>
+        <v>0.4182</v>
       </c>
       <c r="F29" t="n">
-        <v>8173464.2983</v>
+        <v>1313.927</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4120466666666669</v>
+        <v>-79499549.64480002</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4145199999999998</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,40 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.409</v>
+        <v>0.4135</v>
       </c>
       <c r="C30" t="n">
-        <v>0.409</v>
+        <v>0.4205</v>
       </c>
       <c r="D30" t="n">
-        <v>0.409</v>
+        <v>0.4205</v>
       </c>
       <c r="E30" t="n">
-        <v>0.409</v>
+        <v>0.4135</v>
       </c>
       <c r="F30" t="n">
-        <v>2240218.9322</v>
+        <v>62493.414</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4117333333333335</v>
+        <v>-79437056.23080002</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4144166666666665</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1544,42 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4084</v>
+        <v>0.4138</v>
       </c>
       <c r="C31" t="n">
-        <v>0.407</v>
+        <v>0.4132</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4084</v>
+        <v>0.4138</v>
       </c>
       <c r="E31" t="n">
-        <v>0.407</v>
+        <v>0.4132</v>
       </c>
       <c r="F31" t="n">
-        <v>3464091.8306</v>
+        <v>563574.0989</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4112866666666669</v>
+        <v>-80000630.32970002</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4142433333333331</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1588,42 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.412</v>
+        <v>0.4174</v>
       </c>
       <c r="C32" t="n">
-        <v>0.412</v>
+        <v>0.4174</v>
       </c>
       <c r="D32" t="n">
-        <v>0.412</v>
+        <v>0.4174</v>
       </c>
       <c r="E32" t="n">
-        <v>0.412</v>
+        <v>0.4174</v>
       </c>
       <c r="F32" t="n">
-        <v>1220</v>
+        <v>1545.1369</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4111800000000002</v>
+        <v>-79999085.19280003</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4141899999999998</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1632,42 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4078</v>
+        <v>0.4138</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4073</v>
+        <v>0.4138</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4078</v>
+        <v>0.4138</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4073</v>
+        <v>0.4138</v>
       </c>
       <c r="F33" t="n">
-        <v>14277810.8499</v>
+        <v>108356</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4107600000000002</v>
+        <v>-80107441.19280003</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4140583333333331</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1676,42 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4098</v>
+        <v>0.4138</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4098</v>
+        <v>0.4136</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4098</v>
+        <v>0.4138</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4098</v>
+        <v>0.4136</v>
       </c>
       <c r="F34" t="n">
-        <v>2231849.2738</v>
+        <v>9257017.9661</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4105000000000001</v>
+        <v>-89364459.15890002</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4139683333333332</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1720,42 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4097</v>
+        <v>0.4163</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4097</v>
+        <v>0.4163</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4097</v>
+        <v>0.4163</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4097</v>
+        <v>0.4163</v>
       </c>
       <c r="F35" t="n">
-        <v>24408.1035</v>
+        <v>1917552.1441</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4102400000000002</v>
+        <v>-87446907.01480003</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4139116666666665</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1764,42 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4085</v>
+        <v>0.4136</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4085</v>
+        <v>0.4136</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4085</v>
+        <v>0.4136</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4085</v>
+        <v>0.4136</v>
       </c>
       <c r="F36" t="n">
-        <v>116662.1034</v>
+        <v>594218.7913</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4099000000000002</v>
+        <v>-88041125.80610003</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4137733333333332</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1808,42 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4097</v>
+        <v>0.4163</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4097</v>
+        <v>0.4163</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4097</v>
+        <v>0.4163</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4097</v>
+        <v>0.4163</v>
       </c>
       <c r="F37" t="n">
-        <v>199468.5169</v>
+        <v>19639.9535</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4098133333333335</v>
+        <v>-88021485.85260002</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4136549999999999</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1852,42 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4098</v>
+        <v>0.4163</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4097</v>
+        <v>0.4163</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4098</v>
+        <v>0.4163</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4097</v>
+        <v>0.4163</v>
       </c>
       <c r="F38" t="n">
-        <v>8538.352199999999</v>
+        <v>5938.0015</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4097200000000002</v>
+        <v>-88021485.85260002</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4135416666666666</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1896,42 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4098</v>
+        <v>0.4136</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4098</v>
+        <v>0.4136</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4098</v>
+        <v>0.4136</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4098</v>
+        <v>0.4136</v>
       </c>
       <c r="F39" t="n">
-        <v>676898.0695</v>
+        <v>58498.6141</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4096333333333335</v>
+        <v>-88079984.46670002</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4134216666666666</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1940,42 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4097</v>
+        <v>0.4136</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4097</v>
+        <v>0.4136</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4097</v>
+        <v>0.4136</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4097</v>
+        <v>0.4136</v>
       </c>
       <c r="F40" t="n">
-        <v>104898.6317</v>
+        <v>58498.6141</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4095400000000001</v>
+        <v>-88079984.46670002</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4132883333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1984,44 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4098</v>
+        <v>0.4136</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4098</v>
+        <v>0.4136</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4098</v>
+        <v>0.4136</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4098</v>
+        <v>0.4136</v>
       </c>
       <c r="F41" t="n">
-        <v>77220.6284</v>
+        <v>98569.16740000001</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4095266666666668</v>
+        <v>-88079984.46670002</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4131616666666666</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.4097</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2030,44 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4102</v>
+        <v>0.4137</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4102</v>
+        <v>0.4137</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4102</v>
+        <v>0.4137</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4102</v>
+        <v>0.4137</v>
       </c>
       <c r="F42" t="n">
-        <v>36243.3817</v>
+        <v>28121.0409</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4093466666666668</v>
+        <v>-88051863.42580001</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4131183333333333</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,42 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4123</v>
+        <v>0.4162</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4123</v>
+        <v>0.4162</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4123</v>
+        <v>0.4162</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4123</v>
+        <v>0.4162</v>
       </c>
       <c r="F43" t="n">
-        <v>75297.2528</v>
+        <v>60411.681</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4095666666666668</v>
+        <v>-87991451.74480002</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4131099999999999</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2120,42 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4125</v>
+        <v>0.4137</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4125</v>
+        <v>0.4137</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4125</v>
+        <v>0.4137</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4125</v>
+        <v>0.4137</v>
       </c>
       <c r="F44" t="n">
-        <v>3700</v>
+        <v>107428.3138</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4098000000000001</v>
+        <v>-88098880.05860002</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4131183333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2164,42 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4102</v>
+        <v>0.4137</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4102</v>
+        <v>0.4137</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4102</v>
+        <v>0.4137</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4102</v>
+        <v>0.4137</v>
       </c>
       <c r="F45" t="n">
-        <v>12606.772</v>
+        <v>4903071.3589</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4098800000000001</v>
+        <v>-88098880.05860002</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4130749999999999</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2208,42 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4102</v>
+        <v>0.4136</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4102</v>
+        <v>0.4136</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4102</v>
+        <v>0.4136</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4102</v>
+        <v>0.4136</v>
       </c>
       <c r="F46" t="n">
-        <v>688782.5035</v>
+        <v>22456138.6421</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4100933333333334</v>
+        <v>-110555018.7007</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4130449999999999</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2252,42 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4124</v>
+        <v>0.4136</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4124</v>
+        <v>0.4136</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4124</v>
+        <v>0.4136</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4124</v>
+        <v>0.4136</v>
       </c>
       <c r="F47" t="n">
-        <v>1274.5306</v>
+        <v>14856414.143</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4101200000000001</v>
+        <v>-110555018.7007</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4130383333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2296,42 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4125</v>
+        <v>0.4137</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4125</v>
+        <v>0.4137</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4125</v>
+        <v>0.4137</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4125</v>
+        <v>0.4137</v>
       </c>
       <c r="F48" t="n">
-        <v>1218.2743</v>
+        <v>2534710.1068</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4104666666666667</v>
+        <v>-108020308.5939</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4130333333333333</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2340,42 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4102</v>
+        <v>0.4138</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4102</v>
+        <v>0.4136</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4102</v>
+        <v>0.4138</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4102</v>
+        <v>0.4136</v>
       </c>
       <c r="F49" t="n">
-        <v>487643.3135</v>
+        <v>5557619.3488</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4104933333333334</v>
+        <v>-113577927.9427</v>
       </c>
       <c r="H49" t="n">
-        <v>0.4129899999999999</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2384,42 +2113,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4102</v>
+        <v>0.4136</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4102</v>
+        <v>0.4136</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4102</v>
+        <v>0.4136</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4102</v>
+        <v>0.4136</v>
       </c>
       <c r="F50" t="n">
-        <v>693621.8227</v>
+        <v>961000</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4105266666666667</v>
+        <v>-113577927.9427</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4129216666666666</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,42 +2152,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4102</v>
+        <v>0.4136</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4102</v>
+        <v>0.411</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4102</v>
+        <v>0.4136</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4102</v>
+        <v>0.411</v>
       </c>
       <c r="F51" t="n">
-        <v>323453.0144</v>
+        <v>6282498.6591</v>
       </c>
       <c r="G51" t="n">
-        <v>0.41064</v>
+        <v>-119860426.6018</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4128466666666666</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2472,42 +2193,41 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4117</v>
+        <v>0.4111</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4117</v>
+        <v>0.4111</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4117</v>
+        <v>0.4111</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4117</v>
+        <v>0.4111</v>
       </c>
       <c r="F52" t="n">
-        <v>1239.2421</v>
+        <v>81674.29399999999</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4107733333333333</v>
+        <v>-119778752.3078</v>
       </c>
       <c r="H52" t="n">
-        <v>0.4127933333333332</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2516,42 +2236,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4117</v>
+        <v>0.4111</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4117</v>
+        <v>0.4111</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4117</v>
+        <v>0.4111</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4117</v>
+        <v>0.4111</v>
       </c>
       <c r="F53" t="n">
-        <v>299955.9867</v>
+        <v>112176.6979</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4109066666666666</v>
+        <v>-119778752.3078</v>
       </c>
       <c r="H53" t="n">
-        <v>0.4127399999999999</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+        <v>0.4111</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2560,42 +2279,41 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4125</v>
+        <v>0.4111</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4125</v>
+        <v>0.4111</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4125</v>
+        <v>0.4111</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4125</v>
+        <v>0.4111</v>
       </c>
       <c r="F54" t="n">
-        <v>1250.4689</v>
+        <v>162954.2571</v>
       </c>
       <c r="G54" t="n">
-        <v>0.4110866666666667</v>
+        <v>-119778752.3078</v>
       </c>
       <c r="H54" t="n">
-        <v>0.4126416666666666</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+        <v>0.4111</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,42 +2322,41 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4125</v>
+        <v>0.411</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4125</v>
+        <v>0.41</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4125</v>
+        <v>0.411</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4125</v>
+        <v>0.41</v>
       </c>
       <c r="F55" t="n">
-        <v>1212121.21212121</v>
+        <v>2610940</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4112733333333333</v>
+        <v>-122389692.3078</v>
       </c>
       <c r="H55" t="n">
-        <v>0.41265</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+        <v>0.4111</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2648,42 +2365,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4134</v>
+        <v>0.41</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4134</v>
+        <v>0.4129</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4134</v>
+        <v>0.4129</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4134</v>
+        <v>0.41</v>
       </c>
       <c r="F56" t="n">
-        <v>3256789.1036</v>
+        <v>1770244.231</v>
       </c>
       <c r="G56" t="n">
-        <v>0.4115133333333333</v>
+        <v>-120619448.0768</v>
       </c>
       <c r="H56" t="n">
-        <v>0.4126649999999999</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,42 +2406,41 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4134</v>
+        <v>0.4099</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4134</v>
+        <v>0.409</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4134</v>
+        <v>0.4099</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4134</v>
+        <v>0.409</v>
       </c>
       <c r="F57" t="n">
-        <v>8230597.8303</v>
+        <v>3784319.1579</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4117266666666667</v>
+        <v>-124403767.2347</v>
       </c>
       <c r="H57" t="n">
-        <v>0.412515</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+        <v>0.4129</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2736,42 +2449,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4148</v>
+        <v>0.4091</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4135</v>
+        <v>0.409</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4158</v>
+        <v>0.4091</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4135</v>
+        <v>0.409</v>
       </c>
       <c r="F58" t="n">
-        <v>14981135.2666</v>
+        <v>8173464.2983</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4118066666666667</v>
+        <v>-124403767.2347</v>
       </c>
       <c r="H58" t="n">
-        <v>0.4123666666666666</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2780,42 +2490,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4141</v>
+        <v>0.409</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4141</v>
+        <v>0.409</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4141</v>
+        <v>0.409</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4141</v>
+        <v>0.409</v>
       </c>
       <c r="F59" t="n">
-        <v>752823</v>
+        <v>2240218.9322</v>
       </c>
       <c r="G59" t="n">
-        <v>0.4119133333333334</v>
+        <v>-124403767.2347</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4122716666666666</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
         <v>0.409</v>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="K59" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2824,42 +2533,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4138</v>
+        <v>0.4084</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4181</v>
+        <v>0.407</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4181</v>
+        <v>0.4084</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4138</v>
+        <v>0.407</v>
       </c>
       <c r="F60" t="n">
-        <v>62361.1259</v>
+        <v>3464091.8306</v>
       </c>
       <c r="G60" t="n">
-        <v>0.4124400000000001</v>
+        <v>-127867859.0653</v>
       </c>
       <c r="H60" t="n">
-        <v>0.41227</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2868,42 +2574,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4138</v>
+        <v>0.412</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4138</v>
+        <v>0.412</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4138</v>
+        <v>0.412</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4138</v>
+        <v>0.412</v>
       </c>
       <c r="F61" t="n">
-        <v>402960.9031</v>
+        <v>1220</v>
       </c>
       <c r="G61" t="n">
-        <v>0.4126800000000001</v>
+        <v>-127866639.0653</v>
       </c>
       <c r="H61" t="n">
-        <v>0.4121583333333333</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2912,42 +2615,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4178</v>
+        <v>0.4078</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4179</v>
+        <v>0.4073</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4179</v>
+        <v>0.4078</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4178</v>
+        <v>0.4073</v>
       </c>
       <c r="F62" t="n">
-        <v>1723746.7428</v>
+        <v>14277810.8499</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4130466666666668</v>
+        <v>-142144449.9152</v>
       </c>
       <c r="H62" t="n">
-        <v>0.4122366666666666</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2956,42 +2656,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.418</v>
+        <v>0.4098</v>
       </c>
       <c r="C63" t="n">
-        <v>0.418</v>
+        <v>0.4098</v>
       </c>
       <c r="D63" t="n">
-        <v>0.418</v>
+        <v>0.4098</v>
       </c>
       <c r="E63" t="n">
-        <v>0.418</v>
+        <v>0.4098</v>
       </c>
       <c r="F63" t="n">
-        <v>1250.7881</v>
+        <v>2231849.2738</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4134133333333335</v>
+        <v>-139912600.6414</v>
       </c>
       <c r="H63" t="n">
-        <v>0.4122466666666666</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3000,43 +2697,40 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4137</v>
+        <v>0.4097</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4137</v>
+        <v>0.4097</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4137</v>
+        <v>0.4097</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4137</v>
+        <v>0.4097</v>
       </c>
       <c r="F64" t="n">
-        <v>99226.8202</v>
+        <v>24408.1035</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4136466666666669</v>
+        <v>-139937008.7449</v>
       </c>
       <c r="H64" t="n">
-        <v>0.4122449999999999</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>1</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v>1.006491442542788</v>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -3044,36 +2738,41 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4139</v>
+        <v>0.4085</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4139</v>
+        <v>0.4085</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4139</v>
+        <v>0.4085</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4139</v>
+        <v>0.4085</v>
       </c>
       <c r="F65" t="n">
-        <v>85477.8989</v>
+        <v>116662.1034</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4138933333333336</v>
+        <v>-140053670.8483</v>
       </c>
       <c r="H65" t="n">
-        <v>0.41225</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3082,36 +2781,41 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4179</v>
+        <v>0.4097</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4179</v>
+        <v>0.4097</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4179</v>
+        <v>0.4097</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4179</v>
+        <v>0.4097</v>
       </c>
       <c r="F66" t="n">
-        <v>1216.7905</v>
+        <v>199468.5169</v>
       </c>
       <c r="G66" t="n">
-        <v>0.414406666666667</v>
+        <v>-139854202.3314</v>
       </c>
       <c r="H66" t="n">
-        <v>0.4122766666666667</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+        <v>0.4085</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3120,36 +2824,41 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4179</v>
+        <v>0.4098</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4138</v>
+        <v>0.4097</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4179</v>
+        <v>0.4098</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4138</v>
+        <v>0.4097</v>
       </c>
       <c r="F67" t="n">
-        <v>1975578.6571</v>
+        <v>8538.352199999999</v>
       </c>
       <c r="G67" t="n">
-        <v>0.414546666666667</v>
+        <v>-139854202.3314</v>
       </c>
       <c r="H67" t="n">
-        <v>0.41228</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3158,36 +2867,41 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4138</v>
+        <v>0.4098</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4138</v>
+        <v>0.4098</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4138</v>
+        <v>0.4098</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4138</v>
+        <v>0.4098</v>
       </c>
       <c r="F68" t="n">
-        <v>6000</v>
+        <v>676898.0695</v>
       </c>
       <c r="G68" t="n">
-        <v>0.414686666666667</v>
+        <v>-139177304.2619</v>
       </c>
       <c r="H68" t="n">
-        <v>0.4122383333333333</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,36 +2910,41 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4138</v>
+        <v>0.4097</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4138</v>
+        <v>0.4097</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4138</v>
+        <v>0.4097</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4138</v>
+        <v>0.4097</v>
       </c>
       <c r="F69" t="n">
-        <v>8541000</v>
+        <v>104898.6317</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4147733333333337</v>
+        <v>-139282202.8936</v>
       </c>
       <c r="H69" t="n">
-        <v>0.4121966666666666</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3234,36 +2953,41 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4138</v>
+        <v>0.4098</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4178</v>
+        <v>0.4098</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4178</v>
+        <v>0.4098</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4134</v>
+        <v>0.4098</v>
       </c>
       <c r="F70" t="n">
-        <v>17813318.2123</v>
+        <v>77220.6284</v>
       </c>
       <c r="G70" t="n">
-        <v>0.415126666666667</v>
+        <v>-139204982.2652</v>
       </c>
       <c r="H70" t="n">
-        <v>0.4122666666666666</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3272,36 +2996,41 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4135</v>
+        <v>0.4102</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4178</v>
+        <v>0.4102</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4178</v>
+        <v>0.4102</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4135</v>
+        <v>0.4102</v>
       </c>
       <c r="F71" t="n">
-        <v>894226</v>
+        <v>36243.3817</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4154200000000003</v>
+        <v>-139168738.8835</v>
       </c>
       <c r="H71" t="n">
-        <v>0.4123366666666666</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3310,36 +3039,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4135</v>
+        <v>0.4123</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4135</v>
+        <v>0.4123</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4135</v>
+        <v>0.4123</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4134</v>
+        <v>0.4123</v>
       </c>
       <c r="F72" t="n">
-        <v>1178300.0771</v>
+        <v>75297.2528</v>
       </c>
       <c r="G72" t="n">
-        <v>0.415426666666667</v>
+        <v>-139093441.6307</v>
       </c>
       <c r="H72" t="n">
-        <v>0.412335</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3348,36 +3080,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4134</v>
+        <v>0.4125</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4134</v>
+        <v>0.4125</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4134</v>
+        <v>0.4125</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4134</v>
+        <v>0.4125</v>
       </c>
       <c r="F73" t="n">
-        <v>81432</v>
+        <v>3700</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4154200000000003</v>
+        <v>-139089741.6307</v>
       </c>
       <c r="H73" t="n">
-        <v>0.41233</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3386,36 +3121,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4134</v>
+        <v>0.4102</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4134</v>
+        <v>0.4102</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4134</v>
+        <v>0.4102</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4134</v>
+        <v>0.4102</v>
       </c>
       <c r="F74" t="n">
-        <v>48387</v>
+        <v>12606.772</v>
       </c>
       <c r="G74" t="n">
-        <v>0.4153733333333337</v>
+        <v>-139102348.4027</v>
       </c>
       <c r="H74" t="n">
-        <v>0.4122833333333333</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3424,36 +3162,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.412</v>
+        <v>0.4102</v>
       </c>
       <c r="C75" t="n">
-        <v>0.412</v>
+        <v>0.4102</v>
       </c>
       <c r="D75" t="n">
-        <v>0.412</v>
+        <v>0.4102</v>
       </c>
       <c r="E75" t="n">
-        <v>0.412</v>
+        <v>0.4102</v>
       </c>
       <c r="F75" t="n">
-        <v>1457404.7771</v>
+        <v>688782.5035</v>
       </c>
       <c r="G75" t="n">
-        <v>0.414966666666667</v>
+        <v>-139102348.4027</v>
       </c>
       <c r="H75" t="n">
-        <v>0.412255</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3462,36 +3203,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4135</v>
+        <v>0.4124</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4135</v>
+        <v>0.4124</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4135</v>
+        <v>0.4124</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4135</v>
+        <v>0.4124</v>
       </c>
       <c r="F76" t="n">
-        <v>2556999.7998</v>
+        <v>1274.5306</v>
       </c>
       <c r="G76" t="n">
-        <v>0.414946666666667</v>
+        <v>-139101073.8721</v>
       </c>
       <c r="H76" t="n">
-        <v>0.4122516666666666</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3500,36 +3244,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.412</v>
+        <v>0.4125</v>
       </c>
       <c r="C77" t="n">
-        <v>0.412</v>
+        <v>0.4125</v>
       </c>
       <c r="D77" t="n">
-        <v>0.412</v>
+        <v>0.4125</v>
       </c>
       <c r="E77" t="n">
-        <v>0.412</v>
+        <v>0.4125</v>
       </c>
       <c r="F77" t="n">
-        <v>111404</v>
+        <v>1218.2743</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4145533333333337</v>
+        <v>-139099855.5978</v>
       </c>
       <c r="H77" t="n">
-        <v>0.412225</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,36 +3285,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.412</v>
+        <v>0.4102</v>
       </c>
       <c r="C78" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="D78" t="n">
-        <v>0.412</v>
+        <v>0.4102</v>
       </c>
       <c r="E78" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="F78" t="n">
-        <v>1428406.9095</v>
+        <v>487643.3135</v>
       </c>
       <c r="G78" t="n">
-        <v>0.4140200000000003</v>
+        <v>-139587498.9113</v>
       </c>
       <c r="H78" t="n">
-        <v>0.412165</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3576,36 +3326,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="C79" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="D79" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="E79" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="F79" t="n">
-        <v>87902.439</v>
+        <v>693621.8227</v>
       </c>
       <c r="G79" t="n">
-        <v>0.4137733333333336</v>
+        <v>-139587498.9113</v>
       </c>
       <c r="H79" t="n">
-        <v>0.4121033333333334</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,36 +3367,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="C80" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="D80" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="E80" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="F80" t="n">
-        <v>87902.439</v>
+        <v>323453.0144</v>
       </c>
       <c r="G80" t="n">
-        <v>0.4135133333333336</v>
+        <v>-139587498.9113</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4120433333333334</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3652,36 +3408,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.411</v>
+        <v>0.4117</v>
       </c>
       <c r="C81" t="n">
-        <v>0.411</v>
+        <v>0.4117</v>
       </c>
       <c r="D81" t="n">
-        <v>0.411</v>
+        <v>0.4117</v>
       </c>
       <c r="E81" t="n">
-        <v>0.411</v>
+        <v>0.4117</v>
       </c>
       <c r="F81" t="n">
-        <v>2015999.8998</v>
+        <v>1239.2421</v>
       </c>
       <c r="G81" t="n">
-        <v>0.4130533333333336</v>
+        <v>-139586259.6692</v>
       </c>
       <c r="H81" t="n">
-        <v>0.4120000000000001</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3690,40 +3449,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.411</v>
+        <v>0.4117</v>
       </c>
       <c r="C82" t="n">
-        <v>0.411</v>
+        <v>0.4117</v>
       </c>
       <c r="D82" t="n">
-        <v>0.411</v>
+        <v>0.4117</v>
       </c>
       <c r="E82" t="n">
-        <v>0.411</v>
+        <v>0.4117</v>
       </c>
       <c r="F82" t="n">
-        <v>578364.1090000001</v>
+        <v>299955.9867</v>
       </c>
       <c r="G82" t="n">
-        <v>0.4128666666666669</v>
+        <v>-139586259.6692</v>
       </c>
       <c r="H82" t="n">
-        <v>0.4120000000000001</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3732,44 +3490,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.411</v>
+        <v>0.4125</v>
       </c>
       <c r="C83" t="n">
-        <v>0.411</v>
+        <v>0.4125</v>
       </c>
       <c r="D83" t="n">
-        <v>0.411</v>
+        <v>0.4125</v>
       </c>
       <c r="E83" t="n">
-        <v>0.411</v>
+        <v>0.4125</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0001</v>
+        <v>1250.4689</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4126800000000002</v>
+        <v>-139585009.2003</v>
       </c>
       <c r="H83" t="n">
-        <v>0.4119983333333334</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3778,44 +3531,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4135</v>
+        <v>0.4125</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4135</v>
+        <v>0.4125</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4135</v>
+        <v>0.4125</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4135</v>
+        <v>0.4125</v>
       </c>
       <c r="F84" t="n">
-        <v>5000</v>
+        <v>1212121.21212121</v>
       </c>
       <c r="G84" t="n">
-        <v>0.4126600000000001</v>
+        <v>-139585009.2003</v>
       </c>
       <c r="H84" t="n">
-        <v>0.4120383333333334</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,36 +3572,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4135</v>
+        <v>0.4134</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4135</v>
+        <v>0.4134</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4135</v>
+        <v>0.4134</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4135</v>
+        <v>0.4134</v>
       </c>
       <c r="F85" t="n">
-        <v>2412348.8135</v>
+        <v>3256789.1036</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4123733333333335</v>
+        <v>-136328220.0967</v>
       </c>
       <c r="H85" t="n">
-        <v>0.4120783333333334</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,36 +3613,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4141</v>
+        <v>0.4134</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4141</v>
+        <v>0.4134</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4141</v>
+        <v>0.4134</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4141</v>
+        <v>0.4134</v>
       </c>
       <c r="F86" t="n">
-        <v>240887.1566</v>
+        <v>8230597.8303</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4121266666666669</v>
+        <v>-136328220.0967</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4121466666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3900,36 +3654,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4128</v>
+        <v>0.4148</v>
       </c>
       <c r="C87" t="n">
-        <v>0.411</v>
+        <v>0.4135</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4128</v>
+        <v>0.4158</v>
       </c>
       <c r="E87" t="n">
-        <v>0.411</v>
+        <v>0.4135</v>
       </c>
       <c r="F87" t="n">
-        <v>2303223</v>
+        <v>14981135.2666</v>
       </c>
       <c r="G87" t="n">
-        <v>0.4119600000000002</v>
+        <v>-121347084.8301</v>
       </c>
       <c r="H87" t="n">
-        <v>0.4121150000000001</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3938,36 +3695,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4161</v>
+        <v>0.4141</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4161</v>
+        <v>0.4141</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4161</v>
+        <v>0.4141</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4161</v>
+        <v>0.4141</v>
       </c>
       <c r="F88" t="n">
-        <v>1200</v>
+        <v>752823</v>
       </c>
       <c r="G88" t="n">
-        <v>0.4121400000000002</v>
+        <v>-120594261.8301</v>
       </c>
       <c r="H88" t="n">
-        <v>0.4122333333333334</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3976,36 +3736,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.411</v>
+        <v>0.4138</v>
       </c>
       <c r="C89" t="n">
-        <v>0.411</v>
+        <v>0.4181</v>
       </c>
       <c r="D89" t="n">
-        <v>0.411</v>
+        <v>0.4181</v>
       </c>
       <c r="E89" t="n">
-        <v>0.411</v>
+        <v>0.4138</v>
       </c>
       <c r="F89" t="n">
-        <v>90211.1324</v>
+        <v>62361.1259</v>
       </c>
       <c r="G89" t="n">
-        <v>0.4119800000000001</v>
+        <v>-120531900.7042</v>
       </c>
       <c r="H89" t="n">
-        <v>0.4122666666666668</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4014,36 +3777,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.411</v>
+        <v>0.4138</v>
       </c>
       <c r="C90" t="n">
-        <v>0.411</v>
+        <v>0.4138</v>
       </c>
       <c r="D90" t="n">
-        <v>0.411</v>
+        <v>0.4138</v>
       </c>
       <c r="E90" t="n">
-        <v>0.411</v>
+        <v>0.4138</v>
       </c>
       <c r="F90" t="n">
-        <v>8858.522199999999</v>
+        <v>402960.9031</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4119133333333335</v>
+        <v>-120934861.6073</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4123000000000002</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,36 +3818,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.411</v>
+        <v>0.4178</v>
       </c>
       <c r="C91" t="n">
-        <v>0.411</v>
+        <v>0.4179</v>
       </c>
       <c r="D91" t="n">
-        <v>0.411</v>
+        <v>0.4179</v>
       </c>
       <c r="E91" t="n">
-        <v>0.411</v>
+        <v>0.4178</v>
       </c>
       <c r="F91" t="n">
-        <v>10551.0953</v>
+        <v>1723746.7428</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4117466666666668</v>
+        <v>-119211114.8645</v>
       </c>
       <c r="H91" t="n">
-        <v>0.4123666666666669</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4090,36 +3859,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.411</v>
+        <v>0.418</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4103</v>
+        <v>0.418</v>
       </c>
       <c r="D92" t="n">
-        <v>0.411</v>
+        <v>0.418</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4103</v>
+        <v>0.418</v>
       </c>
       <c r="F92" t="n">
-        <v>941539.9999000001</v>
+        <v>1250.7881</v>
       </c>
       <c r="G92" t="n">
-        <v>0.4116333333333335</v>
+        <v>-119209864.0764</v>
       </c>
       <c r="H92" t="n">
-        <v>0.4123383333333335</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4128,36 +3900,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4102</v>
+        <v>0.4137</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4102</v>
+        <v>0.4137</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4102</v>
+        <v>0.4137</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4102</v>
+        <v>0.4137</v>
       </c>
       <c r="F93" t="n">
-        <v>3051868.786</v>
+        <v>99226.8202</v>
       </c>
       <c r="G93" t="n">
-        <v>0.4116466666666668</v>
+        <v>-119309090.8966</v>
       </c>
       <c r="H93" t="n">
-        <v>0.4123866666666668</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4166,36 +3941,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4102</v>
+        <v>0.4139</v>
       </c>
       <c r="C94" t="n">
-        <v>0.41</v>
+        <v>0.4139</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4102</v>
+        <v>0.4139</v>
       </c>
       <c r="E94" t="n">
-        <v>0.41</v>
+        <v>0.4139</v>
       </c>
       <c r="F94" t="n">
-        <v>5780442.6039</v>
+        <v>85477.8989</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4116466666666668</v>
+        <v>-119223612.9977</v>
       </c>
       <c r="H94" t="n">
-        <v>0.4123900000000002</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4204,40 +3982,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.41</v>
+        <v>0.4179</v>
       </c>
       <c r="C95" t="n">
-        <v>0.41</v>
+        <v>0.4179</v>
       </c>
       <c r="D95" t="n">
-        <v>0.41</v>
+        <v>0.4179</v>
       </c>
       <c r="E95" t="n">
-        <v>0.41</v>
+        <v>0.4179</v>
       </c>
       <c r="F95" t="n">
-        <v>2998000</v>
+        <v>1216.7905</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4116466666666668</v>
+        <v>-119222396.2072</v>
       </c>
       <c r="H95" t="n">
-        <v>0.4123950000000002</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,42 +4023,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.41</v>
+        <v>0.4179</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4097</v>
+        <v>0.4138</v>
       </c>
       <c r="D96" t="n">
-        <v>0.41</v>
+        <v>0.4179</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4097</v>
+        <v>0.4138</v>
       </c>
       <c r="F96" t="n">
-        <v>16061825.1877</v>
+        <v>1975578.6571</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4115600000000001</v>
+        <v>-121197974.8643</v>
       </c>
       <c r="H96" t="n">
-        <v>0.4124150000000002</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4290,42 +4064,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4097</v>
+        <v>0.4138</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4095</v>
+        <v>0.4138</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4097</v>
+        <v>0.4138</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4095</v>
+        <v>0.4138</v>
       </c>
       <c r="F97" t="n">
-        <v>746401.655</v>
+        <v>6000</v>
       </c>
       <c r="G97" t="n">
-        <v>0.4114600000000002</v>
+        <v>-121197974.8643</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4124116666666669</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4334,42 +4105,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4095</v>
+        <v>0.4138</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4094</v>
+        <v>0.4138</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4095</v>
+        <v>0.4138</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4094</v>
+        <v>0.4138</v>
       </c>
       <c r="F98" t="n">
-        <v>1058898.6689</v>
+        <v>8541000</v>
       </c>
       <c r="G98" t="n">
-        <v>0.4113533333333335</v>
+        <v>-121197974.8643</v>
       </c>
       <c r="H98" t="n">
-        <v>0.4124066666666669</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4378,42 +4146,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4095</v>
+        <v>0.4138</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4095</v>
+        <v>0.4178</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4095</v>
+        <v>0.4178</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4095</v>
+        <v>0.4134</v>
       </c>
       <c r="F99" t="n">
-        <v>202721.4272</v>
+        <v>17813318.2123</v>
       </c>
       <c r="G99" t="n">
-        <v>0.4110866666666668</v>
+        <v>-103384656.652</v>
       </c>
       <c r="H99" t="n">
-        <v>0.4124016666666669</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4422,42 +4187,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4095</v>
+        <v>0.4135</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4066</v>
+        <v>0.4178</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4095</v>
+        <v>0.4178</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4066</v>
+        <v>0.4135</v>
       </c>
       <c r="F100" t="n">
-        <v>4265164.4249</v>
+        <v>894226</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4106266666666668</v>
+        <v>-103384656.652</v>
       </c>
       <c r="H100" t="n">
-        <v>0.4123500000000002</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,42 +4228,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.4069</v>
+        <v>0.4135</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4069</v>
+        <v>0.4135</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4069</v>
+        <v>0.4135</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4069</v>
+        <v>0.4134</v>
       </c>
       <c r="F101" t="n">
-        <v>1857983.9806</v>
+        <v>1178300.0771</v>
       </c>
       <c r="G101" t="n">
-        <v>0.4101466666666668</v>
+        <v>-104562956.7291</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4123016666666669</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4510,42 +4269,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.407</v>
+        <v>0.4134</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4066</v>
+        <v>0.4134</v>
       </c>
       <c r="D102" t="n">
-        <v>0.407</v>
+        <v>0.4134</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4066</v>
+        <v>0.4134</v>
       </c>
       <c r="F102" t="n">
-        <v>19954459.6043</v>
+        <v>81432</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4098533333333335</v>
+        <v>-104644388.7291</v>
       </c>
       <c r="H102" t="n">
-        <v>0.4122416666666669</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4554,42 +4310,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4082</v>
+        <v>0.4134</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4083</v>
+        <v>0.4134</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4083</v>
+        <v>0.4134</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4082</v>
+        <v>0.4134</v>
       </c>
       <c r="F103" t="n">
-        <v>410919.7732</v>
+        <v>48387</v>
       </c>
       <c r="G103" t="n">
-        <v>0.4093333333333335</v>
+        <v>-104644388.7291</v>
       </c>
       <c r="H103" t="n">
-        <v>0.4121750000000003</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4598,42 +4351,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4083</v>
+        <v>0.412</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4083</v>
+        <v>0.412</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4083</v>
+        <v>0.412</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4083</v>
+        <v>0.412</v>
       </c>
       <c r="F104" t="n">
-        <v>113103.7284</v>
+        <v>1457404.7771</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4091533333333335</v>
+        <v>-106101793.5062</v>
       </c>
       <c r="H104" t="n">
-        <v>0.4121050000000003</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4642,42 +4392,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4083</v>
+        <v>0.4135</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4099</v>
+        <v>0.4135</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4099</v>
+        <v>0.4135</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4083</v>
+        <v>0.4135</v>
       </c>
       <c r="F105" t="n">
-        <v>1244.0855</v>
+        <v>2556999.7998</v>
       </c>
       <c r="G105" t="n">
-        <v>0.4090800000000002</v>
+        <v>-103544793.7064</v>
       </c>
       <c r="H105" t="n">
-        <v>0.4121000000000003</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4686,42 +4433,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4099</v>
+        <v>0.412</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4099</v>
+        <v>0.412</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4099</v>
+        <v>0.412</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4099</v>
+        <v>0.412</v>
       </c>
       <c r="F106" t="n">
-        <v>86000</v>
+        <v>111404</v>
       </c>
       <c r="G106" t="n">
-        <v>0.4090066666666669</v>
+        <v>-103656197.7064</v>
       </c>
       <c r="H106" t="n">
-        <v>0.4120950000000003</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4730,42 +4474,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4099</v>
+        <v>0.412</v>
       </c>
       <c r="C107" t="n">
         <v>0.41</v>
       </c>
       <c r="D107" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="E107" t="n">
         <v>0.41</v>
       </c>
-      <c r="E107" t="n">
-        <v>0.4099</v>
-      </c>
       <c r="F107" t="n">
-        <v>400609.3789</v>
+        <v>1428406.9095</v>
       </c>
       <c r="G107" t="n">
-        <v>0.4089866666666669</v>
+        <v>-105084604.6159</v>
       </c>
       <c r="H107" t="n">
-        <v>0.4120550000000003</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4774,7 +4515,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4099</v>
+        <v>0.41</v>
       </c>
       <c r="C108" t="n">
         <v>0.41</v>
@@ -4783,33 +4524,30 @@
         <v>0.41</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4099</v>
+        <v>0.41</v>
       </c>
       <c r="F108" t="n">
-        <v>1551917.7694</v>
+        <v>87902.439</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4089733333333336</v>
+        <v>-105084604.6159</v>
       </c>
       <c r="H108" t="n">
-        <v>0.4120133333333336</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4818,42 +4556,41 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.413</v>
+        <v>0.41</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4134</v>
+        <v>0.41</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4134</v>
+        <v>0.41</v>
       </c>
       <c r="E109" t="n">
-        <v>0.413</v>
+        <v>0.41</v>
       </c>
       <c r="F109" t="n">
-        <v>18075936.9781</v>
+        <v>87902.439</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4092000000000003</v>
+        <v>-105084604.6159</v>
       </c>
       <c r="H109" t="n">
-        <v>0.4120666666666669</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
         <v>0.41</v>
       </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="K109" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4862,42 +4599,41 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.4112</v>
+        <v>0.411</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4112</v>
+        <v>0.411</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4112</v>
+        <v>0.411</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4112</v>
+        <v>0.411</v>
       </c>
       <c r="F110" t="n">
-        <v>87326.8753</v>
+        <v>2015999.8998</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4092800000000003</v>
+        <v>-103068604.7161</v>
       </c>
       <c r="H110" t="n">
-        <v>0.4120833333333336</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
         <v>0.41</v>
       </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="K110" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4906,42 +4642,41 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.4112</v>
+        <v>0.411</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4112</v>
+        <v>0.411</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4112</v>
+        <v>0.411</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4112</v>
+        <v>0.411</v>
       </c>
       <c r="F111" t="n">
-        <v>7125.7673</v>
+        <v>578364.1090000001</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4093800000000003</v>
+        <v>-103068604.7161</v>
       </c>
       <c r="H111" t="n">
-        <v>0.4121000000000003</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4950,42 +4685,41 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4112</v>
+        <v>0.411</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4112</v>
+        <v>0.411</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4112</v>
+        <v>0.411</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4112</v>
+        <v>0.411</v>
       </c>
       <c r="F112" t="n">
-        <v>4313</v>
+        <v>0.0001</v>
       </c>
       <c r="G112" t="n">
-        <v>0.4094933333333336</v>
+        <v>-103068604.7161</v>
       </c>
       <c r="H112" t="n">
-        <v>0.412091666666667</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4994,42 +4728,41 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4171</v>
+        <v>0.4135</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4171</v>
+        <v>0.4135</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4171</v>
+        <v>0.4135</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4171</v>
+        <v>0.4135</v>
       </c>
       <c r="F113" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G113" t="n">
-        <v>0.4100066666666669</v>
+        <v>-103063604.7161</v>
       </c>
       <c r="H113" t="n">
-        <v>0.412181666666667</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,42 +4771,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.411</v>
+        <v>0.4135</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4166</v>
+        <v>0.4135</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4166</v>
+        <v>0.4135</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4104</v>
+        <v>0.4135</v>
       </c>
       <c r="F114" t="n">
-        <v>8768813.601299999</v>
+        <v>2412348.8135</v>
       </c>
       <c r="G114" t="n">
-        <v>0.4104800000000002</v>
+        <v>-103063604.7161</v>
       </c>
       <c r="H114" t="n">
-        <v>0.4122500000000003</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5082,42 +4812,41 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.41</v>
+        <v>0.4141</v>
       </c>
       <c r="C115" t="n">
-        <v>0.405</v>
+        <v>0.4141</v>
       </c>
       <c r="D115" t="n">
-        <v>0.41</v>
+        <v>0.4141</v>
       </c>
       <c r="E115" t="n">
-        <v>0.405</v>
+        <v>0.4141</v>
       </c>
       <c r="F115" t="n">
-        <v>10626538.6948</v>
+        <v>240887.1566</v>
       </c>
       <c r="G115" t="n">
-        <v>0.4103733333333335</v>
+        <v>-102822717.5595</v>
       </c>
       <c r="H115" t="n">
-        <v>0.4121250000000003</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5126,42 +4855,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.415</v>
+        <v>0.4128</v>
       </c>
       <c r="C116" t="n">
-        <v>0.415</v>
+        <v>0.411</v>
       </c>
       <c r="D116" t="n">
-        <v>0.415</v>
+        <v>0.4128</v>
       </c>
       <c r="E116" t="n">
-        <v>0.415</v>
+        <v>0.411</v>
       </c>
       <c r="F116" t="n">
-        <v>1203</v>
+        <v>2303223</v>
       </c>
       <c r="G116" t="n">
-        <v>0.4109133333333335</v>
+        <v>-105125940.5595</v>
       </c>
       <c r="H116" t="n">
-        <v>0.412151666666667</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5170,42 +4896,41 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4096</v>
+        <v>0.4161</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4096</v>
+        <v>0.4161</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4096</v>
+        <v>0.4161</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4096</v>
+        <v>0.4161</v>
       </c>
       <c r="F117" t="n">
-        <v>122826.4698</v>
+        <v>1200</v>
       </c>
       <c r="G117" t="n">
-        <v>0.4111133333333336</v>
+        <v>-105124740.5595</v>
       </c>
       <c r="H117" t="n">
-        <v>0.4120883333333337</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5214,42 +4939,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.4068</v>
+        <v>0.411</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4074</v>
+        <v>0.411</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4074</v>
+        <v>0.411</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4068</v>
+        <v>0.411</v>
       </c>
       <c r="F118" t="n">
-        <v>2807885.047</v>
+        <v>90211.1324</v>
       </c>
       <c r="G118" t="n">
-        <v>0.4110533333333335</v>
+        <v>-105214951.6919</v>
       </c>
       <c r="H118" t="n">
-        <v>0.411986666666667</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5258,42 +4980,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4081</v>
+        <v>0.411</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4081</v>
+        <v>0.411</v>
       </c>
       <c r="D119" t="n">
-        <v>0.4081</v>
+        <v>0.411</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4081</v>
+        <v>0.411</v>
       </c>
       <c r="F119" t="n">
-        <v>3604</v>
+        <v>8858.522199999999</v>
       </c>
       <c r="G119" t="n">
-        <v>0.4110400000000002</v>
+        <v>-105214951.6919</v>
       </c>
       <c r="H119" t="n">
-        <v>0.411886666666667</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5302,42 +5021,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.41</v>
+        <v>0.411</v>
       </c>
       <c r="C120" t="n">
-        <v>0.41</v>
+        <v>0.411</v>
       </c>
       <c r="D120" t="n">
-        <v>0.41</v>
+        <v>0.411</v>
       </c>
       <c r="E120" t="n">
-        <v>0.41</v>
+        <v>0.411</v>
       </c>
       <c r="F120" t="n">
-        <v>1220</v>
+        <v>10551.0953</v>
       </c>
       <c r="G120" t="n">
-        <v>0.4110466666666669</v>
+        <v>-105214951.6919</v>
       </c>
       <c r="H120" t="n">
-        <v>0.411751666666667</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5346,42 +5062,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4078</v>
+        <v>0.411</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4078</v>
+        <v>0.4103</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4078</v>
+        <v>0.411</v>
       </c>
       <c r="E121" t="n">
-        <v>0.4078</v>
+        <v>0.4103</v>
       </c>
       <c r="F121" t="n">
-        <v>1777172.6772</v>
+        <v>941539.9999000001</v>
       </c>
       <c r="G121" t="n">
-        <v>0.4109066666666669</v>
+        <v>-106156491.6918</v>
       </c>
       <c r="H121" t="n">
-        <v>0.411651666666667</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5390,44 +5103,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="C122" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="D122" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="E122" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="F122" t="n">
-        <v>1220</v>
+        <v>3051868.786</v>
       </c>
       <c r="G122" t="n">
-        <v>0.4109066666666669</v>
+        <v>-109208360.4778</v>
       </c>
       <c r="H122" t="n">
-        <v>0.4115200000000004</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>0.4078</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,44 +5144,41 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="C123" t="n">
         <v>0.41</v>
       </c>
       <c r="D123" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="E123" t="n">
         <v>0.41</v>
       </c>
       <c r="F123" t="n">
-        <v>28572.5028</v>
+        <v>5780442.6039</v>
       </c>
       <c r="G123" t="n">
-        <v>0.4109066666666669</v>
+        <v>-114988803.0817</v>
       </c>
       <c r="H123" t="n">
-        <v>0.4113866666666671</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>0.4102</v>
       </c>
       <c r="K123" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L123" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5494,32 +5199,27 @@
         <v>0.41</v>
       </c>
       <c r="F124" t="n">
-        <v>1442903.327</v>
+        <v>2998000</v>
       </c>
       <c r="G124" t="n">
-        <v>0.4106800000000002</v>
+        <v>-114988803.0817</v>
       </c>
       <c r="H124" t="n">
-        <v>0.4113250000000004</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L124" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5528,44 +5228,41 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4102</v>
+        <v>0.41</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4099</v>
+        <v>0.4097</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4102</v>
+        <v>0.41</v>
       </c>
       <c r="E125" t="n">
-        <v>0.4099</v>
+        <v>0.4097</v>
       </c>
       <c r="F125" t="n">
-        <v>193240.8148</v>
+        <v>16061825.1877</v>
       </c>
       <c r="G125" t="n">
-        <v>0.4105933333333336</v>
+        <v>-131050628.2694</v>
       </c>
       <c r="H125" t="n">
-        <v>0.4112583333333337</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="K125" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L125" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,44 +5271,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4075</v>
+        <v>0.4097</v>
       </c>
       <c r="C126" t="n">
-        <v>0.407</v>
+        <v>0.4095</v>
       </c>
       <c r="D126" t="n">
-        <v>0.4075</v>
+        <v>0.4097</v>
       </c>
       <c r="E126" t="n">
-        <v>0.407</v>
+        <v>0.4095</v>
       </c>
       <c r="F126" t="n">
-        <v>1845570.0503</v>
+        <v>746401.655</v>
       </c>
       <c r="G126" t="n">
-        <v>0.4103133333333336</v>
+        <v>-131797029.9244</v>
       </c>
       <c r="H126" t="n">
-        <v>0.4110766666666671</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="L126" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5620,44 +5312,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4072</v>
+        <v>0.4095</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4072</v>
+        <v>0.4094</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4072</v>
+        <v>0.4095</v>
       </c>
       <c r="E127" t="n">
-        <v>0.4072</v>
+        <v>0.4094</v>
       </c>
       <c r="F127" t="n">
-        <v>29129.1662</v>
+        <v>1058898.6689</v>
       </c>
       <c r="G127" t="n">
-        <v>0.4100466666666669</v>
+        <v>-132855928.5933</v>
       </c>
       <c r="H127" t="n">
-        <v>0.4109666666666671</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5666,44 +5353,1238 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="F128" t="n">
+        <v>202721.4272</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-132653207.1661</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.4066</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.4066</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4265164.4249</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-136918371.591</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.4069</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.4069</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.4069</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.4069</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1857983.9806</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-135060387.6104</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
         <v>0.407</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C131" t="n">
+        <v>0.4066</v>
+      </c>
+      <c r="D131" t="n">
         <v>0.407</v>
       </c>
-      <c r="D128" t="n">
+      <c r="E131" t="n">
+        <v>0.4066</v>
+      </c>
+      <c r="F131" t="n">
+        <v>19954459.6043</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-155014847.2147</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.4082</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.4082</v>
+      </c>
+      <c r="F132" t="n">
+        <v>410919.7732</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-154603927.4415</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="F133" t="n">
+        <v>113103.7284</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-154603927.4415</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1244.0855</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-154602683.356</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="F135" t="n">
+        <v>86000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-154602683.356</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="F136" t="n">
+        <v>400609.3789</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-154202073.9771</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1551917.7694</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-154202073.9771</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="F138" t="n">
+        <v>18075936.9781</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-136126136.999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="F139" t="n">
+        <v>87326.8753</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-136213463.8743</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="F140" t="n">
+        <v>7125.7673</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-136213463.8743</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4313</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-136213463.8743</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.4171</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.4171</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.4171</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.4171</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-136212263.8743</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.4166</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.4166</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.4104</v>
+      </c>
+      <c r="F143" t="n">
+        <v>8768813.601299999</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-144981077.4756</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F144" t="n">
+        <v>10626538.6948</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-155607616.1704</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1203</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-155606413.1704</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.4096</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.4096</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.4096</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.4096</v>
+      </c>
+      <c r="F146" t="n">
+        <v>122826.4698</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-155729239.6402</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.4068</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.4074</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.4074</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.4068</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2807885.047</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-158537124.6872</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.4081</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.4081</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.4081</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.4081</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3604</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-158533520.6872</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1220</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-158532300.6872</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1777172.6772</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-160309473.3644</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1220</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-160308253.3644</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F152" t="n">
+        <v>28572.5028</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-160308253.3644</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1442903.327</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-160308253.3644</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="F154" t="n">
+        <v>193240.8148</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-160501494.1792</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.4075</v>
+      </c>
+      <c r="C155" t="n">
         <v>0.407</v>
       </c>
-      <c r="E128" t="n">
+      <c r="D155" t="n">
+        <v>0.4075</v>
+      </c>
+      <c r="E155" t="n">
         <v>0.407</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F155" t="n">
+        <v>1845570.0503</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-162347064.2295</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.4072</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.4072</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.4072</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.4072</v>
+      </c>
+      <c r="F156" t="n">
+        <v>29129.1662</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-162317935.0633</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="F157" t="n">
         <v>259578.0597</v>
       </c>
-      <c r="G128" t="n">
-        <v>0.4093733333333335</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0.4108533333333338</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.4072</v>
-      </c>
-      <c r="L128" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="G157" t="n">
+        <v>-162577513.123</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-24 BackTest BTT.xlsx
+++ b/BackTest/2020-01-24 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4152</v>
+        <v>0.4137</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4152</v>
+        <v>0.4137</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4152</v>
+        <v>0.4137</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4152</v>
+        <v>0.4137</v>
       </c>
       <c r="F2" t="n">
-        <v>749545.3179</v>
+        <v>107428.3138</v>
       </c>
       <c r="G2" t="n">
-        <v>-71470439.06150001</v>
+        <v>-88098880.05860002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4152</v>
+        <v>0.4137</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4152</v>
+        <v>0.4137</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4152</v>
+        <v>0.4137</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4152</v>
+        <v>0.4137</v>
       </c>
       <c r="F3" t="n">
-        <v>1009265.0405</v>
+        <v>4903071.3589</v>
       </c>
       <c r="G3" t="n">
-        <v>-71470439.06150001</v>
+        <v>-88098880.05860002</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4131</v>
+        <v>0.4136</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4131</v>
+        <v>0.4136</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4131</v>
+        <v>0.4136</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4131</v>
+        <v>0.4136</v>
       </c>
       <c r="F4" t="n">
-        <v>1513105.3219</v>
+        <v>22456138.6421</v>
       </c>
       <c r="G4" t="n">
-        <v>-72983544.38340001</v>
+        <v>-110555018.7007</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.417</v>
+        <v>0.4136</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4168</v>
+        <v>0.4136</v>
       </c>
       <c r="D5" t="n">
-        <v>0.417</v>
+        <v>0.4136</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4168</v>
+        <v>0.4136</v>
       </c>
       <c r="F5" t="n">
-        <v>2565327.5413</v>
+        <v>14856414.143</v>
       </c>
       <c r="G5" t="n">
-        <v>-70418216.84210001</v>
+        <v>-110555018.7007</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4168</v>
+        <v>0.4137</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4168</v>
+        <v>0.4137</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4168</v>
+        <v>0.4137</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4168</v>
+        <v>0.4137</v>
       </c>
       <c r="F6" t="n">
-        <v>250185.4405</v>
+        <v>2534710.1068</v>
       </c>
       <c r="G6" t="n">
-        <v>-70418216.84210001</v>
+        <v>-108020308.5939</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4165</v>
+        <v>0.4138</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4165</v>
+        <v>0.4136</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4165</v>
+        <v>0.4138</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4165</v>
+        <v>0.4136</v>
       </c>
       <c r="F7" t="n">
-        <v>2110144.7128</v>
+        <v>5557619.3488</v>
       </c>
       <c r="G7" t="n">
-        <v>-72528361.55490001</v>
+        <v>-113577927.9427</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4165</v>
+        <v>0.4136</v>
       </c>
       <c r="C8" t="n">
-        <v>0.417</v>
+        <v>0.4136</v>
       </c>
       <c r="D8" t="n">
-        <v>0.417</v>
+        <v>0.4136</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4165</v>
+        <v>0.4136</v>
       </c>
       <c r="F8" t="n">
-        <v>1374779.008</v>
+        <v>961000</v>
       </c>
       <c r="G8" t="n">
-        <v>-71153582.5469</v>
+        <v>-113577927.9427</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4177</v>
+        <v>0.4136</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4177</v>
+        <v>0.411</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4177</v>
+        <v>0.4136</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4177</v>
+        <v>0.411</v>
       </c>
       <c r="F9" t="n">
-        <v>50000</v>
+        <v>6282498.6591</v>
       </c>
       <c r="G9" t="n">
-        <v>-71103582.5469</v>
+        <v>-119860426.6018</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4174</v>
+        <v>0.4111</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4174</v>
+        <v>0.4111</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4174</v>
+        <v>0.4111</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4174</v>
+        <v>0.4111</v>
       </c>
       <c r="F10" t="n">
-        <v>60000</v>
+        <v>81674.29399999999</v>
       </c>
       <c r="G10" t="n">
-        <v>-71163582.5469</v>
+        <v>-119778752.3078</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4135</v>
+        <v>0.4111</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4128</v>
+        <v>0.4111</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4135</v>
+        <v>0.4111</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4128</v>
+        <v>0.4111</v>
       </c>
       <c r="F11" t="n">
-        <v>12112610.4708</v>
+        <v>112176.6979</v>
       </c>
       <c r="G11" t="n">
-        <v>-83276193.0177</v>
+        <v>-119778752.3078</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4128</v>
+        <v>0.4111</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4128</v>
+        <v>0.4111</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4128</v>
+        <v>0.4111</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4128</v>
+        <v>0.4111</v>
       </c>
       <c r="F12" t="n">
-        <v>652129.5554</v>
+        <v>162954.2571</v>
       </c>
       <c r="G12" t="n">
-        <v>-83276193.0177</v>
+        <v>-119778752.3078</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4126</v>
+        <v>0.411</v>
       </c>
       <c r="C13" t="n">
-        <v>0.412</v>
+        <v>0.41</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4126</v>
+        <v>0.411</v>
       </c>
       <c r="E13" t="n">
-        <v>0.412</v>
+        <v>0.41</v>
       </c>
       <c r="F13" t="n">
-        <v>3233366.6138</v>
+        <v>2610940</v>
       </c>
       <c r="G13" t="n">
-        <v>-86509559.63150001</v>
+        <v>-122389692.3078</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4128</v>
+        <v>0.41</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4128</v>
+        <v>0.4129</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4128</v>
+        <v>0.4129</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4128</v>
+        <v>0.41</v>
       </c>
       <c r="F14" t="n">
-        <v>311591.6724</v>
+        <v>1770244.231</v>
       </c>
       <c r="G14" t="n">
-        <v>-86197967.95910001</v>
+        <v>-120619448.0768</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4127</v>
+        <v>0.4099</v>
       </c>
       <c r="C15" t="n">
-        <v>0.412</v>
+        <v>0.409</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4128</v>
+        <v>0.4099</v>
       </c>
       <c r="E15" t="n">
-        <v>0.412</v>
+        <v>0.409</v>
       </c>
       <c r="F15" t="n">
-        <v>2123024.9074</v>
+        <v>3784319.1579</v>
       </c>
       <c r="G15" t="n">
-        <v>-88320992.86650001</v>
+        <v>-124403767.2347</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4128</v>
+        <v>0.4091</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4128</v>
+        <v>0.409</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4128</v>
+        <v>0.4091</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4128</v>
+        <v>0.409</v>
       </c>
       <c r="F16" t="n">
-        <v>8000</v>
+        <v>8173464.2983</v>
       </c>
       <c r="G16" t="n">
-        <v>-88312992.86650001</v>
+        <v>-124403767.2347</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4128</v>
+        <v>0.409</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4128</v>
+        <v>0.409</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4128</v>
+        <v>0.409</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4128</v>
+        <v>0.409</v>
       </c>
       <c r="F17" t="n">
-        <v>121710.5131</v>
+        <v>2240218.9322</v>
       </c>
       <c r="G17" t="n">
-        <v>-88312992.86650001</v>
+        <v>-124403767.2347</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4128</v>
+        <v>0.4084</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4128</v>
+        <v>0.407</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4128</v>
+        <v>0.4084</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4128</v>
+        <v>0.407</v>
       </c>
       <c r="F18" t="n">
-        <v>1085701.4668</v>
+        <v>3464091.8306</v>
       </c>
       <c r="G18" t="n">
-        <v>-88312992.86650001</v>
+        <v>-127867859.0653</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4128</v>
+        <v>0.412</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4143</v>
+        <v>0.412</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4143</v>
+        <v>0.412</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4128</v>
+        <v>0.412</v>
       </c>
       <c r="F19" t="n">
-        <v>8796236.2426</v>
+        <v>1220</v>
       </c>
       <c r="G19" t="n">
-        <v>-79516756.62390001</v>
+        <v>-127866639.0653</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4147</v>
+        <v>0.4078</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4147</v>
+        <v>0.4073</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4147</v>
+        <v>0.4078</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4147</v>
+        <v>0.4073</v>
       </c>
       <c r="F20" t="n">
-        <v>1315.3684</v>
+        <v>14277810.8499</v>
       </c>
       <c r="G20" t="n">
-        <v>-79515441.25550002</v>
+        <v>-142144449.9152</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4149</v>
+        <v>0.4098</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4149</v>
+        <v>0.4098</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4149</v>
+        <v>0.4098</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4149</v>
+        <v>0.4098</v>
       </c>
       <c r="F21" t="n">
-        <v>1312.2844</v>
+        <v>2231849.2738</v>
       </c>
       <c r="G21" t="n">
-        <v>-79514128.97110002</v>
+        <v>-139912600.6414</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4149</v>
+        <v>0.4097</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4149</v>
+        <v>0.4097</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4149</v>
+        <v>0.4097</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4149</v>
+        <v>0.4097</v>
       </c>
       <c r="F22" t="n">
-        <v>9366061.1426</v>
+        <v>24408.1035</v>
       </c>
       <c r="G22" t="n">
-        <v>-79514128.97110002</v>
+        <v>-139937008.7449</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4184</v>
+        <v>0.4085</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4184</v>
+        <v>0.4085</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4184</v>
+        <v>0.4085</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4184</v>
+        <v>0.4085</v>
       </c>
       <c r="F23" t="n">
-        <v>1200</v>
+        <v>116662.1034</v>
       </c>
       <c r="G23" t="n">
-        <v>-79512928.97110002</v>
+        <v>-140053670.8483</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.412</v>
+        <v>0.4097</v>
       </c>
       <c r="C24" t="n">
-        <v>0.412</v>
+        <v>0.4097</v>
       </c>
       <c r="D24" t="n">
-        <v>0.412</v>
+        <v>0.4097</v>
       </c>
       <c r="E24" t="n">
-        <v>0.412</v>
+        <v>0.4097</v>
       </c>
       <c r="F24" t="n">
-        <v>5000</v>
+        <v>199468.5169</v>
       </c>
       <c r="G24" t="n">
-        <v>-79517928.97110002</v>
+        <v>-139854202.3314</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4125</v>
+        <v>0.4098</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4125</v>
+        <v>0.4097</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4125</v>
+        <v>0.4098</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4125</v>
+        <v>0.4097</v>
       </c>
       <c r="F25" t="n">
-        <v>24902.3205</v>
+        <v>8538.352199999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-79493026.65060002</v>
+        <v>-139854202.3314</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4224</v>
+        <v>0.4098</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4224</v>
+        <v>0.4098</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4224</v>
+        <v>0.4098</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4224</v>
+        <v>0.4098</v>
       </c>
       <c r="F26" t="n">
-        <v>1185</v>
+        <v>676898.0695</v>
       </c>
       <c r="G26" t="n">
-        <v>-79491841.65060002</v>
+        <v>-139177304.2619</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4224</v>
+        <v>0.4097</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4224</v>
+        <v>0.4097</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4224</v>
+        <v>0.4097</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4224</v>
+        <v>0.4097</v>
       </c>
       <c r="F27" t="n">
-        <v>7090.43560605</v>
+        <v>104898.6317</v>
       </c>
       <c r="G27" t="n">
-        <v>-79491841.65060002</v>
+        <v>-139282202.8936</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4198</v>
+        <v>0.4098</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4198</v>
+        <v>0.4098</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4198</v>
+        <v>0.4098</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4198</v>
+        <v>0.4098</v>
       </c>
       <c r="F28" t="n">
-        <v>6394.0672</v>
+        <v>77220.6284</v>
       </c>
       <c r="G28" t="n">
-        <v>-79498235.71780002</v>
+        <v>-139204982.2652</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4182</v>
+        <v>0.4102</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4182</v>
+        <v>0.4102</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4182</v>
+        <v>0.4102</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4182</v>
+        <v>0.4102</v>
       </c>
       <c r="F29" t="n">
-        <v>1313.927</v>
+        <v>36243.3817</v>
       </c>
       <c r="G29" t="n">
-        <v>-79499549.64480002</v>
+        <v>-139168738.8835</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4135</v>
+        <v>0.4123</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4205</v>
+        <v>0.4123</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4205</v>
+        <v>0.4123</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4135</v>
+        <v>0.4123</v>
       </c>
       <c r="F30" t="n">
-        <v>62493.414</v>
+        <v>75297.2528</v>
       </c>
       <c r="G30" t="n">
-        <v>-79437056.23080002</v>
+        <v>-139093441.6307</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4138</v>
+        <v>0.4125</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4132</v>
+        <v>0.4125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4138</v>
+        <v>0.4125</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4132</v>
+        <v>0.4125</v>
       </c>
       <c r="F31" t="n">
-        <v>563574.0989</v>
+        <v>3700</v>
       </c>
       <c r="G31" t="n">
-        <v>-80000630.32970002</v>
+        <v>-139089741.6307</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4174</v>
+        <v>0.4102</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4174</v>
+        <v>0.4102</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4174</v>
+        <v>0.4102</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4174</v>
+        <v>0.4102</v>
       </c>
       <c r="F32" t="n">
-        <v>1545.1369</v>
+        <v>12606.772</v>
       </c>
       <c r="G32" t="n">
-        <v>-79999085.19280003</v>
+        <v>-139102348.4027</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4138</v>
+        <v>0.4102</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4138</v>
+        <v>0.4102</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4138</v>
+        <v>0.4102</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4138</v>
+        <v>0.4102</v>
       </c>
       <c r="F33" t="n">
-        <v>108356</v>
+        <v>688782.5035</v>
       </c>
       <c r="G33" t="n">
-        <v>-80107441.19280003</v>
+        <v>-139102348.4027</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4138</v>
+        <v>0.4124</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4136</v>
+        <v>0.4124</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4138</v>
+        <v>0.4124</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4136</v>
+        <v>0.4124</v>
       </c>
       <c r="F34" t="n">
-        <v>9257017.9661</v>
+        <v>1274.5306</v>
       </c>
       <c r="G34" t="n">
-        <v>-89364459.15890002</v>
+        <v>-139101073.8721</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4163</v>
+        <v>0.4125</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4163</v>
+        <v>0.4125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4163</v>
+        <v>0.4125</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4163</v>
+        <v>0.4125</v>
       </c>
       <c r="F35" t="n">
-        <v>1917552.1441</v>
+        <v>1218.2743</v>
       </c>
       <c r="G35" t="n">
-        <v>-87446907.01480003</v>
+        <v>-139099855.5978</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4136</v>
+        <v>0.4102</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4136</v>
+        <v>0.4102</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4136</v>
+        <v>0.4102</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4136</v>
+        <v>0.4102</v>
       </c>
       <c r="F36" t="n">
-        <v>594218.7913</v>
+        <v>487643.3135</v>
       </c>
       <c r="G36" t="n">
-        <v>-88041125.80610003</v>
+        <v>-139587498.9113</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4163</v>
+        <v>0.4102</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4163</v>
+        <v>0.4102</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4163</v>
+        <v>0.4102</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4163</v>
+        <v>0.4102</v>
       </c>
       <c r="F37" t="n">
-        <v>19639.9535</v>
+        <v>693621.8227</v>
       </c>
       <c r="G37" t="n">
-        <v>-88021485.85260002</v>
+        <v>-139587498.9113</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4163</v>
+        <v>0.4102</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4163</v>
+        <v>0.4102</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4163</v>
+        <v>0.4102</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4163</v>
+        <v>0.4102</v>
       </c>
       <c r="F38" t="n">
-        <v>5938.0015</v>
+        <v>323453.0144</v>
       </c>
       <c r="G38" t="n">
-        <v>-88021485.85260002</v>
+        <v>-139587498.9113</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4136</v>
+        <v>0.4117</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4136</v>
+        <v>0.4117</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4136</v>
+        <v>0.4117</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4136</v>
+        <v>0.4117</v>
       </c>
       <c r="F39" t="n">
-        <v>58498.6141</v>
+        <v>1239.2421</v>
       </c>
       <c r="G39" t="n">
-        <v>-88079984.46670002</v>
+        <v>-139586259.6692</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4136</v>
+        <v>0.4117</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4136</v>
+        <v>0.4117</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4136</v>
+        <v>0.4117</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4136</v>
+        <v>0.4117</v>
       </c>
       <c r="F40" t="n">
-        <v>58498.6141</v>
+        <v>299955.9867</v>
       </c>
       <c r="G40" t="n">
-        <v>-88079984.46670002</v>
+        <v>-139586259.6692</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4136</v>
+        <v>0.4125</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4136</v>
+        <v>0.4125</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4136</v>
+        <v>0.4125</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4136</v>
+        <v>0.4125</v>
       </c>
       <c r="F41" t="n">
-        <v>98569.16740000001</v>
+        <v>1250.4689</v>
       </c>
       <c r="G41" t="n">
-        <v>-88079984.46670002</v>
+        <v>-139585009.2003</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4137</v>
+        <v>0.4125</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4137</v>
+        <v>0.4125</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4137</v>
+        <v>0.4125</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4137</v>
+        <v>0.4125</v>
       </c>
       <c r="F42" t="n">
-        <v>28121.0409</v>
+        <v>1212121.21212121</v>
       </c>
       <c r="G42" t="n">
-        <v>-88051863.42580001</v>
+        <v>-139585009.2003</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4162</v>
+        <v>0.4134</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4162</v>
+        <v>0.4134</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4162</v>
+        <v>0.4134</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4162</v>
+        <v>0.4134</v>
       </c>
       <c r="F43" t="n">
-        <v>60411.681</v>
+        <v>3256789.1036</v>
       </c>
       <c r="G43" t="n">
-        <v>-87991451.74480002</v>
+        <v>-136328220.0967</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4137</v>
+        <v>0.4134</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4137</v>
+        <v>0.4134</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4137</v>
+        <v>0.4134</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4137</v>
+        <v>0.4134</v>
       </c>
       <c r="F44" t="n">
-        <v>107428.3138</v>
+        <v>8230597.8303</v>
       </c>
       <c r="G44" t="n">
-        <v>-88098880.05860002</v>
+        <v>-136328220.0967</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4137</v>
+        <v>0.4148</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4137</v>
+        <v>0.4135</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4137</v>
+        <v>0.4158</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4137</v>
+        <v>0.4135</v>
       </c>
       <c r="F45" t="n">
-        <v>4903071.3589</v>
+        <v>14981135.2666</v>
       </c>
       <c r="G45" t="n">
-        <v>-88098880.05860002</v>
+        <v>-121347084.8301</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4136</v>
+        <v>0.4141</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4136</v>
+        <v>0.4141</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4136</v>
+        <v>0.4141</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4136</v>
+        <v>0.4141</v>
       </c>
       <c r="F46" t="n">
-        <v>22456138.6421</v>
+        <v>752823</v>
       </c>
       <c r="G46" t="n">
-        <v>-110555018.7007</v>
+        <v>-120594261.8301</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4136</v>
+        <v>0.4138</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4136</v>
+        <v>0.4181</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4136</v>
+        <v>0.4181</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4136</v>
+        <v>0.4138</v>
       </c>
       <c r="F47" t="n">
-        <v>14856414.143</v>
+        <v>62361.1259</v>
       </c>
       <c r="G47" t="n">
-        <v>-110555018.7007</v>
+        <v>-120531900.7042</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4137</v>
+        <v>0.4138</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4137</v>
+        <v>0.4138</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4137</v>
+        <v>0.4138</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4137</v>
+        <v>0.4138</v>
       </c>
       <c r="F48" t="n">
-        <v>2534710.1068</v>
+        <v>402960.9031</v>
       </c>
       <c r="G48" t="n">
-        <v>-108020308.5939</v>
+        <v>-120934861.6073</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4138</v>
+        <v>0.4178</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4136</v>
+        <v>0.4179</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4138</v>
+        <v>0.4179</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4136</v>
+        <v>0.4178</v>
       </c>
       <c r="F49" t="n">
-        <v>5557619.3488</v>
+        <v>1723746.7428</v>
       </c>
       <c r="G49" t="n">
-        <v>-113577927.9427</v>
+        <v>-119211114.8645</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,67 +2159,65 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4136</v>
+        <v>0.418</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4136</v>
+        <v>0.418</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4136</v>
+        <v>0.418</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4136</v>
+        <v>0.418</v>
       </c>
       <c r="F50" t="n">
-        <v>961000</v>
+        <v>1250.7881</v>
       </c>
       <c r="G50" t="n">
-        <v>-113577927.9427</v>
+        <v>-119209864.0764</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4136</v>
+        <v>0.4137</v>
       </c>
       <c r="C51" t="n">
-        <v>0.411</v>
+        <v>0.4137</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4136</v>
+        <v>0.4137</v>
       </c>
       <c r="E51" t="n">
-        <v>0.411</v>
+        <v>0.4137</v>
       </c>
       <c r="F51" t="n">
-        <v>6282498.6591</v>
+        <v>99226.8202</v>
       </c>
       <c r="G51" t="n">
-        <v>-119860426.6018</v>
+        <v>-119309090.8966</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2176,211 +2226,178 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4111</v>
+        <v>0.4139</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4111</v>
+        <v>0.4139</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4111</v>
+        <v>0.4139</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4111</v>
+        <v>0.4139</v>
       </c>
       <c r="F52" t="n">
-        <v>81674.29399999999</v>
+        <v>85477.8989</v>
       </c>
       <c r="G52" t="n">
-        <v>-119778752.3078</v>
+        <v>-119223612.9977</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4111</v>
+        <v>0.4179</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4111</v>
+        <v>0.4179</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4111</v>
+        <v>0.4179</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4111</v>
+        <v>0.4179</v>
       </c>
       <c r="F53" t="n">
-        <v>112176.6979</v>
+        <v>1216.7905</v>
       </c>
       <c r="G53" t="n">
-        <v>-119778752.3078</v>
+        <v>-119222396.2072</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0.4111</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4111</v>
+        <v>0.4179</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4111</v>
+        <v>0.4138</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4111</v>
+        <v>0.4179</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4111</v>
+        <v>0.4138</v>
       </c>
       <c r="F54" t="n">
-        <v>162954.2571</v>
+        <v>1975578.6571</v>
       </c>
       <c r="G54" t="n">
-        <v>-119778752.3078</v>
+        <v>-121197974.8643</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0.4111</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.411</v>
+        <v>0.4138</v>
       </c>
       <c r="C55" t="n">
-        <v>0.41</v>
+        <v>0.4138</v>
       </c>
       <c r="D55" t="n">
-        <v>0.411</v>
+        <v>0.4138</v>
       </c>
       <c r="E55" t="n">
-        <v>0.41</v>
+        <v>0.4138</v>
       </c>
       <c r="F55" t="n">
-        <v>2610940</v>
+        <v>6000</v>
       </c>
       <c r="G55" t="n">
-        <v>-122389692.3078</v>
+        <v>-121197974.8643</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0.4111</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.41</v>
+        <v>0.4138</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4129</v>
+        <v>0.4138</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4129</v>
+        <v>0.4138</v>
       </c>
       <c r="E56" t="n">
-        <v>0.41</v>
+        <v>0.4138</v>
       </c>
       <c r="F56" t="n">
-        <v>1770244.231</v>
+        <v>8541000</v>
       </c>
       <c r="G56" t="n">
-        <v>-120619448.0768</v>
+        <v>-121197974.8643</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2389,82 +2406,70 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4099</v>
+        <v>0.4138</v>
       </c>
       <c r="C57" t="n">
-        <v>0.409</v>
+        <v>0.4178</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4099</v>
+        <v>0.4178</v>
       </c>
       <c r="E57" t="n">
-        <v>0.409</v>
+        <v>0.4134</v>
       </c>
       <c r="F57" t="n">
-        <v>3784319.1579</v>
+        <v>17813318.2123</v>
       </c>
       <c r="G57" t="n">
-        <v>-124403767.2347</v>
+        <v>-103384656.652</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0.4129</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4091</v>
+        <v>0.4135</v>
       </c>
       <c r="C58" t="n">
-        <v>0.409</v>
+        <v>0.4178</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4091</v>
+        <v>0.4178</v>
       </c>
       <c r="E58" t="n">
-        <v>0.409</v>
+        <v>0.4135</v>
       </c>
       <c r="F58" t="n">
-        <v>8173464.2983</v>
+        <v>894226</v>
       </c>
       <c r="G58" t="n">
-        <v>-124403767.2347</v>
+        <v>-103384656.652</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2473,82 +2478,70 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.409</v>
+        <v>0.4135</v>
       </c>
       <c r="C59" t="n">
-        <v>0.409</v>
+        <v>0.4135</v>
       </c>
       <c r="D59" t="n">
-        <v>0.409</v>
+        <v>0.4135</v>
       </c>
       <c r="E59" t="n">
-        <v>0.409</v>
+        <v>0.4134</v>
       </c>
       <c r="F59" t="n">
-        <v>2240218.9322</v>
+        <v>1178300.0771</v>
       </c>
       <c r="G59" t="n">
-        <v>-124403767.2347</v>
+        <v>-104562956.7291</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4084</v>
+        <v>0.4134</v>
       </c>
       <c r="C60" t="n">
-        <v>0.407</v>
+        <v>0.4134</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4084</v>
+        <v>0.4134</v>
       </c>
       <c r="E60" t="n">
-        <v>0.407</v>
+        <v>0.4134</v>
       </c>
       <c r="F60" t="n">
-        <v>3464091.8306</v>
+        <v>81432</v>
       </c>
       <c r="G60" t="n">
-        <v>-127867859.0653</v>
+        <v>-104644388.7291</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2557,39 +2550,34 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.412</v>
+        <v>0.4134</v>
       </c>
       <c r="C61" t="n">
-        <v>0.412</v>
+        <v>0.4134</v>
       </c>
       <c r="D61" t="n">
-        <v>0.412</v>
+        <v>0.4134</v>
       </c>
       <c r="E61" t="n">
-        <v>0.412</v>
+        <v>0.4134</v>
       </c>
       <c r="F61" t="n">
-        <v>1220</v>
+        <v>48387</v>
       </c>
       <c r="G61" t="n">
-        <v>-127866639.0653</v>
+        <v>-104644388.7291</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,39 +2586,34 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4078</v>
+        <v>0.412</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4073</v>
+        <v>0.412</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4078</v>
+        <v>0.412</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4073</v>
+        <v>0.412</v>
       </c>
       <c r="F62" t="n">
-        <v>14277810.8499</v>
+        <v>1457404.7771</v>
       </c>
       <c r="G62" t="n">
-        <v>-142144449.9152</v>
+        <v>-106101793.5062</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2639,39 +2622,34 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4098</v>
+        <v>0.4135</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4098</v>
+        <v>0.4135</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4098</v>
+        <v>0.4135</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4098</v>
+        <v>0.4135</v>
       </c>
       <c r="F63" t="n">
-        <v>2231849.2738</v>
+        <v>2556999.7998</v>
       </c>
       <c r="G63" t="n">
-        <v>-139912600.6414</v>
+        <v>-103544793.7064</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2680,39 +2658,34 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4097</v>
+        <v>0.412</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4097</v>
+        <v>0.412</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4097</v>
+        <v>0.412</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4097</v>
+        <v>0.412</v>
       </c>
       <c r="F64" t="n">
-        <v>24408.1035</v>
+        <v>111404</v>
       </c>
       <c r="G64" t="n">
-        <v>-139937008.7449</v>
+        <v>-103656197.7064</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2721,125 +2694,106 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4085</v>
+        <v>0.412</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4085</v>
+        <v>0.41</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4085</v>
+        <v>0.412</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4085</v>
+        <v>0.41</v>
       </c>
       <c r="F65" t="n">
-        <v>116662.1034</v>
+        <v>1428406.9095</v>
       </c>
       <c r="G65" t="n">
-        <v>-140053670.8483</v>
+        <v>-105084604.6159</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0.4097</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4097</v>
+        <v>0.41</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4097</v>
+        <v>0.41</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4097</v>
+        <v>0.41</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4097</v>
+        <v>0.41</v>
       </c>
       <c r="F66" t="n">
-        <v>199468.5169</v>
+        <v>87902.439</v>
       </c>
       <c r="G66" t="n">
-        <v>-139854202.3314</v>
+        <v>-105084604.6159</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0.4085</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4098</v>
+        <v>0.41</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4097</v>
+        <v>0.41</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4098</v>
+        <v>0.41</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4097</v>
+        <v>0.41</v>
       </c>
       <c r="F67" t="n">
-        <v>8538.352199999999</v>
+        <v>87902.439</v>
       </c>
       <c r="G67" t="n">
-        <v>-139854202.3314</v>
+        <v>-105084604.6159</v>
       </c>
       <c r="H67" t="n">
         <v>1</v>
@@ -2848,84 +2802,80 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0.4097</v>
+        <v>0.41</v>
       </c>
       <c r="K67" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.41</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="F68" t="n">
-        <v>676898.0695</v>
+        <v>2015999.8998</v>
       </c>
       <c r="G68" t="n">
-        <v>-139177304.2619</v>
+        <v>-103068604.7161</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0.4097</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>0.4136</v>
+        <v>0.41</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4097</v>
+        <v>0.411</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4097</v>
+        <v>0.411</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4097</v>
+        <v>0.411</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4097</v>
+        <v>0.411</v>
       </c>
       <c r="F69" t="n">
-        <v>104898.6317</v>
+        <v>578364.1090000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-139282202.8936</v>
+        <v>-103068604.7161</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
@@ -2934,84 +2884,78 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="K69" t="n">
-        <v>0.4136</v>
+        <v>0.41</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="F70" t="n">
-        <v>77220.6284</v>
+        <v>0.0001</v>
       </c>
       <c r="G70" t="n">
-        <v>-139204982.2652</v>
+        <v>-103068604.7161</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0.4097</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4102</v>
+        <v>0.4135</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4102</v>
+        <v>0.4135</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4102</v>
+        <v>0.4135</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4102</v>
+        <v>0.4135</v>
       </c>
       <c r="F71" t="n">
-        <v>36243.3817</v>
+        <v>5000</v>
       </c>
       <c r="G71" t="n">
-        <v>-139168738.8835</v>
+        <v>-103063604.7161</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
@@ -3020,41 +2964,38 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="K71" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.411</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4123</v>
+        <v>0.4135</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4123</v>
+        <v>0.4135</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4123</v>
+        <v>0.4135</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4123</v>
+        <v>0.4135</v>
       </c>
       <c r="F72" t="n">
-        <v>75297.2528</v>
+        <v>2412348.8135</v>
       </c>
       <c r="G72" t="n">
-        <v>-139093441.6307</v>
+        <v>-103063604.7161</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3064,38 +3005,39 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>0.4136</v>
+        <v>0.411</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4125</v>
+        <v>0.4141</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4125</v>
+        <v>0.4141</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4125</v>
+        <v>0.4141</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4125</v>
+        <v>0.4141</v>
       </c>
       <c r="F73" t="n">
-        <v>3700</v>
+        <v>240887.1566</v>
       </c>
       <c r="G73" t="n">
-        <v>-139089741.6307</v>
+        <v>-102822717.5595</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3105,38 +3047,39 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>0.4136</v>
+        <v>0.411</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4102</v>
+        <v>0.4128</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4102</v>
+        <v>0.411</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4102</v>
+        <v>0.4128</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4102</v>
+        <v>0.411</v>
       </c>
       <c r="F74" t="n">
-        <v>12606.772</v>
+        <v>2303223</v>
       </c>
       <c r="G74" t="n">
-        <v>-139102348.4027</v>
+        <v>-105125940.5595</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3145,39 +3088,34 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4102</v>
+        <v>0.4161</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4102</v>
+        <v>0.4161</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4102</v>
+        <v>0.4161</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4102</v>
+        <v>0.4161</v>
       </c>
       <c r="F75" t="n">
-        <v>688782.5035</v>
+        <v>1200</v>
       </c>
       <c r="G75" t="n">
-        <v>-139102348.4027</v>
+        <v>-105124740.5595</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3186,39 +3124,34 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4124</v>
+        <v>0.411</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4124</v>
+        <v>0.411</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4124</v>
+        <v>0.411</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4124</v>
+        <v>0.411</v>
       </c>
       <c r="F76" t="n">
-        <v>1274.5306</v>
+        <v>90211.1324</v>
       </c>
       <c r="G76" t="n">
-        <v>-139101073.8721</v>
+        <v>-105214951.6919</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3227,39 +3160,34 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4125</v>
+        <v>0.411</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4125</v>
+        <v>0.411</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4125</v>
+        <v>0.411</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4125</v>
+        <v>0.411</v>
       </c>
       <c r="F77" t="n">
-        <v>1218.2743</v>
+        <v>8858.522199999999</v>
       </c>
       <c r="G77" t="n">
-        <v>-139099855.5978</v>
+        <v>-105214951.6919</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3268,39 +3196,34 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4102</v>
+        <v>0.411</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4102</v>
+        <v>0.411</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4102</v>
+        <v>0.411</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4102</v>
+        <v>0.411</v>
       </c>
       <c r="F78" t="n">
-        <v>487643.3135</v>
+        <v>10551.0953</v>
       </c>
       <c r="G78" t="n">
-        <v>-139587498.9113</v>
+        <v>-105214951.6919</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3309,39 +3232,34 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4102</v>
+        <v>0.411</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4102</v>
+        <v>0.4103</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4102</v>
+        <v>0.411</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4102</v>
+        <v>0.4103</v>
       </c>
       <c r="F79" t="n">
-        <v>693621.8227</v>
+        <v>941539.9999000001</v>
       </c>
       <c r="G79" t="n">
-        <v>-139587498.9113</v>
+        <v>-106156491.6918</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3350,17 +3268,12 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3379,10 +3292,10 @@
         <v>0.4102</v>
       </c>
       <c r="F80" t="n">
-        <v>323453.0144</v>
+        <v>3051868.786</v>
       </c>
       <c r="G80" t="n">
-        <v>-139587498.9113</v>
+        <v>-109208360.4778</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3391,39 +3304,34 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4117</v>
+        <v>0.4102</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4117</v>
+        <v>0.41</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4117</v>
+        <v>0.4102</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4117</v>
+        <v>0.41</v>
       </c>
       <c r="F81" t="n">
-        <v>1239.2421</v>
+        <v>5780442.6039</v>
       </c>
       <c r="G81" t="n">
-        <v>-139586259.6692</v>
+        <v>-114988803.0817</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3432,39 +3340,34 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4117</v>
+        <v>0.41</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4117</v>
+        <v>0.41</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4117</v>
+        <v>0.41</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4117</v>
+        <v>0.41</v>
       </c>
       <c r="F82" t="n">
-        <v>299955.9867</v>
+        <v>2998000</v>
       </c>
       <c r="G82" t="n">
-        <v>-139586259.6692</v>
+        <v>-114988803.0817</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3473,39 +3376,34 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4125</v>
+        <v>0.41</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4125</v>
+        <v>0.4097</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4125</v>
+        <v>0.41</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4125</v>
+        <v>0.4097</v>
       </c>
       <c r="F83" t="n">
-        <v>1250.4689</v>
+        <v>16061825.1877</v>
       </c>
       <c r="G83" t="n">
-        <v>-139585009.2003</v>
+        <v>-131050628.2694</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3514,91 +3412,87 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4125</v>
+        <v>0.4097</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4125</v>
+        <v>0.4095</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4125</v>
+        <v>0.4097</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4125</v>
+        <v>0.4095</v>
       </c>
       <c r="F84" t="n">
-        <v>1212121.21212121</v>
+        <v>746401.655</v>
       </c>
       <c r="G84" t="n">
-        <v>-139585009.2003</v>
+        <v>-131797029.9244</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="J84" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4134</v>
+        <v>0.4095</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4134</v>
+        <v>0.4094</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4134</v>
+        <v>0.4095</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4134</v>
+        <v>0.4094</v>
       </c>
       <c r="F85" t="n">
-        <v>3256789.1036</v>
+        <v>1058898.6689</v>
       </c>
       <c r="G85" t="n">
-        <v>-136328220.0967</v>
+        <v>-132855928.5933</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="J85" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3607,39 +3501,40 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4134</v>
+        <v>0.4095</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4134</v>
+        <v>0.4095</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4134</v>
+        <v>0.4095</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4134</v>
+        <v>0.4095</v>
       </c>
       <c r="F86" t="n">
-        <v>8230597.8303</v>
+        <v>202721.4272</v>
       </c>
       <c r="G86" t="n">
-        <v>-136328220.0967</v>
+        <v>-132653207.1661</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="J86" t="n">
+        <v>0.4094</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3648,39 +3543,40 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4148</v>
+        <v>0.4095</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4135</v>
+        <v>0.4066</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4158</v>
+        <v>0.4095</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4135</v>
+        <v>0.4066</v>
       </c>
       <c r="F87" t="n">
-        <v>14981135.2666</v>
+        <v>4265164.4249</v>
       </c>
       <c r="G87" t="n">
-        <v>-121347084.8301</v>
+        <v>-136918371.591</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="J87" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3689,39 +3585,40 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4141</v>
+        <v>0.4069</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4141</v>
+        <v>0.4069</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4141</v>
+        <v>0.4069</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4141</v>
+        <v>0.4069</v>
       </c>
       <c r="F88" t="n">
-        <v>752823</v>
+        <v>1857983.9806</v>
       </c>
       <c r="G88" t="n">
-        <v>-120594261.8301</v>
+        <v>-135060387.6104</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="J88" t="n">
+        <v>0.4066</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3730,39 +3627,40 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4138</v>
+        <v>0.407</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4181</v>
+        <v>0.4066</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4181</v>
+        <v>0.407</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4138</v>
+        <v>0.4066</v>
       </c>
       <c r="F89" t="n">
-        <v>62361.1259</v>
+        <v>19954459.6043</v>
       </c>
       <c r="G89" t="n">
-        <v>-120531900.7042</v>
+        <v>-155014847.2147</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="J89" t="n">
+        <v>0.4069</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3771,39 +3669,40 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4138</v>
+        <v>0.4082</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4138</v>
+        <v>0.4083</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4138</v>
+        <v>0.4083</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4138</v>
+        <v>0.4082</v>
       </c>
       <c r="F90" t="n">
-        <v>402960.9031</v>
+        <v>410919.7732</v>
       </c>
       <c r="G90" t="n">
-        <v>-120934861.6073</v>
+        <v>-154603927.4415</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="J90" t="n">
+        <v>0.4066</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3812,28 +3711,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4178</v>
+        <v>0.4083</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4179</v>
+        <v>0.4083</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4179</v>
+        <v>0.4083</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4178</v>
+        <v>0.4083</v>
       </c>
       <c r="F91" t="n">
-        <v>1723746.7428</v>
+        <v>113103.7284</v>
       </c>
       <c r="G91" t="n">
-        <v>-119211114.8645</v>
+        <v>-154603927.4415</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3842,9 +3742,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3853,28 +3751,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.418</v>
+        <v>0.4083</v>
       </c>
       <c r="C92" t="n">
-        <v>0.418</v>
+        <v>0.4099</v>
       </c>
       <c r="D92" t="n">
-        <v>0.418</v>
+        <v>0.4099</v>
       </c>
       <c r="E92" t="n">
-        <v>0.418</v>
+        <v>0.4083</v>
       </c>
       <c r="F92" t="n">
-        <v>1250.7881</v>
+        <v>1244.0855</v>
       </c>
       <c r="G92" t="n">
-        <v>-119209864.0764</v>
+        <v>-154602683.356</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3883,9 +3782,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3894,39 +3791,40 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4137</v>
+        <v>0.4099</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4137</v>
+        <v>0.4099</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4137</v>
+        <v>0.4099</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4137</v>
+        <v>0.4099</v>
       </c>
       <c r="F93" t="n">
-        <v>99226.8202</v>
+        <v>86000</v>
       </c>
       <c r="G93" t="n">
-        <v>-119309090.8966</v>
+        <v>-154602683.356</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="J93" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3935,28 +3833,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4139</v>
+        <v>0.41</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4139</v>
+        <v>0.41</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="F94" t="n">
-        <v>85477.8989</v>
+        <v>400609.3789</v>
       </c>
       <c r="G94" t="n">
-        <v>-119223612.9977</v>
+        <v>-154202073.9771</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3965,9 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3976,28 +3873,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4179</v>
+        <v>0.4099</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4179</v>
+        <v>0.41</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4179</v>
+        <v>0.41</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4179</v>
+        <v>0.4099</v>
       </c>
       <c r="F95" t="n">
-        <v>1216.7905</v>
+        <v>1551917.7694</v>
       </c>
       <c r="G95" t="n">
-        <v>-119222396.2072</v>
+        <v>-154202073.9771</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4006,9 +3904,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4017,28 +3913,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4179</v>
+        <v>0.413</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4138</v>
+        <v>0.4134</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4179</v>
+        <v>0.4134</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4138</v>
+        <v>0.413</v>
       </c>
       <c r="F96" t="n">
-        <v>1975578.6571</v>
+        <v>18075936.9781</v>
       </c>
       <c r="G96" t="n">
-        <v>-121197974.8643</v>
+        <v>-136126136.999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4047,9 +3944,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4058,28 +3953,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4138</v>
+        <v>0.4112</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4138</v>
+        <v>0.4112</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4138</v>
+        <v>0.4112</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4138</v>
+        <v>0.4112</v>
       </c>
       <c r="F97" t="n">
-        <v>6000</v>
+        <v>87326.8753</v>
       </c>
       <c r="G97" t="n">
-        <v>-121197974.8643</v>
+        <v>-136213463.8743</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4088,9 +3984,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4099,28 +3993,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4138</v>
+        <v>0.4112</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4138</v>
+        <v>0.4112</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4138</v>
+        <v>0.4112</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4138</v>
+        <v>0.4112</v>
       </c>
       <c r="F98" t="n">
-        <v>8541000</v>
+        <v>7125.7673</v>
       </c>
       <c r="G98" t="n">
-        <v>-121197974.8643</v>
+        <v>-136213463.8743</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4129,9 +4024,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4140,28 +4033,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4138</v>
+        <v>0.4112</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4178</v>
+        <v>0.4112</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4178</v>
+        <v>0.4112</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4134</v>
+        <v>0.4112</v>
       </c>
       <c r="F99" t="n">
-        <v>17813318.2123</v>
+        <v>4313</v>
       </c>
       <c r="G99" t="n">
-        <v>-103384656.652</v>
+        <v>-136213463.8743</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4170,9 +4064,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4181,39 +4073,40 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4135</v>
+        <v>0.4171</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4178</v>
+        <v>0.4171</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4178</v>
+        <v>0.4171</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4135</v>
+        <v>0.4171</v>
       </c>
       <c r="F100" t="n">
-        <v>894226</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="n">
-        <v>-103384656.652</v>
+        <v>-136212263.8743</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="J100" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4222,28 +4115,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.4135</v>
+        <v>0.411</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4135</v>
+        <v>0.4166</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4135</v>
+        <v>0.4166</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4134</v>
+        <v>0.4104</v>
       </c>
       <c r="F101" t="n">
-        <v>1178300.0771</v>
+        <v>8768813.601299999</v>
       </c>
       <c r="G101" t="n">
-        <v>-104562956.7291</v>
+        <v>-144981077.4756</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4252,9 +4146,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4263,28 +4155,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4134</v>
+        <v>0.41</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4134</v>
+        <v>0.405</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4134</v>
+        <v>0.41</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4134</v>
+        <v>0.405</v>
       </c>
       <c r="F102" t="n">
-        <v>81432</v>
+        <v>10626538.6948</v>
       </c>
       <c r="G102" t="n">
-        <v>-104644388.7291</v>
+        <v>-155607616.1704</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4293,9 +4186,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4304,28 +4195,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4134</v>
+        <v>0.415</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4134</v>
+        <v>0.415</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4134</v>
+        <v>0.415</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4134</v>
+        <v>0.415</v>
       </c>
       <c r="F103" t="n">
-        <v>48387</v>
+        <v>1203</v>
       </c>
       <c r="G103" t="n">
-        <v>-104644388.7291</v>
+        <v>-155606413.1704</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4334,9 +4226,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4345,28 +4235,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.412</v>
+        <v>0.4096</v>
       </c>
       <c r="C104" t="n">
-        <v>0.412</v>
+        <v>0.4096</v>
       </c>
       <c r="D104" t="n">
-        <v>0.412</v>
+        <v>0.4096</v>
       </c>
       <c r="E104" t="n">
-        <v>0.412</v>
+        <v>0.4096</v>
       </c>
       <c r="F104" t="n">
-        <v>1457404.7771</v>
+        <v>122826.4698</v>
       </c>
       <c r="G104" t="n">
-        <v>-106101793.5062</v>
+        <v>-155729239.6402</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4375,9 +4266,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4386,28 +4275,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4135</v>
+        <v>0.4068</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4135</v>
+        <v>0.4074</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4135</v>
+        <v>0.4074</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4135</v>
+        <v>0.4068</v>
       </c>
       <c r="F105" t="n">
-        <v>2556999.7998</v>
+        <v>2807885.047</v>
       </c>
       <c r="G105" t="n">
-        <v>-103544793.7064</v>
+        <v>-158537124.6872</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4416,9 +4306,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4427,28 +4315,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.412</v>
+        <v>0.4081</v>
       </c>
       <c r="C106" t="n">
-        <v>0.412</v>
+        <v>0.4081</v>
       </c>
       <c r="D106" t="n">
-        <v>0.412</v>
+        <v>0.4081</v>
       </c>
       <c r="E106" t="n">
-        <v>0.412</v>
+        <v>0.4081</v>
       </c>
       <c r="F106" t="n">
-        <v>111404</v>
+        <v>3604</v>
       </c>
       <c r="G106" t="n">
-        <v>-103656197.7064</v>
+        <v>-158533520.6872</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4457,9 +4346,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4468,28 +4355,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.412</v>
+        <v>0.41</v>
       </c>
       <c r="C107" t="n">
         <v>0.41</v>
       </c>
       <c r="D107" t="n">
-        <v>0.412</v>
+        <v>0.41</v>
       </c>
       <c r="E107" t="n">
         <v>0.41</v>
       </c>
       <c r="F107" t="n">
-        <v>1428406.9095</v>
+        <v>1220</v>
       </c>
       <c r="G107" t="n">
-        <v>-105084604.6159</v>
+        <v>-158532300.6872</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4498,9 +4386,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4509,28 +4395,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.41</v>
+        <v>0.4078</v>
       </c>
       <c r="C108" t="n">
-        <v>0.41</v>
+        <v>0.4078</v>
       </c>
       <c r="D108" t="n">
-        <v>0.41</v>
+        <v>0.4078</v>
       </c>
       <c r="E108" t="n">
-        <v>0.41</v>
+        <v>0.4078</v>
       </c>
       <c r="F108" t="n">
-        <v>87902.439</v>
+        <v>1777172.6772</v>
       </c>
       <c r="G108" t="n">
-        <v>-105084604.6159</v>
+        <v>-160309473.3644</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4539,9 +4426,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4550,6 +4435,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4568,23 +4454,19 @@
         <v>0.41</v>
       </c>
       <c r="F109" t="n">
-        <v>87902.439</v>
+        <v>1220</v>
       </c>
       <c r="G109" t="n">
-        <v>-105084604.6159</v>
+        <v>-160308253.3644</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4593,41 +4475,38 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="C110" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="D110" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="E110" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="F110" t="n">
-        <v>2015999.8998</v>
+        <v>28572.5028</v>
       </c>
       <c r="G110" t="n">
-        <v>-103068604.7161</v>
+        <v>-160308253.3644</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4636,41 +4515,38 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="C111" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="D111" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="E111" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="F111" t="n">
-        <v>578364.1090000001</v>
+        <v>1442903.327</v>
       </c>
       <c r="G111" t="n">
-        <v>-103068604.7161</v>
+        <v>-160308253.3644</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4679,28 +4555,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.411</v>
+        <v>0.4102</v>
       </c>
       <c r="C112" t="n">
-        <v>0.411</v>
+        <v>0.4099</v>
       </c>
       <c r="D112" t="n">
-        <v>0.411</v>
+        <v>0.4102</v>
       </c>
       <c r="E112" t="n">
-        <v>0.411</v>
+        <v>0.4099</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0001</v>
+        <v>193240.8148</v>
       </c>
       <c r="G112" t="n">
-        <v>-103068604.7161</v>
+        <v>-160501494.1792</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -4709,11 +4586,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.4136</v>
-      </c>
+        <v>0.41</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4722,28 +4597,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4135</v>
+        <v>0.4075</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4135</v>
+        <v>0.407</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4135</v>
+        <v>0.4075</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4135</v>
+        <v>0.407</v>
       </c>
       <c r="F113" t="n">
-        <v>5000</v>
+        <v>1845570.0503</v>
       </c>
       <c r="G113" t="n">
-        <v>-103063604.7161</v>
+        <v>-162347064.2295</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
@@ -4752,11 +4628,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.4136</v>
-      </c>
+        <v>0.4099</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4765,39 +4639,40 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4135</v>
+        <v>0.4072</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4135</v>
+        <v>0.4072</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4135</v>
+        <v>0.4072</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4135</v>
+        <v>0.4072</v>
       </c>
       <c r="F114" t="n">
-        <v>2412348.8135</v>
+        <v>29129.1662</v>
       </c>
       <c r="G114" t="n">
-        <v>-103063604.7161</v>
+        <v>-162317935.0633</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>0.4136</v>
-      </c>
+      <c r="J114" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4806,28 +4681,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4141</v>
+        <v>0.407</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4141</v>
+        <v>0.407</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4141</v>
+        <v>0.407</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4141</v>
+        <v>0.407</v>
       </c>
       <c r="F115" t="n">
-        <v>240887.1566</v>
+        <v>259578.0597</v>
       </c>
       <c r="G115" t="n">
-        <v>-102822717.5595</v>
+        <v>-162577513.123</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
@@ -4836,11 +4712,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.4136</v>
-      </c>
+        <v>0.4072</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4849,1744 +4723,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.4128</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.4128</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F116" t="n">
-        <v>2303223</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-105125940.5595</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.4161</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.4161</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.4161</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.4161</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-105124740.5595</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F118" t="n">
-        <v>90211.1324</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-105214951.6919</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F119" t="n">
-        <v>8858.522199999999</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-105214951.6919</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F120" t="n">
-        <v>10551.0953</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-105214951.6919</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.4103</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.4103</v>
-      </c>
-      <c r="F121" t="n">
-        <v>941539.9999000001</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-106156491.6918</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="F122" t="n">
-        <v>3051868.786</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-109208360.4778</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F123" t="n">
-        <v>5780442.6039</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-114988803.0817</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F124" t="n">
-        <v>2998000</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-114988803.0817</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.4097</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.4097</v>
-      </c>
-      <c r="F125" t="n">
-        <v>16061825.1877</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-131050628.2694</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.4097</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.4097</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="F126" t="n">
-        <v>746401.655</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-131797029.9244</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.4094</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.4094</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1058898.6689</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-132855928.5933</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="F128" t="n">
-        <v>202721.4272</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-132653207.1661</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.4066</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.4066</v>
-      </c>
-      <c r="F129" t="n">
-        <v>4265164.4249</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-136918371.591</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.4069</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.4069</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.4069</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.4069</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1857983.9806</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-135060387.6104</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.4066</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.4066</v>
-      </c>
-      <c r="F131" t="n">
-        <v>19954459.6043</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-155014847.2147</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.4082</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.4082</v>
-      </c>
-      <c r="F132" t="n">
-        <v>410919.7732</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-154603927.4415</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="F133" t="n">
-        <v>113103.7284</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-154603927.4415</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1244.0855</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-154602683.356</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="F135" t="n">
-        <v>86000</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-154602683.356</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="F136" t="n">
-        <v>400609.3789</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-154202073.9771</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1551917.7694</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-154202073.9771</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.413</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.413</v>
-      </c>
-      <c r="F138" t="n">
-        <v>18075936.9781</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-136126136.999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="F139" t="n">
-        <v>87326.8753</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-136213463.8743</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="F140" t="n">
-        <v>7125.7673</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-136213463.8743</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="F141" t="n">
-        <v>4313</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-136213463.8743</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.4171</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.4171</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.4171</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.4171</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-136212263.8743</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.4166</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.4166</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.4104</v>
-      </c>
-      <c r="F143" t="n">
-        <v>8768813.601299999</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-144981077.4756</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="F144" t="n">
-        <v>10626538.6948</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-155607616.1704</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1203</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-155606413.1704</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.4096</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.4096</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.4096</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.4096</v>
-      </c>
-      <c r="F146" t="n">
-        <v>122826.4698</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-155729239.6402</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.4068</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.4074</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.4074</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.4068</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2807885.047</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-158537124.6872</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.4081</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.4081</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.4081</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.4081</v>
-      </c>
-      <c r="F148" t="n">
-        <v>3604</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-158533520.6872</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C149" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1220</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-158532300.6872</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>0.4078</v>
-      </c>
-      <c r="C150" t="n">
-        <v>0.4078</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.4078</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.4078</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1777172.6772</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-160309473.3644</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1220</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-160308253.3644</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F152" t="n">
-        <v>28572.5028</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-160308253.3644</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1442903.327</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-160308253.3644</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="C154" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="F154" t="n">
-        <v>193240.8148</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-160501494.1792</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>0.4075</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.4075</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1845570.0503</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-162347064.2295</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>0.4072</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0.4072</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.4072</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.4072</v>
-      </c>
-      <c r="F156" t="n">
-        <v>29129.1662</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-162317935.0633</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="F157" t="n">
-        <v>259578.0597</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-162577513.123</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
+      <c r="N115" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-24 BackTest BTT.xlsx
+++ b/BackTest/2020-01-24 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4137</v>
+        <v>0.4234</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4137</v>
+        <v>0.4234</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4137</v>
+        <v>0.4234</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4137</v>
+        <v>0.4234</v>
       </c>
       <c r="F2" t="n">
-        <v>107428.3138</v>
+        <v>3555776.5541</v>
       </c>
       <c r="G2" t="n">
-        <v>-88098880.05860002</v>
+        <v>-13331898.5998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4137</v>
+        <v>0.4234</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4137</v>
+        <v>0.4234</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4137</v>
+        <v>0.4234</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4137</v>
+        <v>0.4234</v>
       </c>
       <c r="F3" t="n">
-        <v>4903071.3589</v>
+        <v>2893302.6049</v>
       </c>
       <c r="G3" t="n">
-        <v>-88098880.05860002</v>
+        <v>-13331898.5998</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4136</v>
+        <v>0.4234</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4136</v>
+        <v>0.4234</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4136</v>
+        <v>0.4234</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4136</v>
+        <v>0.4234</v>
       </c>
       <c r="F4" t="n">
-        <v>22456138.6421</v>
+        <v>1125997.4468</v>
       </c>
       <c r="G4" t="n">
-        <v>-110555018.7007</v>
+        <v>-13331898.5998</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4136</v>
+        <v>0.4234</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4136</v>
+        <v>0.4233</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4136</v>
+        <v>0.4234</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4136</v>
+        <v>0.4233</v>
       </c>
       <c r="F5" t="n">
-        <v>14856414.143</v>
+        <v>778665.1503</v>
       </c>
       <c r="G5" t="n">
-        <v>-110555018.7007</v>
+        <v>-14110563.7501</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4137</v>
+        <v>0.4233</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4137</v>
+        <v>0.4232</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4137</v>
+        <v>0.4233</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4137</v>
+        <v>0.4232</v>
       </c>
       <c r="F6" t="n">
-        <v>2534710.1068</v>
+        <v>6486491.2603</v>
       </c>
       <c r="G6" t="n">
-        <v>-108020308.5939</v>
+        <v>-20597055.0104</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4138</v>
+        <v>0.4232</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4136</v>
+        <v>0.4231</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4138</v>
+        <v>0.4232</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4136</v>
+        <v>0.4231</v>
       </c>
       <c r="F7" t="n">
-        <v>5557619.3488</v>
+        <v>6000000</v>
       </c>
       <c r="G7" t="n">
-        <v>-113577927.9427</v>
+        <v>-26597055.0104</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4136</v>
+        <v>0.4231</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4136</v>
+        <v>0.4231</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4136</v>
+        <v>0.4231</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4136</v>
+        <v>0.4231</v>
       </c>
       <c r="F8" t="n">
-        <v>961000</v>
+        <v>1597580</v>
       </c>
       <c r="G8" t="n">
-        <v>-113577927.9427</v>
+        <v>-26597055.0104</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4136</v>
+        <v>0.424</v>
       </c>
       <c r="C9" t="n">
-        <v>0.411</v>
+        <v>0.424</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4136</v>
+        <v>0.424</v>
       </c>
       <c r="E9" t="n">
-        <v>0.411</v>
+        <v>0.424</v>
       </c>
       <c r="F9" t="n">
-        <v>6282498.6591</v>
+        <v>1200.6587</v>
       </c>
       <c r="G9" t="n">
-        <v>-119860426.6018</v>
+        <v>-26595854.3517</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4111</v>
+        <v>0.423</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4111</v>
+        <v>0.423</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4111</v>
+        <v>0.423</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4111</v>
+        <v>0.423</v>
       </c>
       <c r="F10" t="n">
-        <v>81674.29399999999</v>
+        <v>2671.5284</v>
       </c>
       <c r="G10" t="n">
-        <v>-119778752.3078</v>
+        <v>-26598525.8801</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4111</v>
+        <v>0.423</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4111</v>
+        <v>0.423</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4111</v>
+        <v>0.423</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4111</v>
+        <v>0.423</v>
       </c>
       <c r="F11" t="n">
-        <v>112176.6979</v>
+        <v>30872.9504</v>
       </c>
       <c r="G11" t="n">
-        <v>-119778752.3078</v>
+        <v>-26598525.8801</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4111</v>
+        <v>0.423</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4111</v>
+        <v>0.423</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4111</v>
+        <v>0.423</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4111</v>
+        <v>0.423</v>
       </c>
       <c r="F12" t="n">
-        <v>162954.2571</v>
+        <v>484740.2097</v>
       </c>
       <c r="G12" t="n">
-        <v>-119778752.3078</v>
+        <v>-26598525.8801</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.411</v>
+        <v>0.4224</v>
       </c>
       <c r="C13" t="n">
-        <v>0.41</v>
+        <v>0.4223</v>
       </c>
       <c r="D13" t="n">
-        <v>0.411</v>
+        <v>0.4224</v>
       </c>
       <c r="E13" t="n">
-        <v>0.41</v>
+        <v>0.4223</v>
       </c>
       <c r="F13" t="n">
-        <v>2610940</v>
+        <v>3048000</v>
       </c>
       <c r="G13" t="n">
-        <v>-122389692.3078</v>
+        <v>-29646525.8801</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.41</v>
+        <v>0.4223</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4129</v>
+        <v>0.4223</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4129</v>
+        <v>0.4223</v>
       </c>
       <c r="E14" t="n">
-        <v>0.41</v>
+        <v>0.4223</v>
       </c>
       <c r="F14" t="n">
-        <v>1770244.231</v>
+        <v>600000</v>
       </c>
       <c r="G14" t="n">
-        <v>-120619448.0768</v>
+        <v>-29646525.8801</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4099</v>
+        <v>0.4223</v>
       </c>
       <c r="C15" t="n">
-        <v>0.409</v>
+        <v>0.419</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4099</v>
+        <v>0.4223</v>
       </c>
       <c r="E15" t="n">
-        <v>0.409</v>
+        <v>0.419</v>
       </c>
       <c r="F15" t="n">
-        <v>3784319.1579</v>
+        <v>37466596.0483</v>
       </c>
       <c r="G15" t="n">
-        <v>-124403767.2347</v>
+        <v>-67113121.92840001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4091</v>
+        <v>0.4185</v>
       </c>
       <c r="C16" t="n">
-        <v>0.409</v>
+        <v>0.4185</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4091</v>
+        <v>0.4185</v>
       </c>
       <c r="E16" t="n">
-        <v>0.409</v>
+        <v>0.4185</v>
       </c>
       <c r="F16" t="n">
-        <v>8173464.2983</v>
+        <v>48200.7298</v>
       </c>
       <c r="G16" t="n">
-        <v>-124403767.2347</v>
+        <v>-67161322.65820001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.409</v>
+        <v>0.42</v>
       </c>
       <c r="C17" t="n">
-        <v>0.409</v>
+        <v>0.42</v>
       </c>
       <c r="D17" t="n">
-        <v>0.409</v>
+        <v>0.42</v>
       </c>
       <c r="E17" t="n">
-        <v>0.409</v>
+        <v>0.42</v>
       </c>
       <c r="F17" t="n">
-        <v>2240218.9322</v>
+        <v>661122.7236</v>
       </c>
       <c r="G17" t="n">
-        <v>-124403767.2347</v>
+        <v>-66500199.93460001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4084</v>
+        <v>0.42</v>
       </c>
       <c r="C18" t="n">
-        <v>0.407</v>
+        <v>0.42</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4084</v>
+        <v>0.42</v>
       </c>
       <c r="E18" t="n">
-        <v>0.407</v>
+        <v>0.42</v>
       </c>
       <c r="F18" t="n">
-        <v>3464091.8306</v>
+        <v>645673.4348</v>
       </c>
       <c r="G18" t="n">
-        <v>-127867859.0653</v>
+        <v>-66500199.93460001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.412</v>
+        <v>0.42</v>
       </c>
       <c r="C19" t="n">
-        <v>0.412</v>
+        <v>0.42</v>
       </c>
       <c r="D19" t="n">
-        <v>0.412</v>
+        <v>0.42</v>
       </c>
       <c r="E19" t="n">
-        <v>0.412</v>
+        <v>0.42</v>
       </c>
       <c r="F19" t="n">
-        <v>1220</v>
+        <v>989058.7176</v>
       </c>
       <c r="G19" t="n">
-        <v>-127866639.0653</v>
+        <v>-66500199.93460001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4078</v>
+        <v>0.42</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4073</v>
+        <v>0.42</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4078</v>
+        <v>0.42</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4073</v>
+        <v>0.42</v>
       </c>
       <c r="F20" t="n">
-        <v>14277810.8499</v>
+        <v>804642.2828</v>
       </c>
       <c r="G20" t="n">
-        <v>-142144449.9152</v>
+        <v>-66500199.93460001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4098</v>
+        <v>0.42</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4098</v>
+        <v>0.42</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4098</v>
+        <v>0.42</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4098</v>
+        <v>0.42</v>
       </c>
       <c r="F21" t="n">
-        <v>2231849.2738</v>
+        <v>3140327.3103</v>
       </c>
       <c r="G21" t="n">
-        <v>-139912600.6414</v>
+        <v>-66500199.93460001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4097</v>
+        <v>0.4195</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4097</v>
+        <v>0.4195</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4097</v>
+        <v>0.4195</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4097</v>
+        <v>0.4195</v>
       </c>
       <c r="F22" t="n">
-        <v>24408.1035</v>
+        <v>1699536.393</v>
       </c>
       <c r="G22" t="n">
-        <v>-139937008.7449</v>
+        <v>-68199736.32760002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4085</v>
+        <v>0.4185</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4085</v>
+        <v>0.4177</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4085</v>
+        <v>0.4185</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4085</v>
+        <v>0.4177</v>
       </c>
       <c r="F23" t="n">
-        <v>116662.1034</v>
+        <v>3845000</v>
       </c>
       <c r="G23" t="n">
-        <v>-140053670.8483</v>
+        <v>-72044736.32760002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4097</v>
+        <v>0.4177</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4097</v>
+        <v>0.4177</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4097</v>
+        <v>0.4177</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4097</v>
+        <v>0.4177</v>
       </c>
       <c r="F24" t="n">
-        <v>199468.5169</v>
+        <v>2439721.7728</v>
       </c>
       <c r="G24" t="n">
-        <v>-139854202.3314</v>
+        <v>-72044736.32760002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4098</v>
+        <v>0.4175</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4097</v>
+        <v>0.4172</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4098</v>
+        <v>0.4175</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4097</v>
+        <v>0.4172</v>
       </c>
       <c r="F25" t="n">
-        <v>8538.352199999999</v>
+        <v>806039.6752000001</v>
       </c>
       <c r="G25" t="n">
-        <v>-139854202.3314</v>
+        <v>-72850776.00280002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4098</v>
+        <v>0.4175</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4098</v>
+        <v>0.4175</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4098</v>
+        <v>0.4175</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4098</v>
+        <v>0.4175</v>
       </c>
       <c r="F26" t="n">
-        <v>676898.0695</v>
+        <v>1000000</v>
       </c>
       <c r="G26" t="n">
-        <v>-139177304.2619</v>
+        <v>-71850776.00280002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4097</v>
+        <v>0.4152</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4097</v>
+        <v>0.4152</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4097</v>
+        <v>0.4152</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4097</v>
+        <v>0.4152</v>
       </c>
       <c r="F27" t="n">
-        <v>104898.6317</v>
+        <v>2312.1618</v>
       </c>
       <c r="G27" t="n">
-        <v>-139282202.8936</v>
+        <v>-71853088.16460001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4098</v>
+        <v>0.4152</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4098</v>
+        <v>0.4152</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4098</v>
+        <v>0.4152</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4098</v>
+        <v>0.4152</v>
       </c>
       <c r="F28" t="n">
-        <v>77220.6284</v>
+        <v>10000</v>
       </c>
       <c r="G28" t="n">
-        <v>-139204982.2652</v>
+        <v>-71853088.16460001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4102</v>
+        <v>0.4174</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4102</v>
+        <v>0.4174</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4102</v>
+        <v>0.4174</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4102</v>
+        <v>0.4174</v>
       </c>
       <c r="F29" t="n">
-        <v>36243.3817</v>
+        <v>385177.1863</v>
       </c>
       <c r="G29" t="n">
-        <v>-139168738.8835</v>
+        <v>-71467910.97830002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4123</v>
+        <v>0.4174</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4123</v>
+        <v>0.4152</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4123</v>
+        <v>0.4174</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4123</v>
+        <v>0.4152</v>
       </c>
       <c r="F30" t="n">
-        <v>75297.2528</v>
+        <v>2528.0832</v>
       </c>
       <c r="G30" t="n">
-        <v>-139093441.6307</v>
+        <v>-71470439.06150001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4125</v>
+        <v>0.4152</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4125</v>
+        <v>0.4152</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4125</v>
+        <v>0.4152</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4125</v>
+        <v>0.4152</v>
       </c>
       <c r="F31" t="n">
-        <v>3700</v>
+        <v>749545.3179</v>
       </c>
       <c r="G31" t="n">
-        <v>-139089741.6307</v>
+        <v>-71470439.06150001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4102</v>
+        <v>0.4152</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4102</v>
+        <v>0.4152</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4102</v>
+        <v>0.4152</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4102</v>
+        <v>0.4152</v>
       </c>
       <c r="F32" t="n">
-        <v>12606.772</v>
+        <v>1009265.0405</v>
       </c>
       <c r="G32" t="n">
-        <v>-139102348.4027</v>
+        <v>-71470439.06150001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4102</v>
+        <v>0.4131</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4102</v>
+        <v>0.4131</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4102</v>
+        <v>0.4131</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4102</v>
+        <v>0.4131</v>
       </c>
       <c r="F33" t="n">
-        <v>688782.5035</v>
+        <v>1513105.3219</v>
       </c>
       <c r="G33" t="n">
-        <v>-139102348.4027</v>
+        <v>-72983544.38340001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4124</v>
+        <v>0.417</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4124</v>
+        <v>0.4168</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4124</v>
+        <v>0.417</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4124</v>
+        <v>0.4168</v>
       </c>
       <c r="F34" t="n">
-        <v>1274.5306</v>
+        <v>2565327.5413</v>
       </c>
       <c r="G34" t="n">
-        <v>-139101073.8721</v>
+        <v>-70418216.84210001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4125</v>
+        <v>0.4168</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4125</v>
+        <v>0.4168</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4125</v>
+        <v>0.4168</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4125</v>
+        <v>0.4168</v>
       </c>
       <c r="F35" t="n">
-        <v>1218.2743</v>
+        <v>250185.4405</v>
       </c>
       <c r="G35" t="n">
-        <v>-139099855.5978</v>
+        <v>-70418216.84210001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4102</v>
+        <v>0.4165</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4102</v>
+        <v>0.4165</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4102</v>
+        <v>0.4165</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4102</v>
+        <v>0.4165</v>
       </c>
       <c r="F36" t="n">
-        <v>487643.3135</v>
+        <v>2110144.7128</v>
       </c>
       <c r="G36" t="n">
-        <v>-139587498.9113</v>
+        <v>-72528361.55490001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4102</v>
+        <v>0.4165</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4102</v>
+        <v>0.417</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4102</v>
+        <v>0.417</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4102</v>
+        <v>0.4165</v>
       </c>
       <c r="F37" t="n">
-        <v>693621.8227</v>
+        <v>1374779.008</v>
       </c>
       <c r="G37" t="n">
-        <v>-139587498.9113</v>
+        <v>-71153582.5469</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4102</v>
+        <v>0.4177</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4102</v>
+        <v>0.4177</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4102</v>
+        <v>0.4177</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4102</v>
+        <v>0.4177</v>
       </c>
       <c r="F38" t="n">
-        <v>323453.0144</v>
+        <v>50000</v>
       </c>
       <c r="G38" t="n">
-        <v>-139587498.9113</v>
+        <v>-71103582.5469</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4117</v>
+        <v>0.4174</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4117</v>
+        <v>0.4174</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4117</v>
+        <v>0.4174</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4117</v>
+        <v>0.4174</v>
       </c>
       <c r="F39" t="n">
-        <v>1239.2421</v>
+        <v>60000</v>
       </c>
       <c r="G39" t="n">
-        <v>-139586259.6692</v>
+        <v>-71163582.5469</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4117</v>
+        <v>0.4135</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4117</v>
+        <v>0.4128</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4117</v>
+        <v>0.4135</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4117</v>
+        <v>0.4128</v>
       </c>
       <c r="F40" t="n">
-        <v>299955.9867</v>
+        <v>12112610.4708</v>
       </c>
       <c r="G40" t="n">
-        <v>-139586259.6692</v>
+        <v>-83276193.0177</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4125</v>
+        <v>0.4128</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4125</v>
+        <v>0.4128</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4125</v>
+        <v>0.4128</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4125</v>
+        <v>0.4128</v>
       </c>
       <c r="F41" t="n">
-        <v>1250.4689</v>
+        <v>652129.5554</v>
       </c>
       <c r="G41" t="n">
-        <v>-139585009.2003</v>
+        <v>-83276193.0177</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4125</v>
+        <v>0.4126</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4125</v>
+        <v>0.412</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4125</v>
+        <v>0.4126</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4125</v>
+        <v>0.412</v>
       </c>
       <c r="F42" t="n">
-        <v>1212121.21212121</v>
+        <v>3233366.6138</v>
       </c>
       <c r="G42" t="n">
-        <v>-139585009.2003</v>
+        <v>-86509559.63150001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4134</v>
+        <v>0.4128</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4134</v>
+        <v>0.4128</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4134</v>
+        <v>0.4128</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4134</v>
+        <v>0.4128</v>
       </c>
       <c r="F43" t="n">
-        <v>3256789.1036</v>
+        <v>311591.6724</v>
       </c>
       <c r="G43" t="n">
-        <v>-136328220.0967</v>
+        <v>-86197967.95910001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4134</v>
+        <v>0.4127</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4134</v>
+        <v>0.412</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4134</v>
+        <v>0.4128</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4134</v>
+        <v>0.412</v>
       </c>
       <c r="F44" t="n">
-        <v>8230597.8303</v>
+        <v>2123024.9074</v>
       </c>
       <c r="G44" t="n">
-        <v>-136328220.0967</v>
+        <v>-88320992.86650001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4148</v>
+        <v>0.4128</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4135</v>
+        <v>0.4128</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4158</v>
+        <v>0.4128</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4135</v>
+        <v>0.4128</v>
       </c>
       <c r="F45" t="n">
-        <v>14981135.2666</v>
+        <v>8000</v>
       </c>
       <c r="G45" t="n">
-        <v>-121347084.8301</v>
+        <v>-88312992.86650001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4141</v>
+        <v>0.4128</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4141</v>
+        <v>0.4128</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4141</v>
+        <v>0.4128</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4141</v>
+        <v>0.4128</v>
       </c>
       <c r="F46" t="n">
-        <v>752823</v>
+        <v>121710.5131</v>
       </c>
       <c r="G46" t="n">
-        <v>-120594261.8301</v>
+        <v>-88312992.86650001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4138</v>
+        <v>0.4128</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4181</v>
+        <v>0.4128</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4181</v>
+        <v>0.4128</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4138</v>
+        <v>0.4128</v>
       </c>
       <c r="F47" t="n">
-        <v>62361.1259</v>
+        <v>1085701.4668</v>
       </c>
       <c r="G47" t="n">
-        <v>-120531900.7042</v>
+        <v>-88312992.86650001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4138</v>
+        <v>0.4128</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4138</v>
+        <v>0.4143</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4138</v>
+        <v>0.4143</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4138</v>
+        <v>0.4128</v>
       </c>
       <c r="F48" t="n">
-        <v>402960.9031</v>
+        <v>8796236.2426</v>
       </c>
       <c r="G48" t="n">
-        <v>-120934861.6073</v>
+        <v>-79516756.62390001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4178</v>
+        <v>0.4147</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4179</v>
+        <v>0.4147</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4179</v>
+        <v>0.4147</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4178</v>
+        <v>0.4147</v>
       </c>
       <c r="F49" t="n">
-        <v>1723746.7428</v>
+        <v>1315.3684</v>
       </c>
       <c r="G49" t="n">
-        <v>-119211114.8645</v>
+        <v>-79515441.25550002</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.418</v>
+        <v>0.4149</v>
       </c>
       <c r="C50" t="n">
-        <v>0.418</v>
+        <v>0.4149</v>
       </c>
       <c r="D50" t="n">
-        <v>0.418</v>
+        <v>0.4149</v>
       </c>
       <c r="E50" t="n">
-        <v>0.418</v>
+        <v>0.4149</v>
       </c>
       <c r="F50" t="n">
-        <v>1250.7881</v>
+        <v>1312.2844</v>
       </c>
       <c r="G50" t="n">
-        <v>-119209864.0764</v>
+        <v>-79514128.97110002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4137</v>
+        <v>0.4149</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4137</v>
+        <v>0.4149</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4137</v>
+        <v>0.4149</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4137</v>
+        <v>0.4149</v>
       </c>
       <c r="F51" t="n">
-        <v>99226.8202</v>
+        <v>9366061.1426</v>
       </c>
       <c r="G51" t="n">
-        <v>-119309090.8966</v>
+        <v>-79514128.97110002</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4139</v>
+        <v>0.4184</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4139</v>
+        <v>0.4184</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4139</v>
+        <v>0.4184</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4139</v>
+        <v>0.4184</v>
       </c>
       <c r="F52" t="n">
-        <v>85477.8989</v>
+        <v>1200</v>
       </c>
       <c r="G52" t="n">
-        <v>-119223612.9977</v>
+        <v>-79512928.97110002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4179</v>
+        <v>0.412</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4179</v>
+        <v>0.412</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4179</v>
+        <v>0.412</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4179</v>
+        <v>0.412</v>
       </c>
       <c r="F53" t="n">
-        <v>1216.7905</v>
+        <v>5000</v>
       </c>
       <c r="G53" t="n">
-        <v>-119222396.2072</v>
+        <v>-79517928.97110002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4179</v>
+        <v>0.4125</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4138</v>
+        <v>0.4125</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4179</v>
+        <v>0.4125</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4138</v>
+        <v>0.4125</v>
       </c>
       <c r="F54" t="n">
-        <v>1975578.6571</v>
+        <v>24902.3205</v>
       </c>
       <c r="G54" t="n">
-        <v>-121197974.8643</v>
+        <v>-79493026.65060002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4138</v>
+        <v>0.4224</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4138</v>
+        <v>0.4224</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4138</v>
+        <v>0.4224</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4138</v>
+        <v>0.4224</v>
       </c>
       <c r="F55" t="n">
-        <v>6000</v>
+        <v>1185</v>
       </c>
       <c r="G55" t="n">
-        <v>-121197974.8643</v>
+        <v>-79491841.65060002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4138</v>
+        <v>0.4224</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4138</v>
+        <v>0.4224</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4138</v>
+        <v>0.4224</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4138</v>
+        <v>0.4224</v>
       </c>
       <c r="F56" t="n">
-        <v>8541000</v>
+        <v>7090.43560605</v>
       </c>
       <c r="G56" t="n">
-        <v>-121197974.8643</v>
+        <v>-79491841.65060002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4138</v>
+        <v>0.4198</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4178</v>
+        <v>0.4198</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4178</v>
+        <v>0.4198</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4134</v>
+        <v>0.4198</v>
       </c>
       <c r="F57" t="n">
-        <v>17813318.2123</v>
+        <v>6394.0672</v>
       </c>
       <c r="G57" t="n">
-        <v>-103384656.652</v>
+        <v>-79498235.71780002</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4135</v>
+        <v>0.4182</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4178</v>
+        <v>0.4182</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4178</v>
+        <v>0.4182</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4135</v>
+        <v>0.4182</v>
       </c>
       <c r="F58" t="n">
-        <v>894226</v>
+        <v>1313.927</v>
       </c>
       <c r="G58" t="n">
-        <v>-103384656.652</v>
+        <v>-79499549.64480002</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2493,19 +2493,19 @@
         <v>0.4135</v>
       </c>
       <c r="C59" t="n">
+        <v>0.4205</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.4205</v>
+      </c>
+      <c r="E59" t="n">
         <v>0.4135</v>
       </c>
-      <c r="D59" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.4134</v>
-      </c>
       <c r="F59" t="n">
-        <v>1178300.0771</v>
+        <v>62493.414</v>
       </c>
       <c r="G59" t="n">
-        <v>-104562956.7291</v>
+        <v>-79437056.23080002</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4134</v>
+        <v>0.4138</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4134</v>
+        <v>0.4132</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4134</v>
+        <v>0.4138</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4134</v>
+        <v>0.4132</v>
       </c>
       <c r="F60" t="n">
-        <v>81432</v>
+        <v>563574.0989</v>
       </c>
       <c r="G60" t="n">
-        <v>-104644388.7291</v>
+        <v>-80000630.32970002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4134</v>
+        <v>0.4174</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4134</v>
+        <v>0.4174</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4134</v>
+        <v>0.4174</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4134</v>
+        <v>0.4174</v>
       </c>
       <c r="F61" t="n">
-        <v>48387</v>
+        <v>1545.1369</v>
       </c>
       <c r="G61" t="n">
-        <v>-104644388.7291</v>
+        <v>-79999085.19280003</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.412</v>
+        <v>0.4138</v>
       </c>
       <c r="C62" t="n">
-        <v>0.412</v>
+        <v>0.4138</v>
       </c>
       <c r="D62" t="n">
-        <v>0.412</v>
+        <v>0.4138</v>
       </c>
       <c r="E62" t="n">
-        <v>0.412</v>
+        <v>0.4138</v>
       </c>
       <c r="F62" t="n">
-        <v>1457404.7771</v>
+        <v>108356</v>
       </c>
       <c r="G62" t="n">
-        <v>-106101793.5062</v>
+        <v>-80107441.19280003</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4135</v>
+        <v>0.4138</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4135</v>
+        <v>0.4136</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4135</v>
+        <v>0.4138</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4135</v>
+        <v>0.4136</v>
       </c>
       <c r="F63" t="n">
-        <v>2556999.7998</v>
+        <v>9257017.9661</v>
       </c>
       <c r="G63" t="n">
-        <v>-103544793.7064</v>
+        <v>-89364459.15890002</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.412</v>
+        <v>0.4163</v>
       </c>
       <c r="C64" t="n">
-        <v>0.412</v>
+        <v>0.4163</v>
       </c>
       <c r="D64" t="n">
-        <v>0.412</v>
+        <v>0.4163</v>
       </c>
       <c r="E64" t="n">
-        <v>0.412</v>
+        <v>0.4163</v>
       </c>
       <c r="F64" t="n">
-        <v>111404</v>
+        <v>1917552.1441</v>
       </c>
       <c r="G64" t="n">
-        <v>-103656197.7064</v>
+        <v>-87446907.01480003</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.412</v>
+        <v>0.4136</v>
       </c>
       <c r="C65" t="n">
-        <v>0.41</v>
+        <v>0.4136</v>
       </c>
       <c r="D65" t="n">
-        <v>0.412</v>
+        <v>0.4136</v>
       </c>
       <c r="E65" t="n">
-        <v>0.41</v>
+        <v>0.4136</v>
       </c>
       <c r="F65" t="n">
-        <v>1428406.9095</v>
+        <v>594218.7913</v>
       </c>
       <c r="G65" t="n">
-        <v>-105084604.6159</v>
+        <v>-88041125.80610003</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.41</v>
+        <v>0.4163</v>
       </c>
       <c r="C66" t="n">
-        <v>0.41</v>
+        <v>0.4163</v>
       </c>
       <c r="D66" t="n">
-        <v>0.41</v>
+        <v>0.4163</v>
       </c>
       <c r="E66" t="n">
-        <v>0.41</v>
+        <v>0.4163</v>
       </c>
       <c r="F66" t="n">
-        <v>87902.439</v>
+        <v>19639.9535</v>
       </c>
       <c r="G66" t="n">
-        <v>-105084604.6159</v>
+        <v>-88021485.85260002</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,35 +2778,31 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.41</v>
+        <v>0.4163</v>
       </c>
       <c r="C67" t="n">
-        <v>0.41</v>
+        <v>0.4163</v>
       </c>
       <c r="D67" t="n">
-        <v>0.41</v>
+        <v>0.4163</v>
       </c>
       <c r="E67" t="n">
-        <v>0.41</v>
+        <v>0.4163</v>
       </c>
       <c r="F67" t="n">
-        <v>87902.439</v>
+        <v>5938.0015</v>
       </c>
       <c r="G67" t="n">
-        <v>-105084604.6159</v>
+        <v>-88021485.85260002</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.41</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
@@ -2818,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="C68" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="D68" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="E68" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="F68" t="n">
-        <v>2015999.8998</v>
+        <v>58498.6141</v>
       </c>
       <c r="G68" t="n">
-        <v>-103068604.7161</v>
+        <v>-88079984.46670002</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2842,14 +2838,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2860,40 +2850,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="C69" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="D69" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="E69" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="F69" t="n">
-        <v>578364.1090000001</v>
+        <v>58498.6141</v>
       </c>
       <c r="G69" t="n">
-        <v>-103068604.7161</v>
+        <v>-88079984.46670002</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2904,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="C70" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="D70" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="E70" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0001</v>
+        <v>98569.16740000001</v>
       </c>
       <c r="G70" t="n">
-        <v>-103068604.7161</v>
+        <v>-88079984.46670002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2940,35 +2922,31 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4135</v>
+        <v>0.4137</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4135</v>
+        <v>0.4137</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4135</v>
+        <v>0.4137</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4135</v>
+        <v>0.4137</v>
       </c>
       <c r="F71" t="n">
-        <v>5000</v>
+        <v>28121.0409</v>
       </c>
       <c r="G71" t="n">
-        <v>-103063604.7161</v>
+        <v>-88051863.42580001</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
@@ -2980,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4135</v>
+        <v>0.4162</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4135</v>
+        <v>0.4162</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4135</v>
+        <v>0.4162</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4135</v>
+        <v>0.4162</v>
       </c>
       <c r="F72" t="n">
-        <v>2412348.8135</v>
+        <v>60411.681</v>
       </c>
       <c r="G72" t="n">
-        <v>-103063604.7161</v>
+        <v>-87991451.74480002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3004,14 +2982,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3022,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4141</v>
+        <v>0.4137</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4141</v>
+        <v>0.4137</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4141</v>
+        <v>0.4137</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4141</v>
+        <v>0.4137</v>
       </c>
       <c r="F73" t="n">
-        <v>240887.1566</v>
+        <v>107428.3138</v>
       </c>
       <c r="G73" t="n">
-        <v>-102822717.5595</v>
+        <v>-88098880.05860002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3046,14 +3018,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3064,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4128</v>
+        <v>0.4137</v>
       </c>
       <c r="C74" t="n">
-        <v>0.411</v>
+        <v>0.4137</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4128</v>
+        <v>0.4137</v>
       </c>
       <c r="E74" t="n">
-        <v>0.411</v>
+        <v>0.4137</v>
       </c>
       <c r="F74" t="n">
-        <v>2303223</v>
+        <v>4903071.3589</v>
       </c>
       <c r="G74" t="n">
-        <v>-105125940.5595</v>
+        <v>-88098880.05860002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3100,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4161</v>
+        <v>0.4136</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4161</v>
+        <v>0.4136</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4161</v>
+        <v>0.4136</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4161</v>
+        <v>0.4136</v>
       </c>
       <c r="F75" t="n">
-        <v>1200</v>
+        <v>22456138.6421</v>
       </c>
       <c r="G75" t="n">
-        <v>-105124740.5595</v>
+        <v>-110555018.7007</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3136,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="C76" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="D76" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="E76" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="F76" t="n">
-        <v>90211.1324</v>
+        <v>14856414.143</v>
       </c>
       <c r="G76" t="n">
-        <v>-105214951.6919</v>
+        <v>-110555018.7007</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3172,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.411</v>
+        <v>0.4137</v>
       </c>
       <c r="C77" t="n">
-        <v>0.411</v>
+        <v>0.4137</v>
       </c>
       <c r="D77" t="n">
-        <v>0.411</v>
+        <v>0.4137</v>
       </c>
       <c r="E77" t="n">
-        <v>0.411</v>
+        <v>0.4137</v>
       </c>
       <c r="F77" t="n">
-        <v>8858.522199999999</v>
+        <v>2534710.1068</v>
       </c>
       <c r="G77" t="n">
-        <v>-105214951.6919</v>
+        <v>-108020308.5939</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3208,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.411</v>
+        <v>0.4138</v>
       </c>
       <c r="C78" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="D78" t="n">
-        <v>0.411</v>
+        <v>0.4138</v>
       </c>
       <c r="E78" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="F78" t="n">
-        <v>10551.0953</v>
+        <v>5557619.3488</v>
       </c>
       <c r="G78" t="n">
-        <v>-105214951.6919</v>
+        <v>-113577927.9427</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3244,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4103</v>
+        <v>0.4136</v>
       </c>
       <c r="D79" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4103</v>
+        <v>0.4136</v>
       </c>
       <c r="F79" t="n">
-        <v>941539.9999000001</v>
+        <v>961000</v>
       </c>
       <c r="G79" t="n">
-        <v>-106156491.6918</v>
+        <v>-113577927.9427</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3280,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4102</v>
+        <v>0.4136</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4102</v>
+        <v>0.411</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4102</v>
+        <v>0.4136</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4102</v>
+        <v>0.411</v>
       </c>
       <c r="F80" t="n">
-        <v>3051868.786</v>
+        <v>6282498.6591</v>
       </c>
       <c r="G80" t="n">
-        <v>-109208360.4778</v>
+        <v>-119860426.6018</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3316,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4102</v>
+        <v>0.4111</v>
       </c>
       <c r="C81" t="n">
-        <v>0.41</v>
+        <v>0.4111</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4102</v>
+        <v>0.4111</v>
       </c>
       <c r="E81" t="n">
-        <v>0.41</v>
+        <v>0.4111</v>
       </c>
       <c r="F81" t="n">
-        <v>5780442.6039</v>
+        <v>81674.29399999999</v>
       </c>
       <c r="G81" t="n">
-        <v>-114988803.0817</v>
+        <v>-119778752.3078</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3352,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.41</v>
+        <v>0.4111</v>
       </c>
       <c r="C82" t="n">
-        <v>0.41</v>
+        <v>0.4111</v>
       </c>
       <c r="D82" t="n">
-        <v>0.41</v>
+        <v>0.4111</v>
       </c>
       <c r="E82" t="n">
-        <v>0.41</v>
+        <v>0.4111</v>
       </c>
       <c r="F82" t="n">
-        <v>2998000</v>
+        <v>112176.6979</v>
       </c>
       <c r="G82" t="n">
-        <v>-114988803.0817</v>
+        <v>-119778752.3078</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3388,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.41</v>
+        <v>0.4111</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4097</v>
+        <v>0.4111</v>
       </c>
       <c r="D83" t="n">
-        <v>0.41</v>
+        <v>0.4111</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4097</v>
+        <v>0.4111</v>
       </c>
       <c r="F83" t="n">
-        <v>16061825.1877</v>
+        <v>162954.2571</v>
       </c>
       <c r="G83" t="n">
-        <v>-131050628.2694</v>
+        <v>-119778752.3078</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3424,1306 +3390,3842 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2610940</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-122389692.3078</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.4129</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.4129</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1770244.231</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-120619448.0768</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3784319.1579</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-124403767.2347</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.4091</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.4091</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="F87" t="n">
+        <v>8173464.2983</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-124403767.2347</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2240218.9322</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-124403767.2347</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.4084</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.4084</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3464091.8306</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-127867859.0653</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1220</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-127866639.0653</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.4073</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.4073</v>
+      </c>
+      <c r="F91" t="n">
+        <v>14277810.8499</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-142144449.9152</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2231849.2738</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-139912600.6414</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
         <v>0.4097</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C93" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="F93" t="n">
+        <v>24408.1035</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-139937008.7449</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.4085</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.4085</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.4085</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.4085</v>
+      </c>
+      <c r="F94" t="n">
+        <v>116662.1034</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-140053670.8483</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="F95" t="n">
+        <v>199468.5169</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-139854202.3314</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="F96" t="n">
+        <v>8538.352199999999</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-139854202.3314</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="F97" t="n">
+        <v>676898.0695</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-139177304.2619</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="F98" t="n">
+        <v>104898.6317</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-139282202.8936</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="F99" t="n">
+        <v>77220.6284</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-139204982.2652</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="F100" t="n">
+        <v>36243.3817</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-139168738.8835</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.4123</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.4123</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.4123</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.4123</v>
+      </c>
+      <c r="F101" t="n">
+        <v>75297.2528</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-139093441.6307</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3700</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-139089741.6307</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="F103" t="n">
+        <v>12606.772</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-139102348.4027</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="F104" t="n">
+        <v>688782.5035</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-139102348.4027</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.4124</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.4124</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.4124</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.4124</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1274.5306</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-139101073.8721</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1218.2743</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-139099855.5978</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="F107" t="n">
+        <v>487643.3135</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-139587498.9113</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="F108" t="n">
+        <v>693621.8227</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-139587498.9113</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="F109" t="n">
+        <v>323453.0144</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-139587498.9113</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.4117</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.4117</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.4117</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.4117</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1239.2421</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-139586259.6692</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.4117</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.4117</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.4117</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.4117</v>
+      </c>
+      <c r="F111" t="n">
+        <v>299955.9867</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-139586259.6692</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1250.4689</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-139585009.2003</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1212121.21212121</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-139585009.2003</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3256789.1036</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-136328220.0967</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="F115" t="n">
+        <v>8230597.8303</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-136328220.0967</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.4148</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.4158</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="F116" t="n">
+        <v>14981135.2666</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-121347084.8301</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="F117" t="n">
+        <v>752823</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-120594261.8301</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.4181</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.4181</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="F118" t="n">
+        <v>62361.1259</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-120531900.7042</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="F119" t="n">
+        <v>402960.9031</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-120934861.6073</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.4178</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.4179</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.4179</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.4178</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1723746.7428</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-119211114.8645</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1250.7881</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-119209864.0764</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.4137</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.4137</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.4137</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.4137</v>
+      </c>
+      <c r="F122" t="n">
+        <v>99226.8202</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-119309090.8966</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="F123" t="n">
+        <v>85477.8989</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-119223612.9977</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.4179</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.4179</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.4179</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.4179</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1216.7905</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-119222396.2072</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.4179</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.4179</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1975578.6571</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-121197974.8643</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="F126" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-121197974.8643</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="F127" t="n">
+        <v>8541000</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-121197974.8643</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.4178</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.4178</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="F128" t="n">
+        <v>17813318.2123</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-103384656.652</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.4178</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.4178</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="F129" t="n">
+        <v>894226</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-103384656.652</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1178300.0771</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-104562956.7291</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="F131" t="n">
+        <v>81432</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-104644388.7291</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="F132" t="n">
+        <v>48387</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-104644388.7291</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1457404.7771</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-106101793.5062</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2556999.7998</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-103544793.7064</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="F135" t="n">
+        <v>111404</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-103656197.7064</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1428406.9095</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-105084604.6159</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F137" t="n">
+        <v>87902.439</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-105084604.6159</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F138" t="n">
+        <v>87902.439</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-105084604.6159</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2015999.8998</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-103068604.7161</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F140" t="n">
+        <v>578364.1090000001</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-103068604.7161</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-103068604.7161</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-103063604.7161</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2412348.8135</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-103063604.7161</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="F144" t="n">
+        <v>240887.1566</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-102822717.5595</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.4128</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.4128</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2303223</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-105125940.5595</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-105124740.5595</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F147" t="n">
+        <v>90211.1324</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-105214951.6919</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8858.522199999999</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-105214951.6919</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10551.0953</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-105214951.6919</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="F150" t="n">
+        <v>941539.9999000001</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-106156491.6918</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3051868.786</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-109208360.4778</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5780442.6039</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-114988803.0817</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2998000</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-114988803.0817</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="F154" t="n">
+        <v>16061825.1877</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-131050628.2694</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="C155" t="n">
         <v>0.4095</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D155" t="n">
         <v>0.4097</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E155" t="n">
         <v>0.4095</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F155" t="n">
         <v>746401.655</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G155" t="n">
         <v>-131797029.9244</v>
       </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.4097</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.4094</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.4094</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1058898.6689</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-132855928.5933</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="F157" t="n">
+        <v>202721.4272</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-132653207.1661</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.4066</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.4066</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4265164.4249</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-136918371.591</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.4069</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.4069</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.4069</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.4069</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1857983.9806</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-135060387.6104</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.4066</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.4066</v>
+      </c>
+      <c r="F160" t="n">
+        <v>19954459.6043</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-155014847.2147</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.4069</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.4094</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.4094</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1058898.6689</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-132855928.5933</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.4082</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.4082</v>
+      </c>
+      <c r="F161" t="n">
+        <v>410919.7732</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-154603927.4415</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.4066</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="F86" t="n">
-        <v>202721.4272</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-132653207.1661</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.4094</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="F162" t="n">
+        <v>113103.7284</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-154603927.4415</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.4066</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.4066</v>
-      </c>
-      <c r="F87" t="n">
-        <v>4265164.4249</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-136918371.591</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1244.0855</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-154602683.356</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.4069</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.4069</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.4069</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.4069</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1857983.9806</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-135060387.6104</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.4066</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="F164" t="n">
+        <v>86000</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-154602683.356</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.4066</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.4066</v>
-      </c>
-      <c r="F89" t="n">
-        <v>19954459.6043</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-155014847.2147</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.4069</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="F165" t="n">
+        <v>400609.3789</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-154202073.9771</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.4082</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.4082</v>
-      </c>
-      <c r="F90" t="n">
-        <v>410919.7732</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-154603927.4415</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.4066</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1551917.7694</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-154202073.9771</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="F91" t="n">
-        <v>113103.7284</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-154603927.4415</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="F167" t="n">
+        <v>18075936.9781</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-136126136.999</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1244.0855</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-154602683.356</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="F168" t="n">
+        <v>87326.8753</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-136213463.8743</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="F93" t="n">
-        <v>86000</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-154602683.356</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="F169" t="n">
+        <v>7125.7673</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-136213463.8743</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="F94" t="n">
-        <v>400609.3789</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-154202073.9771</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4313</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-136213463.8743</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1551917.7694</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-154202073.9771</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.4171</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.4171</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.4171</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.4171</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-136212263.8743</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.413</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.413</v>
-      </c>
-      <c r="F96" t="n">
-        <v>18075936.9781</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-136126136.999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.4166</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.4166</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.4104</v>
+      </c>
+      <c r="F172" t="n">
+        <v>8768813.601299999</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-144981077.4756</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="F97" t="n">
-        <v>87326.8753</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-136213463.8743</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F173" t="n">
+        <v>10626538.6948</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-155607616.1704</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="F98" t="n">
-        <v>7125.7673</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-136213463.8743</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1203</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-155606413.1704</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="F99" t="n">
-        <v>4313</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-136213463.8743</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.4096</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.4096</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.4096</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.4096</v>
+      </c>
+      <c r="F175" t="n">
+        <v>122826.4698</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-155729239.6402</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.4171</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.4171</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.4171</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.4171</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-136212263.8743</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.4068</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.4074</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.4074</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.4068</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2807885.047</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-158537124.6872</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.4166</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.4166</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.4104</v>
-      </c>
-      <c r="F101" t="n">
-        <v>8768813.601299999</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-144981077.4756</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.4081</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.4081</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.4081</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.4081</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3604</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-158533520.6872</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
         <v>0.41</v>
       </c>
-      <c r="C102" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="D102" t="n">
+      <c r="C178" t="n">
         <v>0.41</v>
       </c>
-      <c r="E102" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="F102" t="n">
-        <v>10626538.6948</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-155607616.1704</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+      <c r="D178" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1220</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-158532300.6872</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1203</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-155606413.1704</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1777172.6772</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-160309473.3644</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.4096</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.4096</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.4096</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.4096</v>
-      </c>
-      <c r="F104" t="n">
-        <v>122826.4698</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-155729239.6402</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1220</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-160308253.3644</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.4068</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.4074</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.4074</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.4068</v>
-      </c>
-      <c r="F105" t="n">
-        <v>2807885.047</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-158537124.6872</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F181" t="n">
+        <v>28572.5028</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-160308253.3644</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.4081</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.4081</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.4081</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.4081</v>
-      </c>
-      <c r="F106" t="n">
-        <v>3604</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-158533520.6872</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1442903.327</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-160308253.3644</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1220</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-158532300.6872</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="F183" t="n">
+        <v>193240.8148</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-160501494.1792</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.4078</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.4078</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.4078</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.4078</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1777172.6772</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-160309473.3644</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.4075</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.4075</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1845570.0503</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-162347064.2295</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1220</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-160308253.3644</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.4072</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.4072</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.4072</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.4072</v>
+      </c>
+      <c r="F185" t="n">
+        <v>29129.1662</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-162317935.0633</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F110" t="n">
-        <v>28572.5028</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-160308253.3644</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="F186" t="n">
+        <v>259578.0597</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-162577513.123</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.4072</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1442903.327</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-160308253.3644</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="F112" t="n">
-        <v>193240.8148</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-160501494.1792</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.4075</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.4075</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="F113" t="n">
-        <v>1845570.0503</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-162347064.2295</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.4072</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.4072</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.4072</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.4072</v>
-      </c>
-      <c r="F114" t="n">
-        <v>29129.1662</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-162317935.0633</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="F115" t="n">
-        <v>259578.0597</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-162577513.123</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.4072</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-24 BackTest BTT.xlsx
+++ b/BackTest/2020-01-24 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N186"/>
+  <dimension ref="A1:M186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-13331898.5998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-13331898.5998</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-13331898.5998</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-14110563.7501</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-20597055.0104</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-26597055.0104</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-26597055.0104</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-26595854.3517</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-26598525.8801</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-26598525.8801</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-26598525.8801</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-29646525.8801</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-29646525.8801</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-67113121.92840001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-67161322.65820001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-66500199.93460001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-66500199.93460001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-66500199.93460001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-66500199.93460001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-66500199.93460001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-68199736.32760002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-72044736.32760002</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-72044736.32760002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-71853088.16460001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-71467910.97830002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-71470439.06150001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-71470439.06150001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-71470439.06150001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-72983544.38340001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-70418216.84210001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-70418216.84210001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-72528361.55490001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-71153582.5469</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>-71103582.5469</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>-71163582.5469</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>-83276193.0177</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-86509559.63150001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-86197967.95910001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>-88312992.86650001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-79491841.65060002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>-79499549.64480002</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,19 @@
         <v>-139168738.8835</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.4098</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3724,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3763,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3802,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3835,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3868,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3901,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3934,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +3965,19 @@
         <v>-139587498.9113</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>0.4102</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.4102</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4004,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4041,23 @@
         <v>-139586259.6692</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>0.4102</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4084,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4117,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4150,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4183,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4216,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,18 +4247,19 @@
         <v>-121347084.8301</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>0.4134</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.4134</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4286,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4323,23 @@
         <v>-120531900.7042</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>0.4141</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4366,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4399,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4432,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4465,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4498,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4848,18 +4529,19 @@
         <v>-119222396.2072</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>0.4139</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.4139</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4568,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4607,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4956,18 +4644,23 @@
         <v>-121197974.8643</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>0.4138</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4992,18 +4685,23 @@
         <v>-103384656.652</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>0.4138</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5028,18 +4726,23 @@
         <v>-103384656.652</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>0.4178</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4769,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +4806,23 @@
         <v>-104644388.7291</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>0.4135</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5136,18 +4847,23 @@
         <v>-104644388.7291</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>0.4134</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,18 +4888,23 @@
         <v>-106101793.5062</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>0.4134</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,18 +4929,23 @@
         <v>-103544793.7064</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>0.412</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5244,18 +4970,23 @@
         <v>-103656197.7064</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>0.4135</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,18 +5011,23 @@
         <v>-105084604.6159</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>0.412</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5316,18 +5052,23 @@
         <v>-105084604.6159</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>0.41</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5352,18 +5093,23 @@
         <v>-105084604.6159</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>0.41</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5388,22 +5134,23 @@
         <v>-103068604.7161</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="J139" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>0.4139</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5428,24 +5175,23 @@
         <v>-103068604.7161</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>0.411</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5470,24 +5216,23 @@
         <v>-103068604.7161</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+        <v>0.411</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5512,18 +5257,23 @@
         <v>-103063604.7161</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>0.411</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5550,16 +5300,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5586,16 +5339,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5620,18 +5376,23 @@
         <v>-105125940.5595</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>0.4141</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5658,16 +5419,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5694,16 +5458,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5730,16 +5497,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5766,16 +5536,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5802,16 +5575,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5836,18 +5612,23 @@
         <v>-109208360.4778</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>0.4103</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5874,16 +5655,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5910,16 +5694,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5944,18 +5731,23 @@
         <v>-131050628.2694</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>0.41</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5980,18 +5772,23 @@
         <v>-131797029.9244</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>0.4097</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6018,16 +5815,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6054,16 +5854,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6090,16 +5893,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6126,16 +5932,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6160,24 +5969,21 @@
         <v>-155014847.2147</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>0.4069</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+        <v>0.4139</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6202,24 +6008,23 @@
         <v>-154603927.4415</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>0.4066</v>
       </c>
       <c r="J161" t="n">
-        <v>0.4066</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+        <v>0.4139</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6244,22 +6049,23 @@
         <v>-154603927.4415</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
+        <v>0.4083</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6284,22 +6090,23 @@
         <v>-154602683.356</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
+        <v>0.4083</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6326,20 +6133,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6366,20 +6172,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6406,20 +6211,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6444,22 +6248,23 @@
         <v>-136126136.999</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+        <v>0.41</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6484,22 +6289,23 @@
         <v>-136213463.8743</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+        <v>0.4134</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6524,22 +6330,23 @@
         <v>-136213463.8743</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+        <v>0.4112</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6566,20 +6373,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6606,20 +6412,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6646,20 +6451,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6686,20 +6490,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6726,20 +6529,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6766,20 +6568,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6806,20 +6607,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6846,20 +6646,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6886,20 +6685,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6926,20 +6724,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6966,20 +6763,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7006,20 +6802,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7046,20 +6841,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7086,20 +6880,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0.4139</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7124,24 +6917,21 @@
         <v>-162347064.2295</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+        <v>0.4139</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7166,24 +6956,21 @@
         <v>-162317935.0633</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
+        <v>0.4139</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7208,26 +6995,23 @@
         <v>-162577513.123</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>0.4072</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+        <v>0.4139</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest BTT.xlsx
+++ b/BackTest/2020-01-24 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-13331898.5998</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-13331898.5998</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-13331898.5998</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-14110563.7501</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-20597055.0104</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-26597055.0104</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-26597055.0104</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-26595854.3517</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-26598525.8801</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-26598525.8801</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-26598525.8801</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-29646525.8801</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-29646525.8801</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-67113121.92840001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-67161322.65820001</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-66500199.93460001</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-66500199.93460001</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-66500199.93460001</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-66500199.93460001</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-66500199.93460001</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-68199736.32760002</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-72044736.32760002</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-72044736.32760002</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-71850776.00280002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-71853088.16460001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-71853088.16460001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-71467910.97830002</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-71470439.06150001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-71470439.06150001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-71470439.06150001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-72983544.38340001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-70418216.84210001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-70418216.84210001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-72528361.55490001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-71153582.5469</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-71103582.5469</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-71163582.5469</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-83276193.0177</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-86509559.63150001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-86197967.95910001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-88312992.86650001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-79491841.65060002</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-79499549.64480002</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -3685,14 +3685,10 @@
         <v>-139168738.8835</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.4098</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
@@ -3725,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3764,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3965,14 +3949,10 @@
         <v>-139587498.9113</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0.4102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
@@ -4005,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4041,19 +4015,11 @@
         <v>-139586259.6692</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4247,14 +4213,10 @@
         <v>-121347084.8301</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.4134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
@@ -4287,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4323,19 +4279,11 @@
         <v>-120531900.7042</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4529,14 +4477,10 @@
         <v>-119222396.2072</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.4139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
@@ -4569,1618 +4513,1340 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K125" t="inlineStr">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="F126" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-121197974.8643</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="F127" t="n">
+        <v>8541000</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-121197974.8643</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.4178</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.4178</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="F128" t="n">
+        <v>17813318.2123</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-103384656.652</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.4178</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.4178</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="F129" t="n">
+        <v>894226</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-103384656.652</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1178300.0771</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-104562956.7291</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="F131" t="n">
+        <v>81432</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-104644388.7291</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="F132" t="n">
+        <v>48387</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-104644388.7291</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1457404.7771</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-106101793.5062</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2556999.7998</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-103544793.7064</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="F135" t="n">
+        <v>111404</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-103656197.7064</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1428406.9095</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-105084604.6159</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F137" t="n">
+        <v>87902.439</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-105084604.6159</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F138" t="n">
+        <v>87902.439</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-105084604.6159</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2015999.8998</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-103068604.7161</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F140" t="n">
+        <v>578364.1090000001</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-103068604.7161</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-103068604.7161</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-103063604.7161</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2412348.8135</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-103063604.7161</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="F144" t="n">
+        <v>240887.1566</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-102822717.5595</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.4128</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.4128</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2303223</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-105125940.5595</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-105124740.5595</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F147" t="n">
+        <v>90211.1324</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-105214951.6919</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8858.522199999999</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-105214951.6919</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10551.0953</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-105214951.6919</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="F150" t="n">
+        <v>941539.9999000001</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-106156491.6918</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3051868.786</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-109208360.4778</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5780442.6039</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-114988803.0817</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2998000</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-114988803.0817</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="F154" t="n">
+        <v>16061825.1877</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-131050628.2694</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="F155" t="n">
+        <v>746401.655</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-131797029.9244</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.4094</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.4094</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1058898.6689</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-132855928.5933</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="F157" t="n">
+        <v>202721.4272</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-132653207.1661</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.4066</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.4066</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4265164.4249</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-136918371.591</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.4069</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.4069</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.4069</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.4069</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1857983.9806</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-135060387.6104</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.4066</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.4066</v>
+      </c>
+      <c r="F160" t="n">
+        <v>19954459.6043</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-155014847.2147</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.4082</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.4082</v>
+      </c>
+      <c r="F161" t="n">
+        <v>410919.7732</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-154603927.4415</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="F162" t="n">
+        <v>113103.7284</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-154603927.4415</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1244.0855</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-154602683.356</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="F164" t="n">
+        <v>86000</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-154602683.356</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="F165" t="n">
+        <v>400609.3789</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-154202073.9771</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.4138</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.4138</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.4138</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.4138</v>
-      </c>
-      <c r="F126" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-121197974.8643</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.4138</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.4138</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.4138</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.4138</v>
-      </c>
-      <c r="F127" t="n">
-        <v>8541000</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-121197974.8643</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.4138</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.4138</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.4178</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.4178</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="F128" t="n">
-        <v>17813318.2123</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-103384656.652</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.4138</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.4178</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.4178</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="F129" t="n">
-        <v>894226</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-103384656.652</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.4178</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1178300.0771</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-104562956.7291</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="F131" t="n">
-        <v>81432</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-104644388.7291</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="F132" t="n">
-        <v>48387</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-104644388.7291</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1457404.7771</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-106101793.5062</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="F134" t="n">
-        <v>2556999.7998</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-103544793.7064</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="F135" t="n">
-        <v>111404</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-103656197.7064</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1428406.9095</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-105084604.6159</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F137" t="n">
-        <v>87902.439</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-105084604.6159</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F138" t="n">
-        <v>87902.439</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-105084604.6159</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2015999.8998</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-103068604.7161</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F140" t="n">
-        <v>578364.1090000001</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-103068604.7161</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-103068604.7161</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="F142" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-103063604.7161</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.4135</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2412348.8135</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-103063604.7161</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="F144" t="n">
-        <v>240887.1566</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-102822717.5595</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.4128</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.4128</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F145" t="n">
-        <v>2303223</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-105125940.5595</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.4161</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.4161</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.4161</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.4161</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-105124740.5595</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F147" t="n">
-        <v>90211.1324</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-105214951.6919</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F148" t="n">
-        <v>8858.522199999999</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-105214951.6919</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C149" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F149" t="n">
-        <v>10551.0953</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-105214951.6919</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C150" t="n">
-        <v>0.4103</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.4103</v>
-      </c>
-      <c r="F150" t="n">
-        <v>941539.9999000001</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-106156491.6918</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="F151" t="n">
-        <v>3051868.786</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-109208360.4778</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0.4103</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F152" t="n">
-        <v>5780442.6039</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-114988803.0817</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F153" t="n">
-        <v>2998000</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-114988803.0817</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C154" t="n">
-        <v>0.4097</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.4097</v>
-      </c>
-      <c r="F154" t="n">
-        <v>16061825.1877</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-131050628.2694</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>0.4097</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.4097</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="F155" t="n">
-        <v>746401.655</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-131797029.9244</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0.4097</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0.4094</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.4094</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1058898.6689</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-132855928.5933</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="F157" t="n">
-        <v>202721.4272</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-132653207.1661</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0.4066</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0.4066</v>
-      </c>
-      <c r="F158" t="n">
-        <v>4265164.4249</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-136918371.591</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>0.4069</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0.4069</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.4069</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0.4069</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1857983.9806</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-135060387.6104</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="C160" t="n">
-        <v>0.4066</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0.4066</v>
-      </c>
-      <c r="F160" t="n">
-        <v>19954459.6043</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-155014847.2147</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>0.4082</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0.4082</v>
-      </c>
-      <c r="F161" t="n">
-        <v>410919.7732</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-154603927.4415</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0.4066</v>
-      </c>
-      <c r="J161" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="F162" t="n">
-        <v>113103.7284</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-154603927.4415</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="J162" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1244.0855</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-154602683.356</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="J163" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="F164" t="n">
-        <v>86000</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-154602683.356</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="F165" t="n">
-        <v>400609.3789</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-154202073.9771</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>0.4139</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6209,11 +5875,13 @@
         <v>-154202073.9771</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.41</v>
+      </c>
       <c r="J166" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6248,13 +5916,11 @@
         <v>-136126136.999</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6289,13 +5955,11 @@
         <v>-136213463.8743</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0.4134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6330,13 +5994,11 @@
         <v>-136213463.8743</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0.4112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6375,7 +6037,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6414,7 +6076,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6453,7 +6115,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6492,7 +6154,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6531,7 +6193,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6570,7 +6232,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6609,7 +6271,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6648,7 +6310,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6687,7 +6349,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6726,7 +6388,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6761,11 +6423,13 @@
         <v>-160308253.3644</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.4078</v>
+      </c>
       <c r="J180" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6800,11 +6464,13 @@
         <v>-160308253.3644</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.41</v>
+      </c>
       <c r="J181" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6839,11 +6505,13 @@
         <v>-160308253.3644</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.41</v>
+      </c>
       <c r="J182" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6878,11 +6546,13 @@
         <v>-160501494.1792</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.41</v>
+      </c>
       <c r="J183" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6917,11 +6587,13 @@
         <v>-162347064.2295</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.4099</v>
+      </c>
       <c r="J184" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6956,11 +6628,13 @@
         <v>-162317935.0633</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.407</v>
+      </c>
       <c r="J185" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6995,11 +6669,13 @@
         <v>-162577513.123</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.4072</v>
+      </c>
       <c r="J186" t="n">
-        <v>0.4139</v>
+        <v>0.4099</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7012,6 +6688,6 @@
       <c r="M186" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest BTT.xlsx
+++ b/BackTest/2020-01-24 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-13331898.5998</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-13331898.5998</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-13331898.5998</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-14110563.7501</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-20597055.0104</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-26597055.0104</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-26597055.0104</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-26595854.3517</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-26598525.8801</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-26598525.8801</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-26598525.8801</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-29646525.8801</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-29646525.8801</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-67113121.92840001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-66500199.93460001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-71850776.00280002</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-71853088.16460001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-71853088.16460001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-71467910.97830002</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-71470439.06150001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-71470439.06150001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-72983544.38340001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-70418216.84210001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-70418216.84210001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-72528361.55490001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-71153582.5469</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-71103582.5469</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-121197974.8643</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-121197974.8643</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-103384656.652</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-103384656.652</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-104562956.7291</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-104644388.7291</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-104644388.7291</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-106101793.5062</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-103544793.7064</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-103656197.7064</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-103063604.7161</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-102822717.5595</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-105125940.5595</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-105124740.5595</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-105214951.6919</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-105214951.6919</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-105214951.6919</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-106156491.6918</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-131050628.2694</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-131797029.9244</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-132855928.5933</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5764,11 +5764,17 @@
         <v>-154602683.356</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.4083</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5802,10 +5808,12 @@
       <c r="I164" t="n">
         <v>0.4099</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5839,12 +5847,10 @@
       <c r="I165" t="n">
         <v>0.4099</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.4099</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L165" t="n">
@@ -5880,9 +5886,7 @@
       <c r="I166" t="n">
         <v>0.41</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.4099</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5916,12 +5920,12 @@
         <v>-136126136.999</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>0.4099</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5958,9 +5962,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>0.4099</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5997,9 +5999,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>0.4099</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6036,9 +6036,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>0.4099</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6075,9 +6073,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>0.4099</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6114,9 +6110,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>0.4099</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6153,9 +6147,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>0.4099</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6192,9 +6184,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>0.4099</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6231,9 +6221,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>0.4099</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6270,9 +6258,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>0.4099</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6309,9 +6295,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>0.4099</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6348,9 +6332,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>0.4099</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6387,9 +6369,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>0.4099</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6423,14 +6403,10 @@
         <v>-160308253.3644</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0.4078</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0.4099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6464,14 +6440,10 @@
         <v>-160308253.3644</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0.4099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6505,14 +6477,10 @@
         <v>-160308253.3644</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="J182" t="n">
-        <v>0.4099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6546,14 +6514,10 @@
         <v>-160501494.1792</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0.4099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6587,14 +6551,10 @@
         <v>-162347064.2295</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="J184" t="n">
-        <v>0.4099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6628,14 +6588,10 @@
         <v>-162317935.0633</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="J185" t="n">
-        <v>0.4099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6669,14 +6625,10 @@
         <v>-162577513.123</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0.4072</v>
-      </c>
-      <c r="J186" t="n">
-        <v>0.4099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6688,6 +6640,6 @@
       <c r="M186" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest BTT.xlsx
+++ b/BackTest/2020-01-24 BackTest BTT.xlsx
@@ -451,7 +451,7 @@
         <v>-13331898.5998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-13331898.5998</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-13331898.5998</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-14110563.7501</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-20597055.0104</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-26597055.0104</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-26597055.0104</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-26595854.3517</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-26598525.8801</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-26598525.8801</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-26598525.8801</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-29646525.8801</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-29646525.8801</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-67113121.92840001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-67161322.65820001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-66500199.93460001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-121197974.8643</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-121197974.8643</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-103384656.652</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-103384656.652</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-104562956.7291</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-104644388.7291</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-104644388.7291</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-106101793.5062</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-103544793.7064</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-103656197.7064</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-103063604.7161</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-102822717.5595</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-105125940.5595</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-105124740.5595</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-105214951.6919</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-105214951.6919</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-105214951.6919</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-106156491.6918</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-131050628.2694</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-131797029.9244</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-132855928.5933</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5764,802 +5764,710 @@
         <v>-154602683.356</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0.4083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="F164" t="n">
+        <v>86000</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-154602683.356</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="F165" t="n">
+        <v>400609.3789</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-154202073.9771</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1551917.7694</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-154202073.9771</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="F167" t="n">
+        <v>18075936.9781</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-136126136.999</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="F168" t="n">
+        <v>87326.8753</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-136213463.8743</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="F169" t="n">
+        <v>7125.7673</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-136213463.8743</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4313</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-136213463.8743</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.4171</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.4171</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.4171</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.4171</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-136212263.8743</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.4166</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.4166</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.4104</v>
+      </c>
+      <c r="F172" t="n">
+        <v>8768813.601299999</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-144981077.4756</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F173" t="n">
+        <v>10626538.6948</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-155607616.1704</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1203</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-155606413.1704</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.4096</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.4096</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.4096</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.4096</v>
+      </c>
+      <c r="F175" t="n">
+        <v>122826.4698</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-155729239.6402</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.4068</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.4074</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.4074</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.4068</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2807885.047</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-158537124.6872</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.4081</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.4081</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.4081</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.4081</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3604</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-158533520.6872</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1220</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-158532300.6872</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1777172.6772</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-160309473.3644</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1220</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-160308253.3644</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F181" t="n">
+        <v>28572.5028</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-160308253.3644</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1442903.327</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-160308253.3644</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="F183" t="n">
+        <v>193240.8148</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-160501494.1792</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.4075</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.4075</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1845570.0503</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-162347064.2295</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="F164" t="n">
-        <v>86000</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-154602683.356</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="F165" t="n">
-        <v>400609.3789</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-154202073.9771</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1551917.7694</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-154202073.9771</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>0.413</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.413</v>
-      </c>
-      <c r="F167" t="n">
-        <v>18075936.9781</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-136126136.999</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="F168" t="n">
-        <v>87326.8753</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-136213463.8743</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="F169" t="n">
-        <v>7125.7673</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-136213463.8743</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="F170" t="n">
-        <v>4313</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-136213463.8743</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0.4171</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.4171</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.4171</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.4171</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-136212263.8743</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.4166</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.4166</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.4104</v>
-      </c>
-      <c r="F172" t="n">
-        <v>8768813.601299999</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-144981077.4756</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="F173" t="n">
-        <v>10626538.6948</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-155607616.1704</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1203</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-155606413.1704</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>0.4096</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0.4096</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.4096</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0.4096</v>
-      </c>
-      <c r="F175" t="n">
-        <v>122826.4698</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-155729239.6402</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>0.4068</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0.4074</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.4074</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0.4068</v>
-      </c>
-      <c r="F176" t="n">
-        <v>2807885.047</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-158537124.6872</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>0.4081</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0.4081</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.4081</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0.4081</v>
-      </c>
-      <c r="F177" t="n">
-        <v>3604</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-158533520.6872</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1220</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-158532300.6872</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>0.4078</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0.4078</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.4078</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0.4078</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1777172.6772</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-160309473.3644</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1220</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-160308253.3644</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F181" t="n">
-        <v>28572.5028</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-160308253.3644</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F182" t="n">
-        <v>1442903.327</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-160308253.3644</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="F183" t="n">
-        <v>193240.8148</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-160501494.1792</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>0.4075</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.4075</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1845570.0503</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-162347064.2295</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6588,9 +6496,11 @@
         <v>-162317935.0633</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.407</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -6625,9 +6535,11 @@
         <v>-162577513.123</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.4072</v>
+      </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>

--- a/BackTest/2020-01-24 BackTest BTT.xlsx
+++ b/BackTest/2020-01-24 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M186"/>
+  <dimension ref="A1:L186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3555776.5541</v>
       </c>
       <c r="G2" t="n">
-        <v>-13331898.5998</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2893302.6049</v>
       </c>
       <c r="G3" t="n">
-        <v>-13331898.5998</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1125997.4468</v>
       </c>
       <c r="G4" t="n">
-        <v>-13331898.5998</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>778665.1503</v>
       </c>
       <c r="G5" t="n">
-        <v>-14110563.7501</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>6486491.2603</v>
       </c>
       <c r="G6" t="n">
-        <v>-20597055.0104</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>6000000</v>
       </c>
       <c r="G7" t="n">
-        <v>-26597055.0104</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1597580</v>
       </c>
       <c r="G8" t="n">
-        <v>-26597055.0104</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1200.6587</v>
       </c>
       <c r="G9" t="n">
-        <v>-26595854.3517</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2671.5284</v>
       </c>
       <c r="G10" t="n">
-        <v>-26598525.8801</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>30872.9504</v>
       </c>
       <c r="G11" t="n">
-        <v>-26598525.8801</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>484740.2097</v>
       </c>
       <c r="G12" t="n">
-        <v>-26598525.8801</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>3048000</v>
       </c>
       <c r="G13" t="n">
-        <v>-29646525.8801</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>600000</v>
       </c>
       <c r="G14" t="n">
-        <v>-29646525.8801</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>37466596.0483</v>
       </c>
       <c r="G15" t="n">
-        <v>-67113121.92840001</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>48200.7298</v>
       </c>
       <c r="G16" t="n">
-        <v>-67161322.65820001</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>661122.7236</v>
       </c>
       <c r="G17" t="n">
-        <v>-66500199.93460001</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>645673.4348</v>
       </c>
       <c r="G18" t="n">
-        <v>-66500199.93460001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>989058.7176</v>
       </c>
       <c r="G19" t="n">
-        <v>-66500199.93460001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>804642.2828</v>
       </c>
       <c r="G20" t="n">
-        <v>-66500199.93460001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>3140327.3103</v>
       </c>
       <c r="G21" t="n">
-        <v>-66500199.93460001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1699536.393</v>
       </c>
       <c r="G22" t="n">
-        <v>-68199736.32760002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>3845000</v>
       </c>
       <c r="G23" t="n">
-        <v>-72044736.32760002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>2439721.7728</v>
       </c>
       <c r="G24" t="n">
-        <v>-72044736.32760002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>806039.6752000001</v>
       </c>
       <c r="G25" t="n">
-        <v>-72850776.00280002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1000000</v>
       </c>
       <c r="G26" t="n">
-        <v>-71850776.00280002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>2312.1618</v>
       </c>
       <c r="G27" t="n">
-        <v>-71853088.16460001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>10000</v>
       </c>
       <c r="G28" t="n">
-        <v>-71853088.16460001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>385177.1863</v>
       </c>
       <c r="G29" t="n">
-        <v>-71467910.97830002</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>2528.0832</v>
       </c>
       <c r="G30" t="n">
-        <v>-71470439.06150001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>749545.3179</v>
       </c>
       <c r="G31" t="n">
-        <v>-71470439.06150001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1009265.0405</v>
       </c>
       <c r="G32" t="n">
-        <v>-71470439.06150001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1513105.3219</v>
       </c>
       <c r="G33" t="n">
-        <v>-72983544.38340001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>2565327.5413</v>
       </c>
       <c r="G34" t="n">
-        <v>-70418216.84210001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>250185.4405</v>
       </c>
       <c r="G35" t="n">
-        <v>-70418216.84210001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>2110144.7128</v>
       </c>
       <c r="G36" t="n">
-        <v>-72528361.55490001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1374779.008</v>
       </c>
       <c r="G37" t="n">
-        <v>-71153582.5469</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>50000</v>
       </c>
       <c r="G38" t="n">
-        <v>-71103582.5469</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>60000</v>
       </c>
       <c r="G39" t="n">
-        <v>-71163582.5469</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>12112610.4708</v>
       </c>
       <c r="G40" t="n">
-        <v>-83276193.0177</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>652129.5554</v>
       </c>
       <c r="G41" t="n">
-        <v>-83276193.0177</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>3233366.6138</v>
       </c>
       <c r="G42" t="n">
-        <v>-86509559.63150001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>311591.6724</v>
       </c>
       <c r="G43" t="n">
-        <v>-86197967.95910001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>2123024.9074</v>
       </c>
       <c r="G44" t="n">
-        <v>-88320992.86650001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>8000</v>
       </c>
       <c r="G45" t="n">
-        <v>-88312992.86650001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>121710.5131</v>
       </c>
       <c r="G46" t="n">
-        <v>-88312992.86650001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1085701.4668</v>
       </c>
       <c r="G47" t="n">
-        <v>-88312992.86650001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>8796236.2426</v>
       </c>
       <c r="G48" t="n">
-        <v>-79516756.62390001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>1315.3684</v>
       </c>
       <c r="G49" t="n">
-        <v>-79515441.25550002</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1312.2844</v>
       </c>
       <c r="G50" t="n">
-        <v>-79514128.97110002</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>9366061.1426</v>
       </c>
       <c r="G51" t="n">
-        <v>-79514128.97110002</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1200</v>
       </c>
       <c r="G52" t="n">
-        <v>-79512928.97110002</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>5000</v>
       </c>
       <c r="G53" t="n">
-        <v>-79517928.97110002</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>24902.3205</v>
       </c>
       <c r="G54" t="n">
-        <v>-79493026.65060002</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1185</v>
       </c>
       <c r="G55" t="n">
-        <v>-79491841.65060002</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>7090.43560605</v>
       </c>
       <c r="G56" t="n">
-        <v>-79491841.65060002</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>6394.0672</v>
       </c>
       <c r="G57" t="n">
-        <v>-79498235.71780002</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1313.927</v>
       </c>
       <c r="G58" t="n">
-        <v>-79499549.64480002</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>62493.414</v>
       </c>
       <c r="G59" t="n">
-        <v>-79437056.23080002</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>563574.0989</v>
       </c>
       <c r="G60" t="n">
-        <v>-80000630.32970002</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1545.1369</v>
       </c>
       <c r="G61" t="n">
-        <v>-79999085.19280003</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>108356</v>
       </c>
       <c r="G62" t="n">
-        <v>-80107441.19280003</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>9257017.9661</v>
       </c>
       <c r="G63" t="n">
-        <v>-89364459.15890002</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>1917552.1441</v>
       </c>
       <c r="G64" t="n">
-        <v>-87446907.01480003</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>594218.7913</v>
       </c>
       <c r="G65" t="n">
-        <v>-88041125.80610003</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>19639.9535</v>
       </c>
       <c r="G66" t="n">
-        <v>-88021485.85260002</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>5938.0015</v>
       </c>
       <c r="G67" t="n">
-        <v>-88021485.85260002</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>58498.6141</v>
       </c>
       <c r="G68" t="n">
-        <v>-88079984.46670002</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>58498.6141</v>
       </c>
       <c r="G69" t="n">
-        <v>-88079984.46670002</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>98569.16740000001</v>
       </c>
       <c r="G70" t="n">
-        <v>-88079984.46670002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>28121.0409</v>
       </c>
       <c r="G71" t="n">
-        <v>-88051863.42580001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>60411.681</v>
       </c>
       <c r="G72" t="n">
-        <v>-87991451.74480002</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>107428.3138</v>
       </c>
       <c r="G73" t="n">
-        <v>-88098880.05860002</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>4903071.3589</v>
       </c>
       <c r="G74" t="n">
-        <v>-88098880.05860002</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>22456138.6421</v>
       </c>
       <c r="G75" t="n">
-        <v>-110555018.7007</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>14856414.143</v>
       </c>
       <c r="G76" t="n">
-        <v>-110555018.7007</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>2534710.1068</v>
       </c>
       <c r="G77" t="n">
-        <v>-108020308.5939</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>5557619.3488</v>
       </c>
       <c r="G78" t="n">
-        <v>-113577927.9427</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>961000</v>
       </c>
       <c r="G79" t="n">
-        <v>-113577927.9427</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>6282498.6591</v>
       </c>
       <c r="G80" t="n">
-        <v>-119860426.6018</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>81674.29399999999</v>
       </c>
       <c r="G81" t="n">
-        <v>-119778752.3078</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>112176.6979</v>
       </c>
       <c r="G82" t="n">
-        <v>-119778752.3078</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>162954.2571</v>
       </c>
       <c r="G83" t="n">
-        <v>-119778752.3078</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>2610940</v>
       </c>
       <c r="G84" t="n">
-        <v>-122389692.3078</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>1770244.231</v>
       </c>
       <c r="G85" t="n">
-        <v>-120619448.0768</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>3784319.1579</v>
       </c>
       <c r="G86" t="n">
-        <v>-124403767.2347</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>8173464.2983</v>
       </c>
       <c r="G87" t="n">
-        <v>-124403767.2347</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>2240218.9322</v>
       </c>
       <c r="G88" t="n">
-        <v>-124403767.2347</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>3464091.8306</v>
       </c>
       <c r="G89" t="n">
-        <v>-127867859.0653</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>1220</v>
       </c>
       <c r="G90" t="n">
-        <v>-127866639.0653</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>14277810.8499</v>
       </c>
       <c r="G91" t="n">
-        <v>-142144449.9152</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>2231849.2738</v>
       </c>
       <c r="G92" t="n">
-        <v>-139912600.6414</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>24408.1035</v>
       </c>
       <c r="G93" t="n">
-        <v>-139937008.7449</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>116662.1034</v>
       </c>
       <c r="G94" t="n">
-        <v>-140053670.8483</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>199468.5169</v>
       </c>
       <c r="G95" t="n">
-        <v>-139854202.3314</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>8538.352199999999</v>
       </c>
       <c r="G96" t="n">
-        <v>-139854202.3314</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>676898.0695</v>
       </c>
       <c r="G97" t="n">
-        <v>-139177304.2619</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>104898.6317</v>
       </c>
       <c r="G98" t="n">
-        <v>-139282202.8936</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>77220.6284</v>
       </c>
       <c r="G99" t="n">
-        <v>-139204982.2652</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>36243.3817</v>
       </c>
       <c r="G100" t="n">
-        <v>-139168738.8835</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>75297.2528</v>
       </c>
       <c r="G101" t="n">
-        <v>-139093441.6307</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>3700</v>
       </c>
       <c r="G102" t="n">
-        <v>-139089741.6307</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>12606.772</v>
       </c>
       <c r="G103" t="n">
-        <v>-139102348.4027</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>688782.5035</v>
       </c>
       <c r="G104" t="n">
-        <v>-139102348.4027</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>1274.5306</v>
       </c>
       <c r="G105" t="n">
-        <v>-139101073.8721</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>1218.2743</v>
       </c>
       <c r="G106" t="n">
-        <v>-139099855.5978</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>487643.3135</v>
       </c>
       <c r="G107" t="n">
-        <v>-139587498.9113</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>693621.8227</v>
       </c>
       <c r="G108" t="n">
-        <v>-139587498.9113</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>323453.0144</v>
       </c>
       <c r="G109" t="n">
-        <v>-139587498.9113</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>1239.2421</v>
       </c>
       <c r="G110" t="n">
-        <v>-139586259.6692</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>299955.9867</v>
       </c>
       <c r="G111" t="n">
-        <v>-139586259.6692</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>1250.4689</v>
       </c>
       <c r="G112" t="n">
-        <v>-139585009.2003</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>1212121.21212121</v>
       </c>
       <c r="G113" t="n">
-        <v>-139585009.2003</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>3256789.1036</v>
       </c>
       <c r="G114" t="n">
-        <v>-136328220.0967</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>8230597.8303</v>
       </c>
       <c r="G115" t="n">
-        <v>-136328220.0967</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>14981135.2666</v>
       </c>
       <c r="G116" t="n">
-        <v>-121347084.8301</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>752823</v>
       </c>
       <c r="G117" t="n">
-        <v>-120594261.8301</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>62361.1259</v>
       </c>
       <c r="G118" t="n">
-        <v>-120531900.7042</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>402960.9031</v>
       </c>
       <c r="G119" t="n">
-        <v>-120934861.6073</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>1723746.7428</v>
       </c>
       <c r="G120" t="n">
-        <v>-119211114.8645</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>1250.7881</v>
       </c>
       <c r="G121" t="n">
-        <v>-119209864.0764</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>99226.8202</v>
       </c>
       <c r="G122" t="n">
-        <v>-119309090.8966</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>85477.8989</v>
       </c>
       <c r="G123" t="n">
-        <v>-119223612.9977</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>1216.7905</v>
       </c>
       <c r="G124" t="n">
-        <v>-119222396.2072</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>1975578.6571</v>
       </c>
       <c r="G125" t="n">
-        <v>-121197974.8643</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>6000</v>
       </c>
       <c r="G126" t="n">
-        <v>-121197974.8643</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>8541000</v>
       </c>
       <c r="G127" t="n">
-        <v>-121197974.8643</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>17813318.2123</v>
       </c>
       <c r="G128" t="n">
-        <v>-103384656.652</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>894226</v>
       </c>
       <c r="G129" t="n">
-        <v>-103384656.652</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>1178300.0771</v>
       </c>
       <c r="G130" t="n">
-        <v>-104562956.7291</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>81432</v>
       </c>
       <c r="G131" t="n">
-        <v>-104644388.7291</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>48387</v>
       </c>
       <c r="G132" t="n">
-        <v>-104644388.7291</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>1457404.7771</v>
       </c>
       <c r="G133" t="n">
-        <v>-106101793.5062</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>2556999.7998</v>
       </c>
       <c r="G134" t="n">
-        <v>-103544793.7064</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>111404</v>
       </c>
       <c r="G135" t="n">
-        <v>-103656197.7064</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>1428406.9095</v>
       </c>
       <c r="G136" t="n">
-        <v>-105084604.6159</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>87902.439</v>
       </c>
       <c r="G137" t="n">
-        <v>-105084604.6159</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>87902.439</v>
       </c>
       <c r="G138" t="n">
-        <v>-105084604.6159</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>2015999.8998</v>
       </c>
       <c r="G139" t="n">
-        <v>-103068604.7161</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>578364.1090000001</v>
       </c>
       <c r="G140" t="n">
-        <v>-103068604.7161</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>0.0001</v>
       </c>
       <c r="G141" t="n">
-        <v>-103068604.7161</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>5000</v>
       </c>
       <c r="G142" t="n">
-        <v>-103063604.7161</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>2412348.8135</v>
       </c>
       <c r="G143" t="n">
-        <v>-103063604.7161</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>240887.1566</v>
       </c>
       <c r="G144" t="n">
-        <v>-102822717.5595</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>2303223</v>
       </c>
       <c r="G145" t="n">
-        <v>-105125940.5595</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>1200</v>
       </c>
       <c r="G146" t="n">
-        <v>-105124740.5595</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>90211.1324</v>
       </c>
       <c r="G147" t="n">
-        <v>-105214951.6919</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>8858.522199999999</v>
       </c>
       <c r="G148" t="n">
-        <v>-105214951.6919</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>10551.0953</v>
       </c>
       <c r="G149" t="n">
-        <v>-105214951.6919</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>941539.9999000001</v>
       </c>
       <c r="G150" t="n">
-        <v>-106156491.6918</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>3051868.786</v>
       </c>
       <c r="G151" t="n">
-        <v>-109208360.4778</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>5780442.6039</v>
       </c>
       <c r="G152" t="n">
-        <v>-114988803.0817</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>2998000</v>
       </c>
       <c r="G153" t="n">
-        <v>-114988803.0817</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>16061825.1877</v>
       </c>
       <c r="G154" t="n">
-        <v>-131050628.2694</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>746401.655</v>
       </c>
       <c r="G155" t="n">
-        <v>-131797029.9244</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>1058898.6689</v>
       </c>
       <c r="G156" t="n">
-        <v>-132855928.5933</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>202721.4272</v>
       </c>
       <c r="G157" t="n">
-        <v>-132653207.1661</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>4265164.4249</v>
       </c>
       <c r="G158" t="n">
-        <v>-136918371.591</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>1857983.9806</v>
       </c>
       <c r="G159" t="n">
-        <v>-135060387.6104</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>19954459.6043</v>
       </c>
       <c r="G160" t="n">
-        <v>-155014847.2147</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>410919.7732</v>
       </c>
       <c r="G161" t="n">
-        <v>-154603927.4415</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>113103.7284</v>
       </c>
       <c r="G162" t="n">
-        <v>-154603927.4415</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,21 @@
         <v>1244.0855</v>
       </c>
       <c r="G163" t="n">
-        <v>-154602683.356</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>0.4083</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5309,19 @@
         <v>86000</v>
       </c>
       <c r="G164" t="n">
-        <v>-154602683.356</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5343,19 @@
         <v>400609.3789</v>
       </c>
       <c r="G165" t="n">
-        <v>-154202073.9771</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5377,19 @@
         <v>1551917.7694</v>
       </c>
       <c r="G166" t="n">
-        <v>-154202073.9771</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5411,19 @@
         <v>18075936.9781</v>
       </c>
       <c r="G167" t="n">
-        <v>-136126136.999</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5445,19 @@
         <v>87326.8753</v>
       </c>
       <c r="G168" t="n">
-        <v>-136213463.8743</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5479,19 @@
         <v>7125.7673</v>
       </c>
       <c r="G169" t="n">
-        <v>-136213463.8743</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5513,19 @@
         <v>4313</v>
       </c>
       <c r="G170" t="n">
-        <v>-136213463.8743</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5547,19 @@
         <v>1200</v>
       </c>
       <c r="G171" t="n">
-        <v>-136212263.8743</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5581,19 @@
         <v>8768813.601299999</v>
       </c>
       <c r="G172" t="n">
-        <v>-144981077.4756</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5615,19 @@
         <v>10626538.6948</v>
       </c>
       <c r="G173" t="n">
-        <v>-155607616.1704</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5649,19 @@
         <v>1203</v>
       </c>
       <c r="G174" t="n">
-        <v>-155606413.1704</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5683,19 @@
         <v>122826.4698</v>
       </c>
       <c r="G175" t="n">
-        <v>-155729239.6402</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5717,19 @@
         <v>2807885.047</v>
       </c>
       <c r="G176" t="n">
-        <v>-158537124.6872</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5751,19 @@
         <v>3604</v>
       </c>
       <c r="G177" t="n">
-        <v>-158533520.6872</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5785,19 @@
         <v>1220</v>
       </c>
       <c r="G178" t="n">
-        <v>-158532300.6872</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5819,19 @@
         <v>1777172.6772</v>
       </c>
       <c r="G179" t="n">
-        <v>-160309473.3644</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5853,19 @@
         <v>1220</v>
       </c>
       <c r="G180" t="n">
-        <v>-160308253.3644</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5887,19 @@
         <v>28572.5028</v>
       </c>
       <c r="G181" t="n">
-        <v>-160308253.3644</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5921,19 @@
         <v>1442903.327</v>
       </c>
       <c r="G182" t="n">
-        <v>-160308253.3644</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5955,19 @@
         <v>193240.8148</v>
       </c>
       <c r="G183" t="n">
-        <v>-160501494.1792</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,24 +5989,21 @@
         <v>1845570.0503</v>
       </c>
       <c r="G184" t="n">
-        <v>-162347064.2295</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
         <v>0.4099</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6493,24 +6025,21 @@
         <v>29129.1662</v>
       </c>
       <c r="G185" t="n">
-        <v>-162317935.0633</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
         <v>0.407</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6532,24 +6061,21 @@
         <v>259578.0597</v>
       </c>
       <c r="G186" t="n">
-        <v>-162577513.123</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
         <v>0.4072</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
